--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="628">
   <si>
     <t>Google Maps</t>
   </si>
@@ -3113,6 +3113,15 @@
       <c r="AM9" s="2">
         <v>2.0</v>
       </c>
+      <c r="AN9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -3157,6 +3166,15 @@
       <c r="AM10" s="2">
         <v>2.0</v>
       </c>
+      <c r="AN10" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -3201,6 +3219,15 @@
       <c r="AM11" s="2">
         <v>2.0</v>
       </c>
+      <c r="AN11" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ11" s="2">
         <v>99.0</v>
       </c>
@@ -3240,6 +3267,15 @@
       <c r="AM12" s="2">
         <v>4.0</v>
       </c>
+      <c r="AN12" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -3269,6 +3305,15 @@
       <c r="AM13" s="2">
         <v>4.0</v>
       </c>
+      <c r="AN13" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -3298,6 +3343,15 @@
       <c r="AM14" s="2">
         <v>4.0</v>
       </c>
+      <c r="AN14" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -3327,6 +3381,15 @@
       <c r="AM15" s="2">
         <v>6.0</v>
       </c>
+      <c r="AN15" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -3356,6 +3419,15 @@
       <c r="AM16" s="2">
         <v>8.0</v>
       </c>
+      <c r="AN16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3385,6 +3457,15 @@
       <c r="AM17" s="2">
         <v>8.0</v>
       </c>
+      <c r="AN17" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -3414,6 +3495,15 @@
       <c r="AM18" s="2">
         <v>10.0</v>
       </c>
+      <c r="AN18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -3443,6 +3533,15 @@
       <c r="AM19" s="2">
         <v>11.0</v>
       </c>
+      <c r="AN19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -3472,6 +3571,15 @@
       <c r="AM20" s="2">
         <v>12.0</v>
       </c>
+      <c r="AN20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -3510,6 +3618,15 @@
       <c r="AM21" s="2">
         <v>13.0</v>
       </c>
+      <c r="AN21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ21" s="2">
         <v>30.0</v>
       </c>
@@ -3552,6 +3669,15 @@
       <c r="AM22" s="2">
         <v>13.0</v>
       </c>
+      <c r="AN22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ22" s="2">
         <v>30.0</v>
       </c>
@@ -3594,6 +3720,15 @@
       <c r="AM23" s="2">
         <v>13.0</v>
       </c>
+      <c r="AN23" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ23" s="2">
         <v>30.0</v>
       </c>
@@ -3876,6 +4011,15 @@
       <c r="AM27" s="2">
         <v>15.0</v>
       </c>
+      <c r="AN27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -3905,6 +4049,15 @@
       <c r="AM28" s="2">
         <v>16.0</v>
       </c>
+      <c r="AN28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -3934,6 +4087,15 @@
       <c r="AM29" s="2">
         <v>17.0</v>
       </c>
+      <c r="AN29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -3963,6 +4125,15 @@
       <c r="AM30" s="2">
         <v>18.0</v>
       </c>
+      <c r="AN30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -3992,6 +4163,15 @@
       <c r="AM31" s="2">
         <v>18.0</v>
       </c>
+      <c r="AN31" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -4021,6 +4201,15 @@
       <c r="AM32" s="2">
         <v>19.0</v>
       </c>
+      <c r="AN32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP32" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -4053,6 +4242,15 @@
       <c r="AM33" s="2">
         <v>20.0</v>
       </c>
+      <c r="AN33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
@@ -4082,6 +4280,15 @@
       <c r="AM34" s="2">
         <v>21.0</v>
       </c>
+      <c r="AN34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
@@ -4111,6 +4318,15 @@
       <c r="AM35" s="2">
         <v>21.0</v>
       </c>
+      <c r="AN35" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP35" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -4140,6 +4356,15 @@
       <c r="AM36" s="2">
         <v>21.0</v>
       </c>
+      <c r="AN36" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -4169,6 +4394,15 @@
       <c r="AM37" s="2">
         <v>22.0</v>
       </c>
+      <c r="AN37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ37" s="2">
         <v>99.0</v>
       </c>
@@ -4202,6 +4436,15 @@
       <c r="AM38" s="2">
         <v>22.0</v>
       </c>
+      <c r="AN38" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ38" s="2">
         <v>99.0</v>
       </c>
@@ -4235,6 +4478,15 @@
       <c r="AM39" s="2">
         <v>23.0</v>
       </c>
+      <c r="AN39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -4264,6 +4516,15 @@
       <c r="AM40" s="2">
         <v>24.0</v>
       </c>
+      <c r="AN40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -4296,6 +4557,15 @@
       <c r="AM41" s="2">
         <v>24.0</v>
       </c>
+      <c r="AN41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ41" s="2">
         <v>90.0</v>
       </c>
@@ -4329,6 +4599,15 @@
       <c r="AM42" s="2">
         <v>24.0</v>
       </c>
+      <c r="AN42" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP42" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -4361,6 +4640,15 @@
       <c r="AM43" s="2">
         <v>24.0</v>
       </c>
+      <c r="AN43" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -4390,6 +4678,15 @@
       <c r="AM44" s="2">
         <v>25.0</v>
       </c>
+      <c r="AN44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP44" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -4419,6 +4716,15 @@
       <c r="AM45" s="2">
         <v>25.0</v>
       </c>
+      <c r="AN45" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO45" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP45" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -4570,6 +4876,15 @@
       <c r="AM47" s="2">
         <v>27.0</v>
       </c>
+      <c r="AN47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP47" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -4599,6 +4914,15 @@
       <c r="AM48" s="2">
         <v>27.0</v>
       </c>
+      <c r="AN48" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AP48" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -4628,6 +4952,15 @@
       <c r="AM49" s="2">
         <v>28.0</v>
       </c>
+      <c r="AN49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -4657,6 +4990,15 @@
       <c r="AM50" s="2">
         <v>28.0</v>
       </c>
+      <c r="AN50" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP50" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -4689,6 +5031,15 @@
       <c r="AM51" s="2">
         <v>28.0</v>
       </c>
+      <c r="AN51" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP51" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -4718,6 +5069,15 @@
       <c r="AM52" s="2">
         <v>29.0</v>
       </c>
+      <c r="AN52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO52" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -4753,6 +5113,15 @@
       <c r="AM53" s="2">
         <v>29.0</v>
       </c>
+      <c r="AN53" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP53" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
@@ -4788,6 +5157,15 @@
       <c r="AM54" s="2">
         <v>29.0</v>
       </c>
+      <c r="AN54" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AP54" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -4867,6 +5245,15 @@
       <c r="AM56" s="2">
         <v>30.0</v>
       </c>
+      <c r="AN56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO56" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP56" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -4896,6 +5283,15 @@
       <c r="AM57" s="2">
         <v>30.0</v>
       </c>
+      <c r="AN57" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO57" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP57" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -4928,6 +5324,15 @@
       <c r="AM58" s="2">
         <v>30.0</v>
       </c>
+      <c r="AN58" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP58" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -4957,6 +5362,15 @@
       <c r="AM59" s="2">
         <v>30.0</v>
       </c>
+      <c r="AN59" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AO59" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
@@ -5030,6 +5444,15 @@
       <c r="AM61" s="2">
         <v>31.0</v>
       </c>
+      <c r="AN61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO61" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP61" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ61" s="2">
         <v>99.0</v>
       </c>
@@ -5063,6 +5486,15 @@
       <c r="AM62" s="2">
         <v>31.0</v>
       </c>
+      <c r="AN62" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO62" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP62" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AQ62" s="2">
         <v>99.0</v>
       </c>
@@ -5096,6 +5528,15 @@
       <c r="AM63" s="2">
         <v>33.0</v>
       </c>
+      <c r="AN63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO63" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP63" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -5125,6 +5566,15 @@
       <c r="AM64" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP64" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -5151,6 +5601,15 @@
       <c r="AM65" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN65" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP65" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
@@ -5180,6 +5639,15 @@
       <c r="AM66" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN66" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP66" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -5206,6 +5674,15 @@
       <c r="AM67" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP67" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -5235,6 +5712,15 @@
       <c r="AM68" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN68" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AO68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AP68" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -5270,6 +5756,15 @@
       <c r="AM69" s="2">
         <v>34.0</v>
       </c>
+      <c r="AN69" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AO69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP69" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
@@ -5345,6 +5840,15 @@
       <c r="AM71" s="2">
         <v>37.0</v>
       </c>
+      <c r="AN71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP71" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
@@ -5380,6 +5884,15 @@
       <c r="AM72" s="2">
         <v>37.0</v>
       </c>
+      <c r="AN72" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AO72" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AP72" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
@@ -5421,6 +5934,15 @@
       <c r="AM73" s="2">
         <v>38.0</v>
       </c>
+      <c r="AN73" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AP73" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
@@ -5456,6 +5978,15 @@
       <c r="AM74" s="2">
         <v>38.0</v>
       </c>
+      <c r="AN74" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="AO74" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="AP74" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -5688,6 +6219,15 @@
       </c>
       <c r="AM78" s="2">
         <v>40.0</v>
+      </c>
+      <c r="AN78" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AO78" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AP78" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="AQ78" s="2">
         <v>99.0</v>

--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="652">
   <si>
     <t>Google Maps</t>
   </si>
@@ -596,6 +596,15 @@
     <t>72.33334015655703</t>
   </si>
   <si>
+    <t>Mingora</t>
+  </si>
+  <si>
+    <t>Swat</t>
+  </si>
+  <si>
+    <t>Malakand</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -608,6 +617,9 @@
     <t>72.21028088377693</t>
   </si>
   <si>
+    <t>Barikot</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -620,6 +632,12 @@
     <t>71.7220490760742</t>
   </si>
   <si>
+    <t>Takht Bhai</t>
+  </si>
+  <si>
+    <t>Mardan</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -632,6 +650,12 @@
     <t>72.83341236977537</t>
   </si>
   <si>
+    <t>Taxila</t>
+  </si>
+  <si>
+    <t>Rawalpindi</t>
+  </si>
+  <si>
     <t>Punjab</t>
   </si>
   <si>
@@ -647,6 +671,9 @@
     <t>71.57382729450865</t>
   </si>
   <si>
+    <t>Peshawar</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -774,6 +801,12 @@
   </si>
   <si>
     <t>77.66572232846681</t>
+  </si>
+  <si>
+    <t>Mathura</t>
+  </si>
+  <si>
+    <t>Agra</t>
   </si>
   <si>
     <t>Uttar Pradesh</t>
@@ -3513,6 +3546,15 @@
       <c r="I16" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH16" s="5" t="s">
+        <v>196</v>
+      </c>
       <c r="AI16" s="5" t="s">
         <v>189</v>
       </c>
@@ -3534,22 +3576,31 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG17" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="AH17" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="AI17" s="5" t="s">
         <v>189</v>
@@ -3572,22 +3623,31 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH18" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>189</v>
@@ -3610,25 +3670,34 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF19" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH19" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="AI19" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ19" s="5" t="s">
         <v>175</v>
@@ -3648,22 +3717,31 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH20" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>189</v>
@@ -3686,25 +3764,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG21" s="2" t="s">
         <v>49</v>
@@ -3713,10 +3791,10 @@
         <v>49</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AM21" s="2">
         <v>13.0</v>
@@ -3737,25 +3815,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="AG22" s="2" t="s">
         <v>49</v>
@@ -3764,10 +3842,10 @@
         <v>49</v>
       </c>
       <c r="AI22" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AM22" s="2">
         <v>13.0</v>
@@ -3788,37 +3866,37 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF23" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="AG23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI23" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF23" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI23" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="AJ23" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AM23" s="2">
         <v>13.0</v>
@@ -3839,106 +3917,106 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="X24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="AK24" s="2" t="s">
         <v>49</v>
@@ -3962,42 +4040,42 @@
         <v>90.0</v>
       </c>
       <c r="AR24" s="2" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AH25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="AK25" s="2" t="s">
         <v>49</v>
@@ -4021,36 +4099,36 @@
         <v>5.0</v>
       </c>
       <c r="AR25" s="2" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AG26" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="AI26" s="5" t="s">
         <v>189</v>
@@ -4079,34 +4157,34 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF27" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="AI27" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AJ27" s="5" t="s">
         <v>175</v>
@@ -4126,28 +4204,37 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH28" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="AI28" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM28" s="2">
         <v>16.0</v>
@@ -4164,28 +4251,28 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI29" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM29" s="2">
         <v>17.0</v>
@@ -4202,28 +4289,28 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM30" s="2">
         <v>18.0</v>
@@ -4240,28 +4327,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI31" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI31" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="AJ31" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM31" s="2">
         <v>18.0</v>
@@ -4278,28 +4365,28 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="AM32" s="2">
         <v>19.0</v>
@@ -4316,31 +4403,31 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AI33" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM33" s="2">
         <v>20.0</v>
@@ -4357,28 +4444,28 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM34" s="2">
         <v>21.0</v>
@@ -4395,28 +4482,28 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AM35" s="2">
         <v>21.0</v>
@@ -4433,28 +4520,28 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI36" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AM36" s="2">
         <v>21.0</v>
@@ -4471,28 +4558,28 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="AM37" s="2">
         <v>22.0</v>
@@ -4513,28 +4600,28 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI38" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="AJ38" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="AM38" s="2">
         <v>22.0</v>
@@ -4555,28 +4642,28 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI39" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ39" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI39" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ39" s="5" t="s">
-        <v>284</v>
       </c>
       <c r="AM39" s="2">
         <v>23.0</v>
@@ -4593,28 +4680,28 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM40" s="2">
         <v>24.0</v>
@@ -4631,31 +4718,31 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM41" s="2">
         <v>24.0</v>
@@ -4676,28 +4763,28 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM42" s="2">
         <v>24.0</v>
@@ -4714,31 +4801,31 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM43" s="2">
         <v>24.0</v>
@@ -4755,28 +4842,28 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI44" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ44" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM44" s="2">
         <v>25.0</v>
@@ -4793,10 +4880,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>49</v>
@@ -4811,10 +4898,10 @@
         <v>49</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ45" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM45" s="2">
         <v>25.0</v>
@@ -4831,22 +4918,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -4855,7 +4942,7 @@
         <v>49</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>49</v>
@@ -4918,19 +5005,19 @@
         <v>49</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="AH46" s="5" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="AI46" s="5" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AJ46" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM46" s="2">
         <v>26.0</v>
@@ -4948,33 +5035,33 @@
         <v>97.0</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ47" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM47" s="2">
         <v>27.0</v>
@@ -4991,10 +5078,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>49</v>
@@ -5009,10 +5096,10 @@
         <v>49</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM48" s="2">
         <v>27.0</v>
@@ -5029,28 +5116,28 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI49" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ49" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM49" s="2">
         <v>28.0</v>
@@ -5067,28 +5154,28 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ50" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM50" s="2">
         <v>28.0</v>
@@ -5105,31 +5192,31 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM51" s="2">
         <v>28.0</v>
@@ -5146,28 +5233,28 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ52" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM52" s="2">
         <v>29.0</v>
@@ -5184,34 +5271,34 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM53" s="2">
         <v>29.0</v>
@@ -5228,34 +5315,34 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM54" s="2">
         <v>29.0</v>
@@ -5272,28 +5359,28 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM55" s="2">
         <v>29.0</v>
@@ -5311,39 +5398,39 @@
         <v>90.0</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM56" s="2">
         <v>30.0</v>
@@ -5360,10 +5447,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>49</v>
@@ -5378,10 +5465,10 @@
         <v>49</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM57" s="2">
         <v>30.0</v>
@@ -5398,31 +5485,31 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ58" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM58" s="2">
         <v>30.0</v>
@@ -5439,28 +5526,28 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM59" s="2">
         <v>30.0</v>
@@ -5477,28 +5564,28 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ60" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM60" s="2">
         <v>30.0</v>
@@ -5516,33 +5603,33 @@
         <v>60.0</v>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ61" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM61" s="2">
         <v>31.0</v>
@@ -5563,28 +5650,28 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM62" s="2">
         <v>31.0</v>
@@ -5605,28 +5692,28 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ63" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM63" s="2">
         <v>33.0</v>
@@ -5643,28 +5730,28 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ64" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM64" s="2">
         <v>34.0</v>
@@ -5681,10 +5768,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
@@ -5699,7 +5786,7 @@
         <v>49</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM65" s="2">
         <v>34.0</v>
@@ -5716,28 +5803,28 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AJ66" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM66" s="2">
         <v>34.0</v>
@@ -5754,25 +5841,25 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AJ67" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM67" s="2">
         <v>34.0</v>
@@ -5789,28 +5876,28 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="AJ68" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM68" s="2">
         <v>34.0</v>
@@ -5827,13 +5914,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>49</v>
@@ -5851,10 +5938,10 @@
         <v>49</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AJ69" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM69" s="2">
         <v>34.0</v>
@@ -5871,37 +5958,37 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AH70" s="5" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AJ70" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM70" s="2">
         <v>36.0</v>
@@ -5920,25 +6007,25 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AJ71" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM71" s="2">
         <v>37.0</v>
@@ -5955,34 +6042,34 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AJ72" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AM72" s="2">
         <v>37.0</v>
@@ -5999,40 +6086,40 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AH73" s="5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AM73" s="2">
         <v>38.0</v>
@@ -6049,34 +6136,34 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AM74" s="2">
         <v>38.0</v>
@@ -6093,34 +6180,34 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AJ75" s="5" t="s">
         <v>458</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ75" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="AM75" s="2">
         <v>39.0</v>
@@ -6138,45 +6225,45 @@
         <v>99.0</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AH76" s="5" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="AJ76" s="5" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AK76" s="2" t="s">
         <v>49</v>
@@ -6200,27 +6287,27 @@
         <v>1.0</v>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>49</v>
@@ -6229,16 +6316,16 @@
         <v>49</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="AH77" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AK77" s="2" t="s">
         <v>49</v>
@@ -6262,48 +6349,48 @@
         <v>35.0</v>
       </c>
       <c r="AR77" s="2" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>57</v>
@@ -6312,10 +6399,10 @@
         <v>57</v>
       </c>
       <c r="AH78" s="5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>57</v>
@@ -6338,37 +6425,37 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="Z79" s="5" t="s">
         <v>57</v>
@@ -6380,13 +6467,13 @@
         <v>49</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="AH79" s="5" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="AJ79" s="5" t="s">
         <v>57</v>
@@ -6407,27 +6494,27 @@
         <v>99.0</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>49</v>
@@ -6445,10 +6532,10 @@
         <v>49</v>
       </c>
       <c r="AH80" s="5" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="AJ80" s="5" t="s">
         <v>57</v>
@@ -6469,7 +6556,7 @@
         <v>99.0</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81">
@@ -11221,178 +11308,196 @@
     <hyperlink r:id="rId120" ref="AH15"/>
     <hyperlink r:id="rId121" ref="AI15"/>
     <hyperlink r:id="rId122" ref="AJ15"/>
-    <hyperlink r:id="rId123" ref="AI16"/>
-    <hyperlink r:id="rId124" ref="AJ16"/>
-    <hyperlink r:id="rId125" ref="AI17"/>
-    <hyperlink r:id="rId126" ref="AJ17"/>
-    <hyperlink r:id="rId127" ref="AI18"/>
-    <hyperlink r:id="rId128" ref="AJ18"/>
-    <hyperlink r:id="rId129" ref="AI19"/>
-    <hyperlink r:id="rId130" ref="AJ19"/>
-    <hyperlink r:id="rId131" ref="AI20"/>
-    <hyperlink r:id="rId132" ref="AJ20"/>
-    <hyperlink r:id="rId133" ref="AF21"/>
-    <hyperlink r:id="rId134" ref="AI21"/>
-    <hyperlink r:id="rId135" ref="AJ21"/>
-    <hyperlink r:id="rId136" ref="AF22"/>
-    <hyperlink r:id="rId137" ref="AI22"/>
-    <hyperlink r:id="rId138" ref="AJ22"/>
-    <hyperlink r:id="rId139" ref="AF23"/>
-    <hyperlink r:id="rId140" ref="AI23"/>
-    <hyperlink r:id="rId141" ref="AJ23"/>
-    <hyperlink r:id="rId142" ref="K24"/>
-    <hyperlink r:id="rId143" ref="AI24"/>
-    <hyperlink r:id="rId144" ref="AJ24"/>
-    <hyperlink r:id="rId145" ref="AF25"/>
-    <hyperlink r:id="rId146" ref="AG25"/>
-    <hyperlink r:id="rId147" ref="AI25"/>
-    <hyperlink r:id="rId148" ref="AJ25"/>
-    <hyperlink r:id="rId149" ref="AF26"/>
-    <hyperlink r:id="rId150" ref="AG26"/>
-    <hyperlink r:id="rId151" ref="AH26"/>
-    <hyperlink r:id="rId152" ref="AI26"/>
-    <hyperlink r:id="rId153" ref="AJ26"/>
-    <hyperlink r:id="rId154" ref="AF27"/>
-    <hyperlink r:id="rId155" ref="AG27"/>
-    <hyperlink r:id="rId156" ref="AH27"/>
-    <hyperlink r:id="rId157" ref="AI27"/>
-    <hyperlink r:id="rId158" ref="AJ27"/>
-    <hyperlink r:id="rId159" ref="AI28"/>
-    <hyperlink r:id="rId160" ref="AJ28"/>
-    <hyperlink r:id="rId161" ref="AI29"/>
-    <hyperlink r:id="rId162" ref="AJ29"/>
-    <hyperlink r:id="rId163" ref="AI30"/>
-    <hyperlink r:id="rId164" ref="AJ30"/>
-    <hyperlink r:id="rId165" ref="AI31"/>
-    <hyperlink r:id="rId166" ref="AJ31"/>
-    <hyperlink r:id="rId167" ref="AI32"/>
-    <hyperlink r:id="rId168" ref="AJ32"/>
-    <hyperlink r:id="rId169" ref="AI33"/>
-    <hyperlink r:id="rId170" ref="AJ33"/>
-    <hyperlink r:id="rId171" ref="AI34"/>
-    <hyperlink r:id="rId172" ref="AJ34"/>
-    <hyperlink r:id="rId173" ref="AI35"/>
-    <hyperlink r:id="rId174" ref="AJ35"/>
-    <hyperlink r:id="rId175" ref="AI36"/>
-    <hyperlink r:id="rId176" ref="AJ36"/>
-    <hyperlink r:id="rId177" ref="AI37"/>
-    <hyperlink r:id="rId178" ref="AJ37"/>
-    <hyperlink r:id="rId179" ref="AI38"/>
-    <hyperlink r:id="rId180" ref="AJ38"/>
-    <hyperlink r:id="rId181" ref="AI39"/>
-    <hyperlink r:id="rId182" ref="AJ39"/>
-    <hyperlink r:id="rId183" ref="AJ40"/>
-    <hyperlink r:id="rId184" ref="K41"/>
-    <hyperlink r:id="rId185" ref="AJ41"/>
-    <hyperlink r:id="rId186" ref="K42"/>
-    <hyperlink r:id="rId187" ref="AJ42"/>
-    <hyperlink r:id="rId188" ref="AF43"/>
-    <hyperlink r:id="rId189" ref="AJ43"/>
-    <hyperlink r:id="rId190" ref="AI44"/>
-    <hyperlink r:id="rId191" ref="AJ44"/>
-    <hyperlink r:id="rId192" ref="AI45"/>
-    <hyperlink r:id="rId193" ref="AJ45"/>
-    <hyperlink r:id="rId194" ref="K46"/>
-    <hyperlink r:id="rId195" ref="AG46"/>
-    <hyperlink r:id="rId196" ref="AH46"/>
-    <hyperlink r:id="rId197" ref="AI46"/>
-    <hyperlink r:id="rId198" ref="AJ46"/>
-    <hyperlink r:id="rId199" ref="AI47"/>
-    <hyperlink r:id="rId200" ref="AJ47"/>
-    <hyperlink r:id="rId201" ref="AI48"/>
-    <hyperlink r:id="rId202" ref="AJ48"/>
-    <hyperlink r:id="rId203" ref="AI49"/>
-    <hyperlink r:id="rId204" ref="AJ49"/>
-    <hyperlink r:id="rId205" ref="AI50"/>
-    <hyperlink r:id="rId206" ref="AJ50"/>
-    <hyperlink r:id="rId207" ref="AI51"/>
-    <hyperlink r:id="rId208" ref="AJ51"/>
-    <hyperlink r:id="rId209" ref="AI52"/>
-    <hyperlink r:id="rId210" ref="AJ52"/>
-    <hyperlink r:id="rId211" ref="AI53"/>
-    <hyperlink r:id="rId212" ref="AJ53"/>
-    <hyperlink r:id="rId213" ref="AI54"/>
-    <hyperlink r:id="rId214" ref="AJ54"/>
-    <hyperlink r:id="rId215" ref="AI55"/>
-    <hyperlink r:id="rId216" ref="AJ55"/>
-    <hyperlink r:id="rId217" ref="K56"/>
-    <hyperlink r:id="rId218" ref="AI56"/>
-    <hyperlink r:id="rId219" ref="AJ56"/>
-    <hyperlink r:id="rId220" ref="AI57"/>
-    <hyperlink r:id="rId221" ref="AJ57"/>
-    <hyperlink r:id="rId222" ref="K58"/>
-    <hyperlink r:id="rId223" ref="AI58"/>
-    <hyperlink r:id="rId224" ref="AJ58"/>
-    <hyperlink r:id="rId225" ref="AI59"/>
-    <hyperlink r:id="rId226" ref="AJ59"/>
-    <hyperlink r:id="rId227" ref="AI60"/>
-    <hyperlink r:id="rId228" ref="AJ60"/>
-    <hyperlink r:id="rId229" ref="AI61"/>
-    <hyperlink r:id="rId230" ref="AJ61"/>
-    <hyperlink r:id="rId231" ref="AI62"/>
-    <hyperlink r:id="rId232" ref="AJ62"/>
-    <hyperlink r:id="rId233" ref="AI63"/>
-    <hyperlink r:id="rId234" ref="AJ63"/>
-    <hyperlink r:id="rId235" ref="AI64"/>
-    <hyperlink r:id="rId236" ref="AJ64"/>
-    <hyperlink r:id="rId237" ref="AJ65"/>
-    <hyperlink r:id="rId238" ref="AJ66"/>
-    <hyperlink r:id="rId239" ref="AJ67"/>
-    <hyperlink r:id="rId240" ref="AJ68"/>
-    <hyperlink r:id="rId241" ref="AJ69"/>
-    <hyperlink r:id="rId242" ref="AF70"/>
-    <hyperlink r:id="rId243" ref="AG70"/>
-    <hyperlink r:id="rId244" ref="AH70"/>
-    <hyperlink r:id="rId245" ref="AI70"/>
-    <hyperlink r:id="rId246" ref="AJ70"/>
-    <hyperlink r:id="rId247" ref="AJ71"/>
-    <hyperlink r:id="rId248" ref="P72"/>
-    <hyperlink r:id="rId249" ref="U72"/>
-    <hyperlink r:id="rId250" ref="AJ72"/>
-    <hyperlink r:id="rId251" ref="AG73"/>
-    <hyperlink r:id="rId252" ref="AH73"/>
-    <hyperlink r:id="rId253" ref="AI73"/>
-    <hyperlink r:id="rId254" ref="AJ73"/>
-    <hyperlink r:id="rId255" ref="I74"/>
-    <hyperlink r:id="rId256" ref="J74"/>
-    <hyperlink r:id="rId257" ref="K74"/>
-    <hyperlink r:id="rId258" ref="AJ74"/>
-    <hyperlink r:id="rId259" ref="I75"/>
-    <hyperlink r:id="rId260" ref="J75"/>
-    <hyperlink r:id="rId261" ref="K75"/>
-    <hyperlink r:id="rId262" ref="AJ75"/>
-    <hyperlink r:id="rId263" ref="AF76"/>
-    <hyperlink r:id="rId264" ref="AG76"/>
-    <hyperlink r:id="rId265" ref="AH76"/>
-    <hyperlink r:id="rId266" ref="AI76"/>
-    <hyperlink r:id="rId267" ref="AJ76"/>
-    <hyperlink r:id="rId268" ref="AG77"/>
-    <hyperlink r:id="rId269" ref="AH77"/>
-    <hyperlink r:id="rId270" ref="AI77"/>
-    <hyperlink r:id="rId271" ref="AJ77"/>
-    <hyperlink r:id="rId272" ref="I78"/>
-    <hyperlink r:id="rId273" ref="J78"/>
-    <hyperlink r:id="rId274" ref="K78"/>
-    <hyperlink r:id="rId275" ref="Z78"/>
-    <hyperlink r:id="rId276" ref="AE78"/>
-    <hyperlink r:id="rId277" ref="AH78"/>
-    <hyperlink r:id="rId278" ref="AI78"/>
-    <hyperlink r:id="rId279" ref="AJ78"/>
-    <hyperlink r:id="rId280" ref="M79"/>
-    <hyperlink r:id="rId281" ref="R79"/>
-    <hyperlink r:id="rId282" ref="Z79"/>
-    <hyperlink r:id="rId283" ref="AE79"/>
-    <hyperlink r:id="rId284" ref="AG79"/>
-    <hyperlink r:id="rId285" ref="AH79"/>
-    <hyperlink r:id="rId286" ref="AI79"/>
-    <hyperlink r:id="rId287" ref="AJ79"/>
-    <hyperlink r:id="rId288" ref="Z80"/>
-    <hyperlink r:id="rId289" ref="AE80"/>
-    <hyperlink r:id="rId290" ref="AH80"/>
-    <hyperlink r:id="rId291" ref="AI80"/>
-    <hyperlink r:id="rId292" ref="AJ80"/>
+    <hyperlink r:id="rId123" ref="AF16"/>
+    <hyperlink r:id="rId124" ref="AG16"/>
+    <hyperlink r:id="rId125" ref="AH16"/>
+    <hyperlink r:id="rId126" ref="AI16"/>
+    <hyperlink r:id="rId127" ref="AJ16"/>
+    <hyperlink r:id="rId128" ref="AF17"/>
+    <hyperlink r:id="rId129" ref="AG17"/>
+    <hyperlink r:id="rId130" ref="AH17"/>
+    <hyperlink r:id="rId131" ref="AI17"/>
+    <hyperlink r:id="rId132" ref="AJ17"/>
+    <hyperlink r:id="rId133" ref="AF18"/>
+    <hyperlink r:id="rId134" ref="AG18"/>
+    <hyperlink r:id="rId135" ref="AH18"/>
+    <hyperlink r:id="rId136" ref="AI18"/>
+    <hyperlink r:id="rId137" ref="AJ18"/>
+    <hyperlink r:id="rId138" ref="AF19"/>
+    <hyperlink r:id="rId139" ref="AG19"/>
+    <hyperlink r:id="rId140" ref="AH19"/>
+    <hyperlink r:id="rId141" ref="AI19"/>
+    <hyperlink r:id="rId142" ref="AJ19"/>
+    <hyperlink r:id="rId143" ref="AF20"/>
+    <hyperlink r:id="rId144" ref="AG20"/>
+    <hyperlink r:id="rId145" ref="AH20"/>
+    <hyperlink r:id="rId146" ref="AI20"/>
+    <hyperlink r:id="rId147" ref="AJ20"/>
+    <hyperlink r:id="rId148" ref="AF21"/>
+    <hyperlink r:id="rId149" ref="AI21"/>
+    <hyperlink r:id="rId150" ref="AJ21"/>
+    <hyperlink r:id="rId151" ref="AF22"/>
+    <hyperlink r:id="rId152" ref="AI22"/>
+    <hyperlink r:id="rId153" ref="AJ22"/>
+    <hyperlink r:id="rId154" ref="AF23"/>
+    <hyperlink r:id="rId155" ref="AI23"/>
+    <hyperlink r:id="rId156" ref="AJ23"/>
+    <hyperlink r:id="rId157" ref="K24"/>
+    <hyperlink r:id="rId158" ref="AI24"/>
+    <hyperlink r:id="rId159" ref="AJ24"/>
+    <hyperlink r:id="rId160" ref="AF25"/>
+    <hyperlink r:id="rId161" ref="AG25"/>
+    <hyperlink r:id="rId162" ref="AI25"/>
+    <hyperlink r:id="rId163" ref="AJ25"/>
+    <hyperlink r:id="rId164" ref="AF26"/>
+    <hyperlink r:id="rId165" ref="AG26"/>
+    <hyperlink r:id="rId166" ref="AH26"/>
+    <hyperlink r:id="rId167" ref="AI26"/>
+    <hyperlink r:id="rId168" ref="AJ26"/>
+    <hyperlink r:id="rId169" ref="AF27"/>
+    <hyperlink r:id="rId170" ref="AG27"/>
+    <hyperlink r:id="rId171" ref="AH27"/>
+    <hyperlink r:id="rId172" ref="AI27"/>
+    <hyperlink r:id="rId173" ref="AJ27"/>
+    <hyperlink r:id="rId174" ref="AF28"/>
+    <hyperlink r:id="rId175" ref="AG28"/>
+    <hyperlink r:id="rId176" ref="AH28"/>
+    <hyperlink r:id="rId177" ref="AI28"/>
+    <hyperlink r:id="rId178" ref="AJ28"/>
+    <hyperlink r:id="rId179" ref="AI29"/>
+    <hyperlink r:id="rId180" ref="AJ29"/>
+    <hyperlink r:id="rId181" ref="AI30"/>
+    <hyperlink r:id="rId182" ref="AJ30"/>
+    <hyperlink r:id="rId183" ref="AI31"/>
+    <hyperlink r:id="rId184" ref="AJ31"/>
+    <hyperlink r:id="rId185" ref="AI32"/>
+    <hyperlink r:id="rId186" ref="AJ32"/>
+    <hyperlink r:id="rId187" ref="AI33"/>
+    <hyperlink r:id="rId188" ref="AJ33"/>
+    <hyperlink r:id="rId189" ref="AI34"/>
+    <hyperlink r:id="rId190" ref="AJ34"/>
+    <hyperlink r:id="rId191" ref="AI35"/>
+    <hyperlink r:id="rId192" ref="AJ35"/>
+    <hyperlink r:id="rId193" ref="AI36"/>
+    <hyperlink r:id="rId194" ref="AJ36"/>
+    <hyperlink r:id="rId195" ref="AI37"/>
+    <hyperlink r:id="rId196" ref="AJ37"/>
+    <hyperlink r:id="rId197" ref="AI38"/>
+    <hyperlink r:id="rId198" ref="AJ38"/>
+    <hyperlink r:id="rId199" ref="AI39"/>
+    <hyperlink r:id="rId200" ref="AJ39"/>
+    <hyperlink r:id="rId201" ref="AJ40"/>
+    <hyperlink r:id="rId202" ref="K41"/>
+    <hyperlink r:id="rId203" ref="AJ41"/>
+    <hyperlink r:id="rId204" ref="K42"/>
+    <hyperlink r:id="rId205" ref="AJ42"/>
+    <hyperlink r:id="rId206" ref="AF43"/>
+    <hyperlink r:id="rId207" ref="AJ43"/>
+    <hyperlink r:id="rId208" ref="AI44"/>
+    <hyperlink r:id="rId209" ref="AJ44"/>
+    <hyperlink r:id="rId210" ref="AI45"/>
+    <hyperlink r:id="rId211" ref="AJ45"/>
+    <hyperlink r:id="rId212" ref="K46"/>
+    <hyperlink r:id="rId213" ref="AG46"/>
+    <hyperlink r:id="rId214" ref="AH46"/>
+    <hyperlink r:id="rId215" ref="AI46"/>
+    <hyperlink r:id="rId216" ref="AJ46"/>
+    <hyperlink r:id="rId217" ref="AI47"/>
+    <hyperlink r:id="rId218" ref="AJ47"/>
+    <hyperlink r:id="rId219" ref="AI48"/>
+    <hyperlink r:id="rId220" ref="AJ48"/>
+    <hyperlink r:id="rId221" ref="AI49"/>
+    <hyperlink r:id="rId222" ref="AJ49"/>
+    <hyperlink r:id="rId223" ref="AI50"/>
+    <hyperlink r:id="rId224" ref="AJ50"/>
+    <hyperlink r:id="rId225" ref="AI51"/>
+    <hyperlink r:id="rId226" ref="AJ51"/>
+    <hyperlink r:id="rId227" ref="AI52"/>
+    <hyperlink r:id="rId228" ref="AJ52"/>
+    <hyperlink r:id="rId229" ref="AI53"/>
+    <hyperlink r:id="rId230" ref="AJ53"/>
+    <hyperlink r:id="rId231" ref="AI54"/>
+    <hyperlink r:id="rId232" ref="AJ54"/>
+    <hyperlink r:id="rId233" ref="AI55"/>
+    <hyperlink r:id="rId234" ref="AJ55"/>
+    <hyperlink r:id="rId235" ref="K56"/>
+    <hyperlink r:id="rId236" ref="AI56"/>
+    <hyperlink r:id="rId237" ref="AJ56"/>
+    <hyperlink r:id="rId238" ref="AI57"/>
+    <hyperlink r:id="rId239" ref="AJ57"/>
+    <hyperlink r:id="rId240" ref="K58"/>
+    <hyperlink r:id="rId241" ref="AI58"/>
+    <hyperlink r:id="rId242" ref="AJ58"/>
+    <hyperlink r:id="rId243" ref="AI59"/>
+    <hyperlink r:id="rId244" ref="AJ59"/>
+    <hyperlink r:id="rId245" ref="AI60"/>
+    <hyperlink r:id="rId246" ref="AJ60"/>
+    <hyperlink r:id="rId247" ref="AI61"/>
+    <hyperlink r:id="rId248" ref="AJ61"/>
+    <hyperlink r:id="rId249" ref="AI62"/>
+    <hyperlink r:id="rId250" ref="AJ62"/>
+    <hyperlink r:id="rId251" ref="AI63"/>
+    <hyperlink r:id="rId252" ref="AJ63"/>
+    <hyperlink r:id="rId253" ref="AI64"/>
+    <hyperlink r:id="rId254" ref="AJ64"/>
+    <hyperlink r:id="rId255" ref="AJ65"/>
+    <hyperlink r:id="rId256" ref="AJ66"/>
+    <hyperlink r:id="rId257" ref="AJ67"/>
+    <hyperlink r:id="rId258" ref="AJ68"/>
+    <hyperlink r:id="rId259" ref="AJ69"/>
+    <hyperlink r:id="rId260" ref="AF70"/>
+    <hyperlink r:id="rId261" ref="AG70"/>
+    <hyperlink r:id="rId262" ref="AH70"/>
+    <hyperlink r:id="rId263" ref="AI70"/>
+    <hyperlink r:id="rId264" ref="AJ70"/>
+    <hyperlink r:id="rId265" ref="AJ71"/>
+    <hyperlink r:id="rId266" ref="P72"/>
+    <hyperlink r:id="rId267" ref="U72"/>
+    <hyperlink r:id="rId268" ref="AJ72"/>
+    <hyperlink r:id="rId269" ref="AG73"/>
+    <hyperlink r:id="rId270" ref="AH73"/>
+    <hyperlink r:id="rId271" ref="AI73"/>
+    <hyperlink r:id="rId272" ref="AJ73"/>
+    <hyperlink r:id="rId273" ref="I74"/>
+    <hyperlink r:id="rId274" ref="J74"/>
+    <hyperlink r:id="rId275" ref="K74"/>
+    <hyperlink r:id="rId276" ref="AJ74"/>
+    <hyperlink r:id="rId277" ref="I75"/>
+    <hyperlink r:id="rId278" ref="J75"/>
+    <hyperlink r:id="rId279" ref="K75"/>
+    <hyperlink r:id="rId280" ref="AJ75"/>
+    <hyperlink r:id="rId281" ref="AF76"/>
+    <hyperlink r:id="rId282" ref="AG76"/>
+    <hyperlink r:id="rId283" ref="AH76"/>
+    <hyperlink r:id="rId284" ref="AI76"/>
+    <hyperlink r:id="rId285" ref="AJ76"/>
+    <hyperlink r:id="rId286" ref="AG77"/>
+    <hyperlink r:id="rId287" ref="AH77"/>
+    <hyperlink r:id="rId288" ref="AI77"/>
+    <hyperlink r:id="rId289" ref="AJ77"/>
+    <hyperlink r:id="rId290" ref="I78"/>
+    <hyperlink r:id="rId291" ref="J78"/>
+    <hyperlink r:id="rId292" ref="K78"/>
+    <hyperlink r:id="rId293" ref="Z78"/>
+    <hyperlink r:id="rId294" ref="AE78"/>
+    <hyperlink r:id="rId295" ref="AH78"/>
+    <hyperlink r:id="rId296" ref="AI78"/>
+    <hyperlink r:id="rId297" ref="AJ78"/>
+    <hyperlink r:id="rId298" ref="M79"/>
+    <hyperlink r:id="rId299" ref="R79"/>
+    <hyperlink r:id="rId300" ref="Z79"/>
+    <hyperlink r:id="rId301" ref="AE79"/>
+    <hyperlink r:id="rId302" ref="AG79"/>
+    <hyperlink r:id="rId303" ref="AH79"/>
+    <hyperlink r:id="rId304" ref="AI79"/>
+    <hyperlink r:id="rId305" ref="AJ79"/>
+    <hyperlink r:id="rId306" ref="Z80"/>
+    <hyperlink r:id="rId307" ref="AE80"/>
+    <hyperlink r:id="rId308" ref="AH80"/>
+    <hyperlink r:id="rId309" ref="AI80"/>
+    <hyperlink r:id="rId310" ref="AJ80"/>
   </hyperlinks>
-  <drawing r:id="rId293"/>
+  <drawing r:id="rId311"/>
 </worksheet>
 </file>
 
@@ -11437,28 +11542,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>35</v>
@@ -11467,16 +11572,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -11485,28 +11590,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2">
@@ -11525,7 +11630,7 @@
         <v>Daxingshan Temple</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Yanta_District","Yanta")</f>
@@ -11543,32 +11648,32 @@
         <v>57</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Chang%27an","Ch'ang-gan")</f>
         <v>Ch'ang-gan</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>53</v>
@@ -11611,10 +11716,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F3" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Longxi_County","Longxi")</f>
@@ -11632,40 +11737,40 @@
         <v>57</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>72</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>57</v>
@@ -11699,13 +11804,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Lanzhou","Lanzhou")</f>
@@ -11719,40 +11824,40 @@
         <v>57</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>57</v>
@@ -11790,7 +11895,7 @@
         <v>White Horse Temple</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Huzhu_Tu_Autonomous_County","Huzhu")</f>
@@ -11808,40 +11913,40 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>57</v>
@@ -11867,13 +11972,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Zhangye","Zhangye")</f>
@@ -11890,37 +11995,37 @@
         <v>117</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>123</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>57</v>
@@ -11950,7 +12055,7 @@
         <v>Leiyin Temple</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dunhuang","Dunhuang")</f>
@@ -11968,40 +12073,40 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>57</v>
@@ -12027,7 +12132,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="E8" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ruoqiang_Town","Ruoqiang")</f>
@@ -12049,40 +12154,40 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>57</v>
@@ -12092,7 +12197,7 @@
         <v>Shanshan</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
@@ -12111,7 +12216,7 @@
         <v>Subashi Temple</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kuqa_County","Kuqa")</f>
@@ -12129,40 +12234,40 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>57</v>
@@ -12172,15 +12277,15 @@
         <v>Kucha</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=36.93461166815535%2C79.87565469198228&amp;z=12","9")</f>
@@ -12191,7 +12296,7 @@
         <v>Melikawat</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Hotan","Hotan")</f>
@@ -12213,37 +12318,37 @@
         <v>Gomati</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>57</v>
@@ -12253,7 +12358,7 @@
         <v>Khotan</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
@@ -12261,14 +12366,14 @@
         <v>90</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=37.766925247131944%2C75.2332648903199&amp;z=12","10")</f>
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Tashkurgan")</f>
@@ -12290,76 +12395,76 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Sarikol")</f>
         <v>Sarikol</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -12368,16 +12473,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
@@ -12386,28 +12491,28 @@
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="13">
@@ -12415,14 +12520,14 @@
         <v>90</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C13" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=35.915808729233845%2C74.29197908984372&amp;z=12","11")</f>
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E13" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gilgit","Gilgit")</f>
@@ -12444,65 +12549,65 @@
         <v>175</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="W13" s="22" t="str">
         <f t="shared" ref="W13:W14" si="7">HYPERLINK("https://en.wikipedia.org/wiki/Baloristan","Baloristan")</f>
         <v>Baloristan</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="C14" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=35.2945088968479%2C75.62750135957026&amp;z=12","12")</f>
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E14" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Skardu","Skardu")</f>
@@ -12524,50 +12629,50 @@
         <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W14" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Baloristan</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
@@ -12575,14 +12680,14 @@
         <v>116</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C15" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=35.10675968841741%2C72.99755404011535&amp;z=12","13")</f>
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Palas,_Khyber_Pakhtunkhwa","Palas?")</f>
@@ -12604,50 +12709,50 @@
         <v>175</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="W15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dardistan","Dardistan")</f>
         <v>Dardistan</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
@@ -12655,7 +12760,7 @@
         <v>135</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.77873338961653%2C72.33334015655703&amp;z=12","14")</f>
@@ -12685,50 +12790,50 @@
         <v>175</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W16" s="22" t="str">
         <f t="shared" ref="W16:W17" si="11">HYPERLINK("https://en.wikipedia.org/wiki/Oddiyana","Oddiyana")</f>
         <v>Oddiyana</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17">
@@ -12736,7 +12841,7 @@
         <v>144</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C17" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.65169950508407%2C72.21028088377693&amp;z=12","15")</f>
@@ -12766,50 +12871,50 @@
         <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W17" s="22" t="str">
         <f t="shared" si="11"/>
         <v>Oddiyana</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18">
@@ -12817,7 +12922,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C18" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.16702387496293%2C71.7220490760742&amp;z=12","16")</f>
@@ -12847,50 +12952,50 @@
         <v>175</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W18" s="22" t="str">
         <f t="shared" ref="W18:W20" si="12">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
@@ -12898,7 +13003,7 @@
         <v>162</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="C19" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=33.73143909021518%2C72.83341236977537&amp;z=12","17")</f>
@@ -12928,51 +13033,51 @@
         <v>175</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R19" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Taxila","Taxila")</f>
         <v>Taxila</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W19" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20">
@@ -12980,7 +13085,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.002496709436734%2C71.57382729450865&amp;z=12","18")</f>
@@ -13010,76 +13115,76 @@
         <v>175</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="W20" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -13088,16 +13193,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
@@ -13106,28 +13211,28 @@
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22">
@@ -13135,7 +13240,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="C22" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.36447187004159%2C70.47714034997773&amp;z=12","19")</f>
@@ -13150,63 +13255,63 @@
         <v>Jalalabad</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" ref="H22:H24" si="14">HYPERLINK("https://en.wikipedia.org/wiki/Nangarhar_Province","Nangarhar")</f>
         <v>Nangarhar</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W22" s="22" t="str">
         <f t="shared" ref="W22:W24" si="15">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23">
@@ -13214,77 +13319,77 @@
         <v>176</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.411786302122465%2C70.4702738948996&amp;z=12","20")</f>
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="14"/>
         <v>Nangarhar</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W23" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Gandhara</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24">
@@ -13292,77 +13397,77 @@
         <v>176</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C24" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.46530150459222%2C70.54992477380586&amp;z=12","21")</f>
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="14"/>
         <v>Nangarhar</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W24" s="22" t="str">
         <f t="shared" si="15"/>
         <v>Gandhara</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25">
@@ -13370,99 +13475,99 @@
         <v>182</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C25" s="14">
         <v>22.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>35</v>
@@ -13471,16 +13576,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>15</v>
@@ -13489,28 +13594,28 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27">
@@ -13518,14 +13623,14 @@
         <v>182</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C27" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.988315923725175%2C70.60313980066132&amp;z=12","23")</f>
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bannu","Bannu")</f>
@@ -13547,49 +13652,49 @@
         <v>175</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28">
@@ -13597,14 +13702,14 @@
         <v>190</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="C28" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.48134397940673%2C72.8920924529076&amp;z=12","24")</f>
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E28" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bhera","Bhera")</f>
@@ -13626,75 +13731,75 @@
         <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -13703,16 +13808,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>15</v>
@@ -13721,36 +13826,36 @@
         <v>36</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="C30" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.494246295517122%2C77.66572232846681&amp;z=12","25")</f>
@@ -13777,67 +13882,67 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.33006113726599%2C79.25747333120137&amp;z=12","26")</f>
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="E31" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Sankassa","Sankassa")</f>
@@ -13856,67 +13961,67 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C32" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.04900858535046%2C79.89687617923914&amp;z=12","27")</f>
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E32" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj","Kannauj")</f>
@@ -13935,143 +14040,143 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W32" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj#Early_History","Kanyakubja")</f>
         <v>Kanyakubja</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C33" s="14">
         <v>28.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H33" s="22" t="str">
         <f t="shared" si="16"/>
         <v>Uttar Pradesh</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="13" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C34" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.783630699664172%2C82.18445324595723&amp;z=12","29")</f>
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E34" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ayodhya","Ayodhya")</f>
@@ -14090,60 +14195,60 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C35" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.507304072925685%2C82.01523378327738&amp;z=12","30")</f>
@@ -14170,71 +14275,71 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ref="O35:O36" si="20">HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C36" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.493788556662818%2C81.87964706678713&amp;z=12","31")</f>
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="F36" s="22" t="str">
         <f t="shared" si="18"/>
@@ -14249,79 +14354,79 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" si="20"/>
         <v>Kosala</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>35</v>
@@ -14330,16 +14435,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>15</v>
@@ -14348,43 +14453,43 @@
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C38" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.50397427851355%2C83.01952451857755&amp;z=12","32")</f>
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gotihawa","Gotihawa")</f>
@@ -14395,68 +14500,68 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H38" s="22" t="str">
         <f t="shared" ref="H38:H42" si="22">HYPERLINK("https://en.wikipedia.org/wiki/Province_No._5","Province No. 5")</f>
         <v>Province No. 5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.59332346636215%2C83.07679240669472&amp;z=12","33")</f>
@@ -14475,67 +14580,67 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H39" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C40" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.565003085219224%2C83.03497404250334&amp;z=12","34")</f>
@@ -14554,68 +14659,68 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H40" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kapilavastu_(ancient_city)","Kapilavastu")</f>
         <v>Kapilavastu</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="13" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="C41" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","35")</f>
@@ -14634,67 +14739,67 @@
         <v>Rupandehi</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H41" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C42" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","36")</f>
@@ -14713,85 +14818,85 @@
         <v>Nawalparasi</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="H42" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>35</v>
@@ -14800,16 +14905,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>15</v>
@@ -14818,36 +14923,36 @@
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C44" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.7430162374067%2C83.87320193640551&amp;z=12","37")</f>
@@ -14874,46 +14979,46 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W44" s="5" t="str">
         <f t="shared" ref="W44:W62" si="23">HYPERLINK("https://en.wikipedia.org/wiki/Gupta_Empire","Gupta Empire")</f>
@@ -14926,20 +15031,20 @@
     </row>
     <row r="45">
       <c r="A45" s="13" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C45" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.014780548059537%2C85.09495798243438&amp;z=12","38")</f>
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="F45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_district","Vaishali")</f>
@@ -14954,47 +15059,47 @@
         <v>Bihar</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_(ancient_city)","Vaishali")</f>
         <v>Vaishali</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W45" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15007,70 +15112,70 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C46" s="14">
         <v>39.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W46" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15083,10 +15188,10 @@
     </row>
     <row r="47">
       <c r="A47" s="13" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C47" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","40")</f>
@@ -15113,48 +15218,48 @@
         <v>Bihar</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O47" s="22" t="str">
         <f t="shared" ref="O47:O62" si="29">HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W47" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15167,16 +15272,16 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C48" s="14">
         <v>41.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E48" s="22" t="str">
         <f t="shared" si="25"/>
@@ -15195,47 +15300,47 @@
         <v>Bihar</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O48" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W48" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15248,17 +15353,17 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C49" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.021011866415765%2C85.4992275630334&amp;z=12","42")</f>
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Giriyak","Giriyak")</f>
@@ -15277,48 +15382,48 @@
         <v>Bihar</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>HYPERLINK("https://www.jatland.com/home/Giryak","Giryek")</f>
         <v>Giryek</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O49" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W49" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15331,20 +15436,20 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C50" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.146201055831895%2C85.42835071494505&amp;z=12","43")</f>
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="F50" s="22" t="str">
         <f t="shared" si="30"/>
@@ -15359,48 +15464,48 @@
         <v>Bihar</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nalanda","Nala")</f>
         <v>Nala</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O50" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W50" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15413,17 +15518,17 @@
     </row>
     <row r="51">
       <c r="A51" s="13" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="C51" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.018748635180835%2C85.4032881539099&amp;z=12","44")</f>
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E51" s="22" t="str">
         <f t="shared" ref="E51:E58" si="31">HYPERLINK("https://en.wikipedia.org/wiki/Rajgir","Rajgir")</f>
@@ -15442,47 +15547,47 @@
         <v>Bihar</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O51" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W51" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15495,17 +15600,17 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C52" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.011304665466987%2C85.4332480868809&amp;z=12","45")</f>
         <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E52" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15524,44 +15629,44 @@
         <v>Bihar</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O52" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W52" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15574,10 +15679,10 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C53" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.005060701273067%2C85.43872566517189&amp;z=12","46")</f>
@@ -15604,47 +15709,47 @@
         <v>Bihar</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O53" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W53" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15657,10 +15762,10 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C54" s="14">
         <v>47.0</v>
@@ -15686,47 +15791,47 @@
         <v>Bihar</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O54" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W54" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15739,16 +15844,16 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="C55" s="14">
         <v>48.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E55" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15767,47 +15872,47 @@
         <v>Bihar</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O55" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W55" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15820,16 +15925,16 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C56" s="14">
         <v>48.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="E56" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15848,47 +15953,47 @@
         <v>Bihar</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O56" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W56" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15901,10 +16006,10 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C57" s="14">
         <v>49.0</v>
@@ -15930,47 +16035,47 @@
         <v>Bihar</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O57" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W57" s="5" t="str">
         <f t="shared" si="23"/>
@@ -15983,16 +16088,16 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="C58" s="14">
         <v>50.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E58" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16011,47 +16116,47 @@
         <v>Bihar</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O58" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W58" s="5" t="str">
         <f t="shared" si="23"/>
@@ -16064,17 +16169,17 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="C59" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.78969479649287%2C84.98467590145651&amp;z=12","51")</f>
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gaya,_India","Gaya")</f>
@@ -16093,47 +16198,47 @@
         <v>Bihar</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O59" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W59" s="5" t="str">
         <f t="shared" si="23"/>
@@ -16146,10 +16251,10 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C60" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.696962894699446%2C84.9659879247863&amp;z=12","52")</f>
@@ -16176,47 +16281,47 @@
         <v>Bihar</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O60" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W60" s="5" t="str">
         <f t="shared" si="23"/>
@@ -16229,10 +16334,10 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="C61" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.548687563998897%2C85.2906752102283&amp;z=12","53")</f>
@@ -16243,7 +16348,7 @@
         <v>Gurpa Hill</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="F61" s="22" t="str">
         <f t="shared" si="32"/>
@@ -16258,44 +16363,44 @@
         <v>Bihar</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O61" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W61" s="5" t="str">
         <f t="shared" si="23"/>
@@ -16308,17 +16413,17 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="C62" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","54")</f>
         <v>54</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E62" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16337,48 +16442,48 @@
         <v>Bihar</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O62" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W62" s="5" t="str">
         <f t="shared" si="23"/>
@@ -16391,49 +16496,49 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C63" s="25">
         <v>55.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C64" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.311619542229757%2C82.96152352056333&amp;z=12","56")</f>
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E64" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Varanasi","Varanasi")</f>
@@ -16452,18 +16557,18 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="C65" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.37185416787389%2C83.00546883306333&amp;z=12","57")</f>
@@ -16490,28 +16595,28 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C66" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.340593900335598%2C81.36565102487407&amp;z=12","58")</f>
         <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="F66" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kaushambi_district","Kaushambi")</f>
@@ -16526,48 +16631,48 @@
         <v>Uttar Pradesh</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C67" s="25">
         <v>59.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="8"/>
@@ -16583,17 +16688,17 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="C68" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","60")</f>
         <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16612,48 +16717,48 @@
         <v>Bihar</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="O68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="W68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gupta_Empire","Gupta Empire")</f>
@@ -16666,20 +16771,20 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C69" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.248716707163823%2C86.918446321582&amp;z=12","61")</f>
         <v>61</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="F69" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nathnagar_(Vidhan_Sabha_constituency)","Nathnagar")</f>
@@ -16694,25 +16799,25 @@
         <v>Bihar</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C70" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=22.277762973128496%2C87.91568685806817&amp;z=12","62")</f>
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamluk","Tamluk")</f>
@@ -16731,7 +16836,7 @@
         <v>Wes Bengal</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="K70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamralipta","Tâmaliptî")</f>
@@ -16744,28 +16849,28 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
@@ -16774,16 +16879,16 @@
         <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>15</v>
@@ -16792,28 +16897,28 @@
         <v>36</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72">
@@ -16829,7 +16934,7 @@
         <v>Anuradhapura</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">

--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="671">
   <si>
     <t>Google Maps</t>
   </si>
@@ -827,6 +827,15 @@
     <t>79.25747333120137</t>
   </si>
   <si>
+    <t>Sankisa Basantpur</t>
+  </si>
+  <si>
+    <t>Farrukhabad</t>
+  </si>
+  <si>
+    <t>Kanpur</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
@@ -839,12 +848,33 @@
     <t>79.89687617923914</t>
   </si>
   <si>
+    <t>Kannauj</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
     <t>Â-le</t>
   </si>
   <si>
+    <t>26.941866708276542</t>
+  </si>
+  <si>
+    <t>80.34424468251161</t>
+  </si>
+  <si>
+    <t>Argu Pur</t>
+  </si>
+  <si>
+    <t>Unnao</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>Very unsure about this place. Given that a yojana is about 8 miles this village is roughly the right distance away from Kannuj. But there are hundreds of villages about 24 miles from Kannuj in a south and eastwardly direction. All we can say for sure is it's across the Ganges.</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
@@ -857,6 +887,12 @@
     <t>82.18445324595723</t>
   </si>
   <si>
+    <t>Ayodhya</t>
+  </si>
+  <si>
+    <t>Faizabad</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -872,6 +908,12 @@
     <t>Kośala</t>
   </si>
   <si>
+    <t>Shravasti</t>
+  </si>
+  <si>
+    <t>Devipatan</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
@@ -896,6 +938,12 @@
     <t>83.01952451857755</t>
   </si>
   <si>
+    <t>Gotihawa</t>
+  </si>
+  <si>
+    <t>Kapilvastu</t>
+  </si>
+  <si>
     <t>Lumbini</t>
   </si>
   <si>
@@ -914,6 +962,9 @@
     <t>83.07679240669472</t>
   </si>
   <si>
+    <t>Nigalihawa</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -938,12 +989,21 @@
     <t>83.26571753232031</t>
   </si>
   <si>
+    <t>Rupandehi</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
     <t>Râma</t>
   </si>
   <si>
+    <t>Ramgram</t>
+  </si>
+  <si>
+    <t>Nawalparasi</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
@@ -1044,9 +1104,6 @@
   </si>
   <si>
     <t>Etawah</t>
-  </si>
-  <si>
-    <t>Kanpur</t>
   </si>
   <si>
     <t>I'm not sure about the precise location of this place, but it's gotta be very nearby. Keshav Kashmiri's Quora question titled, "Where is the place in India where five rivers meet?" was answered very clearly by Deb P. Choudhury. The Kunwari, Pahuj, Yamuna, Chambel, and Sindh rivers all meet around the same place. Obviously not all in one spot, but all within an 8 or 9 mile wide region in Etawah District, Uttar Pradesh, India.</t>
@@ -2193,7 +2250,7 @@
     <col customWidth="1" min="29" max="29" width="21.0"/>
     <col customWidth="1" min="30" max="30" width="19.75"/>
     <col customWidth="1" min="31" max="31" width="19.13"/>
-    <col customWidth="1" min="32" max="32" width="14.0"/>
+    <col customWidth="1" min="32" max="32" width="15.0"/>
     <col customWidth="1" min="33" max="33" width="12.38"/>
     <col customWidth="1" min="34" max="34" width="14.75"/>
     <col customWidth="1" min="35" max="35" width="16.75"/>
@@ -4268,6 +4325,15 @@
       <c r="I29" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF29" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG29" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH29" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="AI29" s="5" t="s">
         <v>265</v>
       </c>
@@ -4289,22 +4355,31 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG30" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="AH30" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="AI30" s="5" t="s">
         <v>265</v>
@@ -4327,22 +4402,31 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF31" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG31" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH31" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="AI31" s="5" t="s">
         <v>265</v>
@@ -4362,25 +4446,40 @@
       <c r="AP31" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ31" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG32" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH32" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="AI32" s="5" t="s">
         <v>265</v>
@@ -4403,25 +4502,34 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
+      </c>
+      <c r="AF33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG33" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH33" s="5" t="s">
+        <v>299</v>
       </c>
       <c r="AI33" s="5" t="s">
         <v>265</v>
@@ -4444,19 +4552,19 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>49</v>
@@ -4482,28 +4590,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF35" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG35" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AI35" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AM35" s="2">
         <v>21.0</v>
@@ -4520,28 +4637,37 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF36" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AI36" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AM36" s="2">
         <v>21.0</v>
@@ -4558,28 +4684,37 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG37" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AI37" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AM37" s="2">
         <v>22.0</v>
@@ -4600,28 +4735,37 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF38" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG38" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AI38" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AM38" s="2">
         <v>22.0</v>
@@ -4642,28 +4786,37 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF39" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG39" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AI39" s="5" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AM39" s="2">
         <v>23.0</v>
@@ -4680,22 +4833,22 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -4718,28 +4871,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AJ41" s="5" t="s">
         <v>266</v>
@@ -4763,25 +4916,25 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="AJ42" s="5" t="s">
         <v>266</v>
@@ -4801,28 +4954,28 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="AJ43" s="5" t="s">
         <v>266</v>
@@ -4842,25 +4995,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI44" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ44" s="5" t="s">
         <v>266</v>
@@ -4880,10 +5033,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>49</v>
@@ -4898,7 +5051,7 @@
         <v>49</v>
       </c>
       <c r="AI45" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ45" s="5" t="s">
         <v>266</v>
@@ -4918,22 +5071,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -4942,7 +5095,7 @@
         <v>49</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>49</v>
@@ -5005,13 +5158,13 @@
         <v>49</v>
       </c>
       <c r="AF46" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="AH46" s="5" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="AI46" s="5" t="s">
         <v>265</v>
@@ -5035,30 +5188,30 @@
         <v>97.0</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI47" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ47" s="5" t="s">
         <v>266</v>
@@ -5078,10 +5231,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>49</v>
@@ -5096,7 +5249,7 @@
         <v>49</v>
       </c>
       <c r="AI48" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ48" s="5" t="s">
         <v>266</v>
@@ -5116,25 +5269,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI49" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI49" s="5" t="s">
-        <v>334</v>
       </c>
       <c r="AJ49" s="5" t="s">
         <v>266</v>
@@ -5154,25 +5307,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ50" s="5" t="s">
         <v>266</v>
@@ -5192,28 +5345,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ51" s="5" t="s">
         <v>266</v>
@@ -5233,25 +5386,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ52" s="5" t="s">
         <v>266</v>
@@ -5271,31 +5424,31 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ53" s="5" t="s">
         <v>266</v>
@@ -5315,31 +5468,31 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ54" s="5" t="s">
         <v>266</v>
@@ -5359,25 +5512,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ55" s="5" t="s">
         <v>266</v>
@@ -5398,36 +5551,36 @@
         <v>90.0</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ56" s="5" t="s">
         <v>266</v>
@@ -5447,10 +5600,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>49</v>
@@ -5465,7 +5618,7 @@
         <v>49</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ57" s="5" t="s">
         <v>266</v>
@@ -5485,28 +5638,28 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ58" s="5" t="s">
         <v>266</v>
@@ -5526,25 +5679,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ59" s="5" t="s">
         <v>266</v>
@@ -5564,25 +5717,25 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ60" s="5" t="s">
         <v>266</v>
@@ -5603,30 +5756,30 @@
         <v>60.0</v>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ61" s="5" t="s">
         <v>266</v>
@@ -5650,25 +5803,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ62" s="5" t="s">
         <v>266</v>
@@ -5692,25 +5845,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ63" s="5" t="s">
         <v>266</v>
@@ -5730,25 +5883,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ64" s="5" t="s">
         <v>266</v>
@@ -5768,10 +5921,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
@@ -5803,25 +5956,25 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="AJ66" s="5" t="s">
         <v>266</v>
@@ -5841,19 +5994,19 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>49</v>
@@ -5876,25 +6029,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="AJ68" s="5" t="s">
         <v>266</v>
@@ -5914,13 +6067,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>49</v>
@@ -5938,7 +6091,7 @@
         <v>49</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="AJ69" s="5" t="s">
         <v>266</v>
@@ -5958,34 +6111,34 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AH70" s="5" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="AJ70" s="5" t="s">
         <v>266</v>
@@ -6007,19 +6160,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>49</v>
@@ -6042,31 +6195,31 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="AJ72" s="5" t="s">
         <v>266</v>
@@ -6086,40 +6239,40 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="AH73" s="5" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AM73" s="2">
         <v>38.0</v>
@@ -6136,34 +6289,34 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AM74" s="2">
         <v>38.0</v>
@@ -6180,34 +6333,34 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="AJ75" s="5" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AM75" s="2">
         <v>39.0</v>
@@ -6225,42 +6378,42 @@
         <v>99.0</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="AH76" s="5" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="AJ76" s="5" t="s">
         <v>266</v>
@@ -6287,27 +6440,27 @@
         <v>1.0</v>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>49</v>
@@ -6316,16 +6469,16 @@
         <v>49</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="AH77" s="5" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="AK77" s="2" t="s">
         <v>49</v>
@@ -6349,48 +6502,48 @@
         <v>35.0</v>
       </c>
       <c r="AR77" s="2" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>57</v>
@@ -6399,10 +6552,10 @@
         <v>57</v>
       </c>
       <c r="AH78" s="5" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>57</v>
@@ -6425,37 +6578,37 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="Z79" s="5" t="s">
         <v>57</v>
@@ -6467,13 +6620,13 @@
         <v>49</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="AH79" s="5" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="AJ79" s="5" t="s">
         <v>57</v>
@@ -6494,27 +6647,27 @@
         <v>99.0</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>49</v>
@@ -6532,10 +6685,10 @@
         <v>49</v>
       </c>
       <c r="AH80" s="5" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="AJ80" s="5" t="s">
         <v>57</v>
@@ -6556,7 +6709,7 @@
         <v>99.0</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
     </row>
     <row r="81">
@@ -11364,140 +11517,165 @@
     <hyperlink r:id="rId176" ref="AH28"/>
     <hyperlink r:id="rId177" ref="AI28"/>
     <hyperlink r:id="rId178" ref="AJ28"/>
-    <hyperlink r:id="rId179" ref="AI29"/>
-    <hyperlink r:id="rId180" ref="AJ29"/>
-    <hyperlink r:id="rId181" ref="AI30"/>
-    <hyperlink r:id="rId182" ref="AJ30"/>
-    <hyperlink r:id="rId183" ref="AI31"/>
-    <hyperlink r:id="rId184" ref="AJ31"/>
-    <hyperlink r:id="rId185" ref="AI32"/>
-    <hyperlink r:id="rId186" ref="AJ32"/>
-    <hyperlink r:id="rId187" ref="AI33"/>
-    <hyperlink r:id="rId188" ref="AJ33"/>
-    <hyperlink r:id="rId189" ref="AI34"/>
-    <hyperlink r:id="rId190" ref="AJ34"/>
-    <hyperlink r:id="rId191" ref="AI35"/>
-    <hyperlink r:id="rId192" ref="AJ35"/>
-    <hyperlink r:id="rId193" ref="AI36"/>
-    <hyperlink r:id="rId194" ref="AJ36"/>
-    <hyperlink r:id="rId195" ref="AI37"/>
-    <hyperlink r:id="rId196" ref="AJ37"/>
-    <hyperlink r:id="rId197" ref="AI38"/>
-    <hyperlink r:id="rId198" ref="AJ38"/>
-    <hyperlink r:id="rId199" ref="AI39"/>
-    <hyperlink r:id="rId200" ref="AJ39"/>
-    <hyperlink r:id="rId201" ref="AJ40"/>
-    <hyperlink r:id="rId202" ref="K41"/>
-    <hyperlink r:id="rId203" ref="AJ41"/>
-    <hyperlink r:id="rId204" ref="K42"/>
-    <hyperlink r:id="rId205" ref="AJ42"/>
-    <hyperlink r:id="rId206" ref="AF43"/>
-    <hyperlink r:id="rId207" ref="AJ43"/>
-    <hyperlink r:id="rId208" ref="AI44"/>
-    <hyperlink r:id="rId209" ref="AJ44"/>
-    <hyperlink r:id="rId210" ref="AI45"/>
-    <hyperlink r:id="rId211" ref="AJ45"/>
-    <hyperlink r:id="rId212" ref="K46"/>
-    <hyperlink r:id="rId213" ref="AG46"/>
-    <hyperlink r:id="rId214" ref="AH46"/>
-    <hyperlink r:id="rId215" ref="AI46"/>
-    <hyperlink r:id="rId216" ref="AJ46"/>
-    <hyperlink r:id="rId217" ref="AI47"/>
-    <hyperlink r:id="rId218" ref="AJ47"/>
-    <hyperlink r:id="rId219" ref="AI48"/>
-    <hyperlink r:id="rId220" ref="AJ48"/>
-    <hyperlink r:id="rId221" ref="AI49"/>
-    <hyperlink r:id="rId222" ref="AJ49"/>
-    <hyperlink r:id="rId223" ref="AI50"/>
-    <hyperlink r:id="rId224" ref="AJ50"/>
-    <hyperlink r:id="rId225" ref="AI51"/>
-    <hyperlink r:id="rId226" ref="AJ51"/>
-    <hyperlink r:id="rId227" ref="AI52"/>
-    <hyperlink r:id="rId228" ref="AJ52"/>
-    <hyperlink r:id="rId229" ref="AI53"/>
-    <hyperlink r:id="rId230" ref="AJ53"/>
-    <hyperlink r:id="rId231" ref="AI54"/>
-    <hyperlink r:id="rId232" ref="AJ54"/>
-    <hyperlink r:id="rId233" ref="AI55"/>
-    <hyperlink r:id="rId234" ref="AJ55"/>
-    <hyperlink r:id="rId235" ref="K56"/>
-    <hyperlink r:id="rId236" ref="AI56"/>
-    <hyperlink r:id="rId237" ref="AJ56"/>
-    <hyperlink r:id="rId238" ref="AI57"/>
-    <hyperlink r:id="rId239" ref="AJ57"/>
-    <hyperlink r:id="rId240" ref="K58"/>
-    <hyperlink r:id="rId241" ref="AI58"/>
-    <hyperlink r:id="rId242" ref="AJ58"/>
-    <hyperlink r:id="rId243" ref="AI59"/>
-    <hyperlink r:id="rId244" ref="AJ59"/>
-    <hyperlink r:id="rId245" ref="AI60"/>
-    <hyperlink r:id="rId246" ref="AJ60"/>
-    <hyperlink r:id="rId247" ref="AI61"/>
-    <hyperlink r:id="rId248" ref="AJ61"/>
-    <hyperlink r:id="rId249" ref="AI62"/>
-    <hyperlink r:id="rId250" ref="AJ62"/>
-    <hyperlink r:id="rId251" ref="AI63"/>
-    <hyperlink r:id="rId252" ref="AJ63"/>
-    <hyperlink r:id="rId253" ref="AI64"/>
-    <hyperlink r:id="rId254" ref="AJ64"/>
-    <hyperlink r:id="rId255" ref="AJ65"/>
-    <hyperlink r:id="rId256" ref="AJ66"/>
-    <hyperlink r:id="rId257" ref="AJ67"/>
-    <hyperlink r:id="rId258" ref="AJ68"/>
-    <hyperlink r:id="rId259" ref="AJ69"/>
-    <hyperlink r:id="rId260" ref="AF70"/>
-    <hyperlink r:id="rId261" ref="AG70"/>
-    <hyperlink r:id="rId262" ref="AH70"/>
-    <hyperlink r:id="rId263" ref="AI70"/>
-    <hyperlink r:id="rId264" ref="AJ70"/>
-    <hyperlink r:id="rId265" ref="AJ71"/>
-    <hyperlink r:id="rId266" ref="P72"/>
-    <hyperlink r:id="rId267" ref="U72"/>
-    <hyperlink r:id="rId268" ref="AJ72"/>
-    <hyperlink r:id="rId269" ref="AG73"/>
-    <hyperlink r:id="rId270" ref="AH73"/>
-    <hyperlink r:id="rId271" ref="AI73"/>
-    <hyperlink r:id="rId272" ref="AJ73"/>
-    <hyperlink r:id="rId273" ref="I74"/>
-    <hyperlink r:id="rId274" ref="J74"/>
-    <hyperlink r:id="rId275" ref="K74"/>
-    <hyperlink r:id="rId276" ref="AJ74"/>
-    <hyperlink r:id="rId277" ref="I75"/>
-    <hyperlink r:id="rId278" ref="J75"/>
-    <hyperlink r:id="rId279" ref="K75"/>
-    <hyperlink r:id="rId280" ref="AJ75"/>
-    <hyperlink r:id="rId281" ref="AF76"/>
-    <hyperlink r:id="rId282" ref="AG76"/>
-    <hyperlink r:id="rId283" ref="AH76"/>
-    <hyperlink r:id="rId284" ref="AI76"/>
-    <hyperlink r:id="rId285" ref="AJ76"/>
-    <hyperlink r:id="rId286" ref="AG77"/>
-    <hyperlink r:id="rId287" ref="AH77"/>
-    <hyperlink r:id="rId288" ref="AI77"/>
-    <hyperlink r:id="rId289" ref="AJ77"/>
-    <hyperlink r:id="rId290" ref="I78"/>
-    <hyperlink r:id="rId291" ref="J78"/>
-    <hyperlink r:id="rId292" ref="K78"/>
-    <hyperlink r:id="rId293" ref="Z78"/>
-    <hyperlink r:id="rId294" ref="AE78"/>
-    <hyperlink r:id="rId295" ref="AH78"/>
-    <hyperlink r:id="rId296" ref="AI78"/>
-    <hyperlink r:id="rId297" ref="AJ78"/>
-    <hyperlink r:id="rId298" ref="M79"/>
-    <hyperlink r:id="rId299" ref="R79"/>
-    <hyperlink r:id="rId300" ref="Z79"/>
-    <hyperlink r:id="rId301" ref="AE79"/>
-    <hyperlink r:id="rId302" ref="AG79"/>
-    <hyperlink r:id="rId303" ref="AH79"/>
-    <hyperlink r:id="rId304" ref="AI79"/>
-    <hyperlink r:id="rId305" ref="AJ79"/>
-    <hyperlink r:id="rId306" ref="Z80"/>
-    <hyperlink r:id="rId307" ref="AE80"/>
-    <hyperlink r:id="rId308" ref="AH80"/>
-    <hyperlink r:id="rId309" ref="AI80"/>
-    <hyperlink r:id="rId310" ref="AJ80"/>
+    <hyperlink r:id="rId179" ref="AF29"/>
+    <hyperlink r:id="rId180" ref="AG29"/>
+    <hyperlink r:id="rId181" ref="AH29"/>
+    <hyperlink r:id="rId182" ref="AI29"/>
+    <hyperlink r:id="rId183" ref="AJ29"/>
+    <hyperlink r:id="rId184" ref="AF30"/>
+    <hyperlink r:id="rId185" ref="AG30"/>
+    <hyperlink r:id="rId186" ref="AH30"/>
+    <hyperlink r:id="rId187" ref="AI30"/>
+    <hyperlink r:id="rId188" ref="AJ30"/>
+    <hyperlink r:id="rId189" ref="AF31"/>
+    <hyperlink r:id="rId190" ref="AG31"/>
+    <hyperlink r:id="rId191" ref="AH31"/>
+    <hyperlink r:id="rId192" ref="AI31"/>
+    <hyperlink r:id="rId193" ref="AJ31"/>
+    <hyperlink r:id="rId194" ref="AF32"/>
+    <hyperlink r:id="rId195" ref="AG32"/>
+    <hyperlink r:id="rId196" ref="AH32"/>
+    <hyperlink r:id="rId197" ref="AI32"/>
+    <hyperlink r:id="rId198" ref="AJ32"/>
+    <hyperlink r:id="rId199" ref="AF33"/>
+    <hyperlink r:id="rId200" ref="AG33"/>
+    <hyperlink r:id="rId201" ref="AH33"/>
+    <hyperlink r:id="rId202" ref="AI33"/>
+    <hyperlink r:id="rId203" ref="AJ33"/>
+    <hyperlink r:id="rId204" ref="AI34"/>
+    <hyperlink r:id="rId205" ref="AJ34"/>
+    <hyperlink r:id="rId206" ref="AF35"/>
+    <hyperlink r:id="rId207" ref="AG35"/>
+    <hyperlink r:id="rId208" ref="AI35"/>
+    <hyperlink r:id="rId209" ref="AJ35"/>
+    <hyperlink r:id="rId210" ref="AF36"/>
+    <hyperlink r:id="rId211" ref="AG36"/>
+    <hyperlink r:id="rId212" ref="AI36"/>
+    <hyperlink r:id="rId213" ref="AJ36"/>
+    <hyperlink r:id="rId214" ref="AF37"/>
+    <hyperlink r:id="rId215" ref="AG37"/>
+    <hyperlink r:id="rId216" ref="AI37"/>
+    <hyperlink r:id="rId217" ref="AJ37"/>
+    <hyperlink r:id="rId218" ref="AF38"/>
+    <hyperlink r:id="rId219" ref="AG38"/>
+    <hyperlink r:id="rId220" ref="AI38"/>
+    <hyperlink r:id="rId221" ref="AJ38"/>
+    <hyperlink r:id="rId222" ref="AF39"/>
+    <hyperlink r:id="rId223" ref="AG39"/>
+    <hyperlink r:id="rId224" ref="AI39"/>
+    <hyperlink r:id="rId225" ref="AJ39"/>
+    <hyperlink r:id="rId226" ref="AJ40"/>
+    <hyperlink r:id="rId227" ref="K41"/>
+    <hyperlink r:id="rId228" ref="AJ41"/>
+    <hyperlink r:id="rId229" ref="K42"/>
+    <hyperlink r:id="rId230" ref="AJ42"/>
+    <hyperlink r:id="rId231" ref="AF43"/>
+    <hyperlink r:id="rId232" ref="AJ43"/>
+    <hyperlink r:id="rId233" ref="AI44"/>
+    <hyperlink r:id="rId234" ref="AJ44"/>
+    <hyperlink r:id="rId235" ref="AI45"/>
+    <hyperlink r:id="rId236" ref="AJ45"/>
+    <hyperlink r:id="rId237" ref="K46"/>
+    <hyperlink r:id="rId238" ref="AG46"/>
+    <hyperlink r:id="rId239" ref="AH46"/>
+    <hyperlink r:id="rId240" ref="AI46"/>
+    <hyperlink r:id="rId241" ref="AJ46"/>
+    <hyperlink r:id="rId242" ref="AI47"/>
+    <hyperlink r:id="rId243" ref="AJ47"/>
+    <hyperlink r:id="rId244" ref="AI48"/>
+    <hyperlink r:id="rId245" ref="AJ48"/>
+    <hyperlink r:id="rId246" ref="AI49"/>
+    <hyperlink r:id="rId247" ref="AJ49"/>
+    <hyperlink r:id="rId248" ref="AI50"/>
+    <hyperlink r:id="rId249" ref="AJ50"/>
+    <hyperlink r:id="rId250" ref="AI51"/>
+    <hyperlink r:id="rId251" ref="AJ51"/>
+    <hyperlink r:id="rId252" ref="AI52"/>
+    <hyperlink r:id="rId253" ref="AJ52"/>
+    <hyperlink r:id="rId254" ref="AI53"/>
+    <hyperlink r:id="rId255" ref="AJ53"/>
+    <hyperlink r:id="rId256" ref="AI54"/>
+    <hyperlink r:id="rId257" ref="AJ54"/>
+    <hyperlink r:id="rId258" ref="AI55"/>
+    <hyperlink r:id="rId259" ref="AJ55"/>
+    <hyperlink r:id="rId260" ref="K56"/>
+    <hyperlink r:id="rId261" ref="AI56"/>
+    <hyperlink r:id="rId262" ref="AJ56"/>
+    <hyperlink r:id="rId263" ref="AI57"/>
+    <hyperlink r:id="rId264" ref="AJ57"/>
+    <hyperlink r:id="rId265" ref="K58"/>
+    <hyperlink r:id="rId266" ref="AI58"/>
+    <hyperlink r:id="rId267" ref="AJ58"/>
+    <hyperlink r:id="rId268" ref="AI59"/>
+    <hyperlink r:id="rId269" ref="AJ59"/>
+    <hyperlink r:id="rId270" ref="AI60"/>
+    <hyperlink r:id="rId271" ref="AJ60"/>
+    <hyperlink r:id="rId272" ref="AI61"/>
+    <hyperlink r:id="rId273" ref="AJ61"/>
+    <hyperlink r:id="rId274" ref="AI62"/>
+    <hyperlink r:id="rId275" ref="AJ62"/>
+    <hyperlink r:id="rId276" ref="AI63"/>
+    <hyperlink r:id="rId277" ref="AJ63"/>
+    <hyperlink r:id="rId278" ref="AI64"/>
+    <hyperlink r:id="rId279" ref="AJ64"/>
+    <hyperlink r:id="rId280" ref="AJ65"/>
+    <hyperlink r:id="rId281" ref="AJ66"/>
+    <hyperlink r:id="rId282" ref="AJ67"/>
+    <hyperlink r:id="rId283" ref="AJ68"/>
+    <hyperlink r:id="rId284" ref="AJ69"/>
+    <hyperlink r:id="rId285" ref="AF70"/>
+    <hyperlink r:id="rId286" ref="AG70"/>
+    <hyperlink r:id="rId287" ref="AH70"/>
+    <hyperlink r:id="rId288" ref="AI70"/>
+    <hyperlink r:id="rId289" ref="AJ70"/>
+    <hyperlink r:id="rId290" ref="AJ71"/>
+    <hyperlink r:id="rId291" ref="P72"/>
+    <hyperlink r:id="rId292" ref="U72"/>
+    <hyperlink r:id="rId293" ref="AJ72"/>
+    <hyperlink r:id="rId294" ref="AG73"/>
+    <hyperlink r:id="rId295" ref="AH73"/>
+    <hyperlink r:id="rId296" ref="AI73"/>
+    <hyperlink r:id="rId297" ref="AJ73"/>
+    <hyperlink r:id="rId298" ref="I74"/>
+    <hyperlink r:id="rId299" ref="J74"/>
+    <hyperlink r:id="rId300" ref="K74"/>
+    <hyperlink r:id="rId301" ref="AJ74"/>
+    <hyperlink r:id="rId302" ref="I75"/>
+    <hyperlink r:id="rId303" ref="J75"/>
+    <hyperlink r:id="rId304" ref="K75"/>
+    <hyperlink r:id="rId305" ref="AJ75"/>
+    <hyperlink r:id="rId306" ref="AF76"/>
+    <hyperlink r:id="rId307" ref="AG76"/>
+    <hyperlink r:id="rId308" ref="AH76"/>
+    <hyperlink r:id="rId309" ref="AI76"/>
+    <hyperlink r:id="rId310" ref="AJ76"/>
+    <hyperlink r:id="rId311" ref="AG77"/>
+    <hyperlink r:id="rId312" ref="AH77"/>
+    <hyperlink r:id="rId313" ref="AI77"/>
+    <hyperlink r:id="rId314" ref="AJ77"/>
+    <hyperlink r:id="rId315" ref="I78"/>
+    <hyperlink r:id="rId316" ref="J78"/>
+    <hyperlink r:id="rId317" ref="K78"/>
+    <hyperlink r:id="rId318" ref="Z78"/>
+    <hyperlink r:id="rId319" ref="AE78"/>
+    <hyperlink r:id="rId320" ref="AH78"/>
+    <hyperlink r:id="rId321" ref="AI78"/>
+    <hyperlink r:id="rId322" ref="AJ78"/>
+    <hyperlink r:id="rId323" ref="M79"/>
+    <hyperlink r:id="rId324" ref="R79"/>
+    <hyperlink r:id="rId325" ref="Z79"/>
+    <hyperlink r:id="rId326" ref="AE79"/>
+    <hyperlink r:id="rId327" ref="AG79"/>
+    <hyperlink r:id="rId328" ref="AH79"/>
+    <hyperlink r:id="rId329" ref="AI79"/>
+    <hyperlink r:id="rId330" ref="AJ79"/>
+    <hyperlink r:id="rId331" ref="Z80"/>
+    <hyperlink r:id="rId332" ref="AE80"/>
+    <hyperlink r:id="rId333" ref="AH80"/>
+    <hyperlink r:id="rId334" ref="AI80"/>
+    <hyperlink r:id="rId335" ref="AJ80"/>
   </hyperlinks>
-  <drawing r:id="rId311"/>
+  <drawing r:id="rId336"/>
 </worksheet>
 </file>
 
@@ -11542,28 +11720,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>35</v>
@@ -11572,16 +11750,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -11590,28 +11768,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
@@ -11630,7 +11808,7 @@
         <v>Daxingshan Temple</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="F2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Yanta_District","Yanta")</f>
@@ -11648,32 +11826,32 @@
         <v>57</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Chang%27an","Ch'ang-gan")</f>
         <v>Ch'ang-gan</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>53</v>
@@ -11716,10 +11894,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F3" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Longxi_County","Longxi")</f>
@@ -11737,40 +11915,40 @@
         <v>57</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>72</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>57</v>
@@ -11804,13 +11982,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Lanzhou","Lanzhou")</f>
@@ -11824,40 +12002,40 @@
         <v>57</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>57</v>
@@ -11895,7 +12073,7 @@
         <v>White Horse Temple</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Huzhu_Tu_Autonomous_County","Huzhu")</f>
@@ -11913,40 +12091,40 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>57</v>
@@ -11972,13 +12150,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Zhangye","Zhangye")</f>
@@ -11995,37 +12173,37 @@
         <v>117</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>123</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>57</v>
@@ -12055,7 +12233,7 @@
         <v>Leiyin Temple</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dunhuang","Dunhuang")</f>
@@ -12073,40 +12251,40 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>57</v>
@@ -12132,7 +12310,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="E8" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ruoqiang_Town","Ruoqiang")</f>
@@ -12154,40 +12332,40 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>57</v>
@@ -12197,7 +12375,7 @@
         <v>Shanshan</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9">
@@ -12216,7 +12394,7 @@
         <v>Subashi Temple</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kuqa_County","Kuqa")</f>
@@ -12234,40 +12412,40 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>57</v>
@@ -12277,12 +12455,12 @@
         <v>Kucha</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>197</v>
@@ -12296,7 +12474,7 @@
         <v>Melikawat</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Hotan","Hotan")</f>
@@ -12318,37 +12496,37 @@
         <v>Gomati</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>57</v>
@@ -12358,7 +12536,7 @@
         <v>Khotan</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11">
@@ -12373,7 +12551,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Tashkurgan")</f>
@@ -12395,76 +12573,76 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Sarikol")</f>
         <v>Sarikol</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -12473,16 +12651,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
@@ -12491,28 +12669,28 @@
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13">
@@ -12527,7 +12705,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E13" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gilgit","Gilgit")</f>
@@ -12549,55 +12727,55 @@
         <v>175</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="W13" s="22" t="str">
         <f t="shared" ref="W13:W14" si="7">HYPERLINK("https://en.wikipedia.org/wiki/Baloristan","Baloristan")</f>
         <v>Baloristan</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>231</v>
@@ -12607,7 +12785,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E14" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Skardu","Skardu")</f>
@@ -12629,50 +12807,50 @@
         <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W14" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Baloristan</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15">
@@ -12687,7 +12865,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Palas,_Khyber_Pakhtunkhwa","Palas?")</f>
@@ -12709,50 +12887,50 @@
         <v>175</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="W15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dardistan","Dardistan")</f>
         <v>Dardistan</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16">
@@ -12790,50 +12968,50 @@
         <v>175</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W16" s="22" t="str">
         <f t="shared" ref="W16:W17" si="11">HYPERLINK("https://en.wikipedia.org/wiki/Oddiyana","Oddiyana")</f>
         <v>Oddiyana</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17">
@@ -12841,7 +13019,7 @@
         <v>144</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C17" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.65169950508407%2C72.21028088377693&amp;z=12","15")</f>
@@ -12871,50 +13049,50 @@
         <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W17" s="22" t="str">
         <f t="shared" si="11"/>
         <v>Oddiyana</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18">
@@ -12922,7 +13100,7 @@
         <v>153</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C18" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.16702387496293%2C71.7220490760742&amp;z=12","16")</f>
@@ -12952,50 +13130,50 @@
         <v>175</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W18" s="22" t="str">
         <f t="shared" ref="W18:W20" si="12">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19">
@@ -13003,7 +13181,7 @@
         <v>162</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C19" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=33.73143909021518%2C72.83341236977537&amp;z=12","17")</f>
@@ -13033,51 +13211,51 @@
         <v>175</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R19" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Taxila","Taxila")</f>
         <v>Taxila</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W19" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20">
@@ -13085,7 +13263,7 @@
         <v>169</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/u/0/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.002496709436734%2C71.57382729450865&amp;z=12","18")</f>
@@ -13115,76 +13293,76 @@
         <v>175</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="W20" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -13193,16 +13371,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
@@ -13211,28 +13389,28 @@
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22">
@@ -13240,7 +13418,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C22" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.36447187004159%2C70.47714034997773&amp;z=12","19")</f>
@@ -13255,10 +13433,10 @@
         <v>Jalalabad</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" ref="H22:H24" si="14">HYPERLINK("https://en.wikipedia.org/wiki/Nangarhar_Province","Nangarhar")</f>
@@ -13268,40 +13446,40 @@
         <v>226</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>266</v>
@@ -13311,7 +13489,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23">
@@ -13319,24 +13497,24 @@
         <v>176</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.411786302122465%2C70.4702738948996&amp;z=12","20")</f>
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13346,40 +13524,40 @@
         <v>226</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>266</v>
@@ -13389,7 +13567,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24">
@@ -13397,24 +13575,24 @@
         <v>176</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="C24" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.46530150459222%2C70.54992477380586&amp;z=12","21")</f>
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13424,40 +13602,40 @@
         <v>226</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>266</v>
@@ -13467,7 +13645,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25">
@@ -13475,99 +13653,99 @@
         <v>182</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C25" s="14">
         <v>22.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>35</v>
@@ -13576,16 +13754,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>15</v>
@@ -13594,28 +13772,28 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27">
@@ -13623,14 +13801,14 @@
         <v>182</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C27" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.988315923725175%2C70.60313980066132&amp;z=12","23")</f>
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bannu","Bannu")</f>
@@ -13652,49 +13830,49 @@
         <v>175</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28">
@@ -13702,14 +13880,14 @@
         <v>190</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="C28" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.48134397940673%2C72.8920924529076&amp;z=12","24")</f>
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E28" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bhera","Bhera")</f>
@@ -13731,37 +13909,37 @@
         <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>214</v>
@@ -13770,36 +13948,36 @@
         <v>266</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -13808,16 +13986,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>15</v>
@@ -13826,28 +14004,28 @@
         <v>36</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30">
@@ -13855,7 +14033,7 @@
         <v>197</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="C30" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.494246295517122%2C77.66572232846681&amp;z=12","25")</f>
@@ -13885,49 +14063,49 @@
         <v>266</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31">
@@ -13935,14 +14113,14 @@
         <v>202</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.33006113726599%2C79.25747333120137&amp;z=12","26")</f>
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="E31" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Sankassa","Sankassa")</f>
@@ -13964,49 +14142,49 @@
         <v>266</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32">
@@ -14014,14 +14192,14 @@
         <v>208</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C32" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.04900858535046%2C79.89687617923914&amp;z=12","27")</f>
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E32" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj","Kannauj")</f>
@@ -14043,40 +14221,40 @@
         <v>266</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>266</v>
@@ -14086,7 +14264,7 @@
         <v>Kanyakubja</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33">
@@ -14094,22 +14272,22 @@
         <v>208</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C33" s="14">
         <v>28.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H33" s="22" t="str">
         <f t="shared" si="16"/>
@@ -14119,49 +14297,49 @@
         <v>266</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34">
@@ -14169,14 +14347,14 @@
         <v>215</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="C34" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.783630699664172%2C82.18445324595723&amp;z=12","29")</f>
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E34" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ayodhya","Ayodhya")</f>
@@ -14198,49 +14376,49 @@
         <v>266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35">
@@ -14248,7 +14426,7 @@
         <v>220</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="C35" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.507304072925685%2C82.01523378327738&amp;z=12","30")</f>
@@ -14278,50 +14456,50 @@
         <v>266</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ref="O35:O36" si="20">HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36">
@@ -14329,17 +14507,17 @@
         <v>227</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="C36" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.493788556662818%2C81.87964706678713&amp;z=12","31")</f>
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="F36" s="22" t="str">
         <f t="shared" si="18"/>
@@ -14357,76 +14535,76 @@
         <v>266</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" si="20"/>
         <v>Kosala</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>35</v>
@@ -14435,16 +14613,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>15</v>
@@ -14453,28 +14631,28 @@
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38">
@@ -14482,14 +14660,14 @@
         <v>227</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C38" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.50397427851355%2C83.01952451857755&amp;z=12","32")</f>
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gotihawa","Gotihawa")</f>
@@ -14500,60 +14678,60 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H38" s="22" t="str">
         <f t="shared" ref="H38:H42" si="22">HYPERLINK("https://en.wikipedia.org/wiki/Province_No._5","Province No. 5")</f>
         <v>Province No. 5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39">
@@ -14561,7 +14739,7 @@
         <v>227</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.59332346636215%2C83.07679240669472&amp;z=12","33")</f>
@@ -14580,59 +14758,59 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H39" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40">
@@ -14640,7 +14818,7 @@
         <v>231</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C40" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.565003085219224%2C83.03497404250334&amp;z=12","34")</f>
@@ -14659,60 +14837,60 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H40" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kapilavastu_(ancient_city)","Kapilavastu")</f>
         <v>Kapilavastu</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41">
@@ -14720,7 +14898,7 @@
         <v>231</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="C41" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","35")</f>
@@ -14739,59 +14917,59 @@
         <v>Rupandehi</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H41" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42">
@@ -14799,7 +14977,7 @@
         <v>235</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="C42" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","36")</f>
@@ -14818,85 +14996,85 @@
         <v>Nawalparasi</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="H42" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>35</v>
@@ -14905,16 +15083,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>15</v>
@@ -14923,28 +15101,28 @@
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R43" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="S43" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="T43" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44">
@@ -14952,7 +15130,7 @@
         <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="C44" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.7430162374067%2C83.87320193640551&amp;z=12","37")</f>
@@ -14982,40 +15160,40 @@
         <v>266</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>266</v>
@@ -15034,17 +15212,17 @@
         <v>248</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="C45" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.014780548059537%2C85.09495798243438&amp;z=12","38")</f>
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="F45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_district","Vaishali")</f>
@@ -15062,41 +15240,41 @@
         <v>266</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_(ancient_city)","Vaishali")</f>
         <v>Vaishali</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>266</v>
@@ -15115,64 +15293,64 @@
         <v>253</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C46" s="14">
         <v>39.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>266</v>
@@ -15191,7 +15369,7 @@
         <v>259</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="C47" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","40")</f>
@@ -15221,42 +15399,42 @@
         <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O47" s="22" t="str">
         <f t="shared" ref="O47:O62" si="29">HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>266</v>
@@ -15275,13 +15453,13 @@
         <v>259</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C48" s="14">
         <v>41.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E48" s="22" t="str">
         <f t="shared" si="25"/>
@@ -15303,41 +15481,41 @@
         <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O48" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>266</v>
@@ -15356,14 +15534,14 @@
         <v>267</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C49" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.021011866415765%2C85.4992275630334&amp;z=12","42")</f>
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Giriyak","Giriyak")</f>
@@ -15385,42 +15563,42 @@
         <v>266</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>HYPERLINK("https://www.jatland.com/home/Giryak","Giryek")</f>
         <v>Giryek</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O49" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>266</v>
@@ -15439,17 +15617,17 @@
         <v>267</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="C50" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.146201055831895%2C85.42835071494505&amp;z=12","43")</f>
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="F50" s="22" t="str">
         <f t="shared" si="30"/>
@@ -15467,42 +15645,42 @@
         <v>266</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nalanda","Nala")</f>
         <v>Nala</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O50" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>266</v>
@@ -15521,14 +15699,14 @@
         <v>267</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="C51" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.018748635180835%2C85.4032881539099&amp;z=12","44")</f>
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="E51" s="22" t="str">
         <f t="shared" ref="E51:E58" si="31">HYPERLINK("https://en.wikipedia.org/wiki/Rajgir","Rajgir")</f>
@@ -15550,41 +15728,41 @@
         <v>266</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O51" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>266</v>
@@ -15600,17 +15778,17 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C52" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.011304665466987%2C85.4332480868809&amp;z=12","45")</f>
         <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="E52" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15632,38 +15810,38 @@
         <v>266</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O52" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>266</v>
@@ -15679,10 +15857,10 @@
     </row>
     <row r="53">
       <c r="A53" s="13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C53" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.005060701273067%2C85.43872566517189&amp;z=12","46")</f>
@@ -15712,41 +15890,41 @@
         <v>266</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O53" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>266</v>
@@ -15762,10 +15940,10 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="C54" s="14">
         <v>47.0</v>
@@ -15794,41 +15972,41 @@
         <v>266</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O54" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>266</v>
@@ -15844,16 +16022,16 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="C55" s="14">
         <v>48.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E55" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15875,41 +16053,41 @@
         <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O55" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>266</v>
@@ -15925,16 +16103,16 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C56" s="14">
         <v>48.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="E56" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15956,41 +16134,41 @@
         <v>266</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O56" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>266</v>
@@ -16006,10 +16184,10 @@
     </row>
     <row r="57">
       <c r="A57" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C57" s="14">
         <v>49.0</v>
@@ -16038,41 +16216,41 @@
         <v>266</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O57" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>266</v>
@@ -16088,16 +16266,16 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="C58" s="14">
         <v>50.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E58" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16119,41 +16297,41 @@
         <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O58" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>266</v>
@@ -16169,17 +16347,17 @@
     </row>
     <row r="59">
       <c r="A59" s="13" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="C59" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.78969479649287%2C84.98467590145651&amp;z=12","51")</f>
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gaya,_India","Gaya")</f>
@@ -16201,41 +16379,41 @@
         <v>266</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O59" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>266</v>
@@ -16251,10 +16429,10 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="C60" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.696962894699446%2C84.9659879247863&amp;z=12","52")</f>
@@ -16284,41 +16462,41 @@
         <v>266</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O60" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>266</v>
@@ -16334,10 +16512,10 @@
     </row>
     <row r="61">
       <c r="A61" s="13" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="C61" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.548687563998897%2C85.2906752102283&amp;z=12","53")</f>
@@ -16348,7 +16526,7 @@
         <v>Gurpa Hill</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="F61" s="22" t="str">
         <f t="shared" si="32"/>
@@ -16366,38 +16544,38 @@
         <v>266</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O61" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>266</v>
@@ -16413,17 +16591,17 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="C62" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","54")</f>
         <v>54</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E62" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16445,42 +16623,42 @@
         <v>266</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O62" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>266</v>
@@ -16496,49 +16674,49 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C63" s="25">
         <v>55.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C64" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.311619542229757%2C82.96152352056333&amp;z=12","56")</f>
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E64" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Varanasi","Varanasi")</f>
@@ -16560,15 +16738,15 @@
         <v>266</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="C65" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.37185416787389%2C83.00546883306333&amp;z=12","57")</f>
@@ -16598,25 +16776,25 @@
         <v>266</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="C66" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.340593900335598%2C81.36565102487407&amp;z=12","58")</f>
         <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="F66" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kaushambi_district","Kaushambi")</f>
@@ -16636,43 +16814,43 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="C67" s="25">
         <v>59.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="8"/>
@@ -16688,17 +16866,17 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="C68" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","60")</f>
         <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16720,42 +16898,42 @@
         <v>266</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="O68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>266</v>
@@ -16771,20 +16949,20 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="C69" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.248716707163823%2C86.918446321582&amp;z=12","61")</f>
         <v>61</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F69" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nathnagar_(Vidhan_Sabha_constituency)","Nathnagar")</f>
@@ -16802,22 +16980,22 @@
         <v>266</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="C70" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=22.277762973128496%2C87.91568685806817&amp;z=12","62")</f>
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamluk","Tamluk")</f>
@@ -16849,28 +17027,28 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
@@ -16879,16 +17057,16 @@
         <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>15</v>
@@ -16897,28 +17075,28 @@
         <v>36</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="R71" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="S71" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="S71" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="T71" s="2" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72">
@@ -16934,7 +17112,7 @@
         <v>Anuradhapura</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73">

--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="682">
   <si>
     <t>Google Maps</t>
   </si>
@@ -299,10 +299,10 @@
     <t>褥⁠檀国</t>
   </si>
   <si>
-    <t>36.51037835570662</t>
-  </si>
-  <si>
-    <t>102.10350864038082</t>
+    <t>36.62102532208603</t>
+  </si>
+  <si>
+    <t>101.78061503281391</t>
   </si>
   <si>
     <t>Southern Leang</t>
@@ -926,6 +926,12 @@
     <t>81.87964706678713</t>
   </si>
   <si>
+    <t>Padri</t>
+  </si>
+  <si>
+    <t>Bahraich</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
@@ -1046,6 +1052,12 @@
     <t>Parinirvana Stupa</t>
   </si>
   <si>
+    <t>Kushinagar</t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
@@ -1064,6 +1076,15 @@
     <t>Bakhra</t>
   </si>
   <si>
+    <t>Muzaffarpur</t>
+  </si>
+  <si>
+    <t>Tirhut</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
@@ -1076,9 +1097,6 @@
     <t>85.09495798243438</t>
   </si>
   <si>
-    <t>Bihar</t>
-  </si>
-  <si>
     <t>44</t>
   </si>
   <si>
@@ -1121,10 +1139,28 @@
     <t>85.17480100122827</t>
   </si>
   <si>
+    <t>Pataliputra</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>The Wikipedia entry for Pataliputra and for Patna confirms this is the place. I've chosen the ruins of Ashoka's palace as the most obvious location.</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
     <t>Ne-le</t>
+  </si>
+  <si>
+    <t>25.58255081876259</t>
+  </si>
+  <si>
+    <t>85.18482156146312</t>
+  </si>
+  <si>
+    <t>Faxian says Ne-le is about 3 le south of Pataliputtra. That's roughly a mile. This spot is a bit more than a mile south of Ashoka's palace. The actuall location might be a little further. The way that paragraph is written it's kind of hard to tell exactly which city Ne-le is south of. It looks like all of southern Patna has been developed since modern times. Wherever this place is it's long since disappeared.</t>
   </si>
   <si>
     <t>48</t>
@@ -1393,9 +1429,6 @@
   </si>
   <si>
     <t>85.13761656022503</t>
-  </si>
-  <si>
-    <t>Patna</t>
   </si>
   <si>
     <t>70</t>
@@ -4569,6 +4602,12 @@
       <c r="I34" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF34" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG34" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="AI34" s="5" t="s">
         <v>265</v>
       </c>
@@ -4590,37 +4629,37 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF35" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG35" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AH35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI35" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM35" s="2">
         <v>21.0</v>
@@ -4637,37 +4676,37 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF36" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG36" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI36" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="AJ36" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="AG36" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="AM36" s="2">
         <v>21.0</v>
@@ -4684,37 +4723,37 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF37" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG37" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AH37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI37" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM37" s="2">
         <v>22.0</v>
@@ -4735,37 +4774,37 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF38" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG38" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AH38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI38" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM38" s="2">
         <v>22.0</v>
@@ -4786,37 +4825,37 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="I39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AH39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AM39" s="2">
         <v>23.0</v>
@@ -4833,22 +4872,22 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>49</v>
@@ -4871,28 +4910,28 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AJ41" s="5" t="s">
         <v>266</v>
@@ -4916,25 +4955,37 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG42" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH42" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="AI42" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="AJ42" s="5" t="s">
         <v>266</v>
@@ -4954,28 +5005,37 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>49</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AF43" s="5" t="s">
-        <v>349</v>
+        <v>353</v>
+      </c>
+      <c r="AG43" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AH43" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI43" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="AJ43" s="5" t="s">
         <v>266</v>
@@ -4995,25 +5055,25 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI44" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ44" s="5" t="s">
         <v>266</v>
@@ -5033,25 +5093,25 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI45" s="5" t="s">
         <v>356</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI45" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="AJ45" s="5" t="s">
         <v>266</v>
@@ -5071,22 +5131,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -5095,7 +5155,7 @@
         <v>49</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>49</v>
@@ -5157,11 +5217,11 @@
       <c r="AE46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AF46" s="2" t="s">
-        <v>362</v>
+      <c r="AF46" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AH46" s="5" t="s">
         <v>273</v>
@@ -5188,30 +5248,45 @@
         <v>97.0</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="L47" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF47" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG47" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH47" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="AI47" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ47" s="5" t="s">
         <v>266</v>
@@ -5228,28 +5303,43 @@
       <c r="AP47" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ47" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="AR47" s="2" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>49</v>
+        <v>380</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>49</v>
+        <v>381</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AF48" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG48" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH48" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="AI48" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ48" s="5" t="s">
         <v>266</v>
@@ -5266,28 +5356,34 @@
       <c r="AP48" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ48" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI49" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ49" s="5" t="s">
         <v>266</v>
@@ -5307,25 +5403,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI50" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ50" s="5" t="s">
         <v>266</v>
@@ -5345,28 +5441,28 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="AI51" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ51" s="5" t="s">
         <v>266</v>
@@ -5386,25 +5482,25 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI52" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ52" s="5" t="s">
         <v>266</v>
@@ -5424,31 +5520,31 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="AI53" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ53" s="5" t="s">
         <v>266</v>
@@ -5468,31 +5564,31 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="AI54" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ54" s="5" t="s">
         <v>266</v>
@@ -5512,25 +5608,25 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI55" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ55" s="5" t="s">
         <v>266</v>
@@ -5551,36 +5647,36 @@
         <v>90.0</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AI56" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ56" s="5" t="s">
         <v>266</v>
@@ -5600,10 +5696,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>49</v>
@@ -5618,7 +5714,7 @@
         <v>49</v>
       </c>
       <c r="AI57" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ57" s="5" t="s">
         <v>266</v>
@@ -5638,28 +5734,28 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AI58" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ58" s="5" t="s">
         <v>266</v>
@@ -5679,25 +5775,25 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI59" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ59" s="5" t="s">
         <v>266</v>
@@ -5717,25 +5813,25 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI60" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ60" s="5" t="s">
         <v>266</v>
@@ -5756,30 +5852,30 @@
         <v>60.0</v>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI61" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ61" s="5" t="s">
         <v>266</v>
@@ -5803,25 +5899,25 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI62" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ62" s="5" t="s">
         <v>266</v>
@@ -5845,25 +5941,25 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI63" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ63" s="5" t="s">
         <v>266</v>
@@ -5883,25 +5979,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AI64" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ64" s="5" t="s">
         <v>266</v>
@@ -5921,10 +6017,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
@@ -5956,25 +6052,25 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="AJ66" s="5" t="s">
         <v>266</v>
@@ -5994,19 +6090,19 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>49</v>
@@ -6029,25 +6125,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="AJ68" s="5" t="s">
         <v>266</v>
@@ -6067,13 +6163,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>49</v>
@@ -6091,7 +6187,7 @@
         <v>49</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="AJ69" s="5" t="s">
         <v>266</v>
@@ -6111,34 +6207,34 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="AH70" s="5" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="AI70" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AJ70" s="5" t="s">
         <v>266</v>
@@ -6160,19 +6256,19 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>49</v>
@@ -6195,31 +6291,31 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AJ72" s="5" t="s">
         <v>266</v>
@@ -6239,40 +6335,40 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AH73" s="5" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AM73" s="2">
         <v>38.0</v>
@@ -6289,34 +6385,34 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="AM74" s="2">
         <v>38.0</v>
@@ -6333,34 +6429,34 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ75" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AJ75" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="AM75" s="2">
         <v>39.0</v>
@@ -6378,42 +6474,42 @@
         <v>99.0</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="AH76" s="5" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="AJ76" s="5" t="s">
         <v>266</v>
@@ -6440,27 +6536,27 @@
         <v>1.0</v>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>49</v>
@@ -6469,16 +6565,16 @@
         <v>49</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="AH77" s="5" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="AK77" s="2" t="s">
         <v>49</v>
@@ -6502,48 +6598,48 @@
         <v>35.0</v>
       </c>
       <c r="AR77" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>57</v>
@@ -6552,10 +6648,10 @@
         <v>57</v>
       </c>
       <c r="AH78" s="5" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>57</v>
@@ -6578,37 +6674,37 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="Z79" s="5" t="s">
         <v>57</v>
@@ -6620,13 +6716,13 @@
         <v>49</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="AH79" s="5" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="AJ79" s="5" t="s">
         <v>57</v>
@@ -6647,27 +6743,27 @@
         <v>99.0</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>49</v>
@@ -6685,10 +6781,10 @@
         <v>49</v>
       </c>
       <c r="AH80" s="5" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="AJ80" s="5" t="s">
         <v>57</v>
@@ -6709,7 +6805,7 @@
         <v>99.0</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81">
@@ -11542,140 +11638,158 @@
     <hyperlink r:id="rId201" ref="AH33"/>
     <hyperlink r:id="rId202" ref="AI33"/>
     <hyperlink r:id="rId203" ref="AJ33"/>
-    <hyperlink r:id="rId204" ref="AI34"/>
-    <hyperlink r:id="rId205" ref="AJ34"/>
-    <hyperlink r:id="rId206" ref="AF35"/>
-    <hyperlink r:id="rId207" ref="AG35"/>
-    <hyperlink r:id="rId208" ref="AI35"/>
-    <hyperlink r:id="rId209" ref="AJ35"/>
-    <hyperlink r:id="rId210" ref="AF36"/>
-    <hyperlink r:id="rId211" ref="AG36"/>
-    <hyperlink r:id="rId212" ref="AI36"/>
-    <hyperlink r:id="rId213" ref="AJ36"/>
-    <hyperlink r:id="rId214" ref="AF37"/>
-    <hyperlink r:id="rId215" ref="AG37"/>
-    <hyperlink r:id="rId216" ref="AI37"/>
-    <hyperlink r:id="rId217" ref="AJ37"/>
-    <hyperlink r:id="rId218" ref="AF38"/>
-    <hyperlink r:id="rId219" ref="AG38"/>
-    <hyperlink r:id="rId220" ref="AI38"/>
-    <hyperlink r:id="rId221" ref="AJ38"/>
-    <hyperlink r:id="rId222" ref="AF39"/>
-    <hyperlink r:id="rId223" ref="AG39"/>
-    <hyperlink r:id="rId224" ref="AI39"/>
-    <hyperlink r:id="rId225" ref="AJ39"/>
-    <hyperlink r:id="rId226" ref="AJ40"/>
-    <hyperlink r:id="rId227" ref="K41"/>
-    <hyperlink r:id="rId228" ref="AJ41"/>
-    <hyperlink r:id="rId229" ref="K42"/>
-    <hyperlink r:id="rId230" ref="AJ42"/>
-    <hyperlink r:id="rId231" ref="AF43"/>
-    <hyperlink r:id="rId232" ref="AJ43"/>
-    <hyperlink r:id="rId233" ref="AI44"/>
-    <hyperlink r:id="rId234" ref="AJ44"/>
-    <hyperlink r:id="rId235" ref="AI45"/>
-    <hyperlink r:id="rId236" ref="AJ45"/>
-    <hyperlink r:id="rId237" ref="K46"/>
-    <hyperlink r:id="rId238" ref="AG46"/>
-    <hyperlink r:id="rId239" ref="AH46"/>
-    <hyperlink r:id="rId240" ref="AI46"/>
-    <hyperlink r:id="rId241" ref="AJ46"/>
-    <hyperlink r:id="rId242" ref="AI47"/>
-    <hyperlink r:id="rId243" ref="AJ47"/>
-    <hyperlink r:id="rId244" ref="AI48"/>
-    <hyperlink r:id="rId245" ref="AJ48"/>
-    <hyperlink r:id="rId246" ref="AI49"/>
-    <hyperlink r:id="rId247" ref="AJ49"/>
-    <hyperlink r:id="rId248" ref="AI50"/>
-    <hyperlink r:id="rId249" ref="AJ50"/>
-    <hyperlink r:id="rId250" ref="AI51"/>
-    <hyperlink r:id="rId251" ref="AJ51"/>
-    <hyperlink r:id="rId252" ref="AI52"/>
-    <hyperlink r:id="rId253" ref="AJ52"/>
-    <hyperlink r:id="rId254" ref="AI53"/>
-    <hyperlink r:id="rId255" ref="AJ53"/>
-    <hyperlink r:id="rId256" ref="AI54"/>
-    <hyperlink r:id="rId257" ref="AJ54"/>
-    <hyperlink r:id="rId258" ref="AI55"/>
-    <hyperlink r:id="rId259" ref="AJ55"/>
-    <hyperlink r:id="rId260" ref="K56"/>
-    <hyperlink r:id="rId261" ref="AI56"/>
-    <hyperlink r:id="rId262" ref="AJ56"/>
-    <hyperlink r:id="rId263" ref="AI57"/>
-    <hyperlink r:id="rId264" ref="AJ57"/>
-    <hyperlink r:id="rId265" ref="K58"/>
-    <hyperlink r:id="rId266" ref="AI58"/>
-    <hyperlink r:id="rId267" ref="AJ58"/>
-    <hyperlink r:id="rId268" ref="AI59"/>
-    <hyperlink r:id="rId269" ref="AJ59"/>
-    <hyperlink r:id="rId270" ref="AI60"/>
-    <hyperlink r:id="rId271" ref="AJ60"/>
-    <hyperlink r:id="rId272" ref="AI61"/>
-    <hyperlink r:id="rId273" ref="AJ61"/>
-    <hyperlink r:id="rId274" ref="AI62"/>
-    <hyperlink r:id="rId275" ref="AJ62"/>
-    <hyperlink r:id="rId276" ref="AI63"/>
-    <hyperlink r:id="rId277" ref="AJ63"/>
-    <hyperlink r:id="rId278" ref="AI64"/>
-    <hyperlink r:id="rId279" ref="AJ64"/>
-    <hyperlink r:id="rId280" ref="AJ65"/>
-    <hyperlink r:id="rId281" ref="AJ66"/>
-    <hyperlink r:id="rId282" ref="AJ67"/>
-    <hyperlink r:id="rId283" ref="AJ68"/>
-    <hyperlink r:id="rId284" ref="AJ69"/>
-    <hyperlink r:id="rId285" ref="AF70"/>
-    <hyperlink r:id="rId286" ref="AG70"/>
-    <hyperlink r:id="rId287" ref="AH70"/>
-    <hyperlink r:id="rId288" ref="AI70"/>
-    <hyperlink r:id="rId289" ref="AJ70"/>
-    <hyperlink r:id="rId290" ref="AJ71"/>
-    <hyperlink r:id="rId291" ref="P72"/>
-    <hyperlink r:id="rId292" ref="U72"/>
-    <hyperlink r:id="rId293" ref="AJ72"/>
-    <hyperlink r:id="rId294" ref="AG73"/>
-    <hyperlink r:id="rId295" ref="AH73"/>
-    <hyperlink r:id="rId296" ref="AI73"/>
-    <hyperlink r:id="rId297" ref="AJ73"/>
-    <hyperlink r:id="rId298" ref="I74"/>
-    <hyperlink r:id="rId299" ref="J74"/>
-    <hyperlink r:id="rId300" ref="K74"/>
-    <hyperlink r:id="rId301" ref="AJ74"/>
-    <hyperlink r:id="rId302" ref="I75"/>
-    <hyperlink r:id="rId303" ref="J75"/>
-    <hyperlink r:id="rId304" ref="K75"/>
-    <hyperlink r:id="rId305" ref="AJ75"/>
-    <hyperlink r:id="rId306" ref="AF76"/>
-    <hyperlink r:id="rId307" ref="AG76"/>
-    <hyperlink r:id="rId308" ref="AH76"/>
-    <hyperlink r:id="rId309" ref="AI76"/>
-    <hyperlink r:id="rId310" ref="AJ76"/>
-    <hyperlink r:id="rId311" ref="AG77"/>
-    <hyperlink r:id="rId312" ref="AH77"/>
-    <hyperlink r:id="rId313" ref="AI77"/>
-    <hyperlink r:id="rId314" ref="AJ77"/>
-    <hyperlink r:id="rId315" ref="I78"/>
-    <hyperlink r:id="rId316" ref="J78"/>
-    <hyperlink r:id="rId317" ref="K78"/>
-    <hyperlink r:id="rId318" ref="Z78"/>
-    <hyperlink r:id="rId319" ref="AE78"/>
-    <hyperlink r:id="rId320" ref="AH78"/>
-    <hyperlink r:id="rId321" ref="AI78"/>
-    <hyperlink r:id="rId322" ref="AJ78"/>
-    <hyperlink r:id="rId323" ref="M79"/>
-    <hyperlink r:id="rId324" ref="R79"/>
-    <hyperlink r:id="rId325" ref="Z79"/>
-    <hyperlink r:id="rId326" ref="AE79"/>
-    <hyperlink r:id="rId327" ref="AG79"/>
-    <hyperlink r:id="rId328" ref="AH79"/>
-    <hyperlink r:id="rId329" ref="AI79"/>
-    <hyperlink r:id="rId330" ref="AJ79"/>
-    <hyperlink r:id="rId331" ref="Z80"/>
-    <hyperlink r:id="rId332" ref="AE80"/>
-    <hyperlink r:id="rId333" ref="AH80"/>
-    <hyperlink r:id="rId334" ref="AI80"/>
-    <hyperlink r:id="rId335" ref="AJ80"/>
+    <hyperlink r:id="rId204" ref="AF34"/>
+    <hyperlink r:id="rId205" ref="AG34"/>
+    <hyperlink r:id="rId206" ref="AI34"/>
+    <hyperlink r:id="rId207" ref="AJ34"/>
+    <hyperlink r:id="rId208" ref="AF35"/>
+    <hyperlink r:id="rId209" ref="AG35"/>
+    <hyperlink r:id="rId210" ref="AI35"/>
+    <hyperlink r:id="rId211" ref="AJ35"/>
+    <hyperlink r:id="rId212" ref="AF36"/>
+    <hyperlink r:id="rId213" ref="AG36"/>
+    <hyperlink r:id="rId214" ref="AI36"/>
+    <hyperlink r:id="rId215" ref="AJ36"/>
+    <hyperlink r:id="rId216" ref="AF37"/>
+    <hyperlink r:id="rId217" ref="AG37"/>
+    <hyperlink r:id="rId218" ref="AI37"/>
+    <hyperlink r:id="rId219" ref="AJ37"/>
+    <hyperlink r:id="rId220" ref="AF38"/>
+    <hyperlink r:id="rId221" ref="AG38"/>
+    <hyperlink r:id="rId222" ref="AI38"/>
+    <hyperlink r:id="rId223" ref="AJ38"/>
+    <hyperlink r:id="rId224" ref="AF39"/>
+    <hyperlink r:id="rId225" ref="AG39"/>
+    <hyperlink r:id="rId226" ref="AI39"/>
+    <hyperlink r:id="rId227" ref="AJ39"/>
+    <hyperlink r:id="rId228" ref="AJ40"/>
+    <hyperlink r:id="rId229" ref="K41"/>
+    <hyperlink r:id="rId230" ref="AJ41"/>
+    <hyperlink r:id="rId231" ref="K42"/>
+    <hyperlink r:id="rId232" ref="AF42"/>
+    <hyperlink r:id="rId233" ref="AG42"/>
+    <hyperlink r:id="rId234" ref="AH42"/>
+    <hyperlink r:id="rId235" ref="AI42"/>
+    <hyperlink r:id="rId236" ref="AJ42"/>
+    <hyperlink r:id="rId237" ref="AF43"/>
+    <hyperlink r:id="rId238" ref="AG43"/>
+    <hyperlink r:id="rId239" ref="AH43"/>
+    <hyperlink r:id="rId240" ref="AI43"/>
+    <hyperlink r:id="rId241" ref="AJ43"/>
+    <hyperlink r:id="rId242" ref="AI44"/>
+    <hyperlink r:id="rId243" ref="AJ44"/>
+    <hyperlink r:id="rId244" ref="AI45"/>
+    <hyperlink r:id="rId245" ref="AJ45"/>
+    <hyperlink r:id="rId246" ref="K46"/>
+    <hyperlink r:id="rId247" ref="AF46"/>
+    <hyperlink r:id="rId248" ref="AG46"/>
+    <hyperlink r:id="rId249" ref="AH46"/>
+    <hyperlink r:id="rId250" ref="AI46"/>
+    <hyperlink r:id="rId251" ref="AJ46"/>
+    <hyperlink r:id="rId252" ref="L47"/>
+    <hyperlink r:id="rId253" ref="Q47"/>
+    <hyperlink r:id="rId254" ref="AF47"/>
+    <hyperlink r:id="rId255" ref="AG47"/>
+    <hyperlink r:id="rId256" ref="AH47"/>
+    <hyperlink r:id="rId257" ref="AI47"/>
+    <hyperlink r:id="rId258" ref="AJ47"/>
+    <hyperlink r:id="rId259" ref="AF48"/>
+    <hyperlink r:id="rId260" ref="AG48"/>
+    <hyperlink r:id="rId261" ref="AH48"/>
+    <hyperlink r:id="rId262" ref="AI48"/>
+    <hyperlink r:id="rId263" ref="AJ48"/>
+    <hyperlink r:id="rId264" ref="AI49"/>
+    <hyperlink r:id="rId265" ref="AJ49"/>
+    <hyperlink r:id="rId266" ref="AI50"/>
+    <hyperlink r:id="rId267" ref="AJ50"/>
+    <hyperlink r:id="rId268" ref="AI51"/>
+    <hyperlink r:id="rId269" ref="AJ51"/>
+    <hyperlink r:id="rId270" ref="AI52"/>
+    <hyperlink r:id="rId271" ref="AJ52"/>
+    <hyperlink r:id="rId272" ref="AI53"/>
+    <hyperlink r:id="rId273" ref="AJ53"/>
+    <hyperlink r:id="rId274" ref="AI54"/>
+    <hyperlink r:id="rId275" ref="AJ54"/>
+    <hyperlink r:id="rId276" ref="AI55"/>
+    <hyperlink r:id="rId277" ref="AJ55"/>
+    <hyperlink r:id="rId278" ref="K56"/>
+    <hyperlink r:id="rId279" ref="AI56"/>
+    <hyperlink r:id="rId280" ref="AJ56"/>
+    <hyperlink r:id="rId281" ref="AI57"/>
+    <hyperlink r:id="rId282" ref="AJ57"/>
+    <hyperlink r:id="rId283" ref="K58"/>
+    <hyperlink r:id="rId284" ref="AI58"/>
+    <hyperlink r:id="rId285" ref="AJ58"/>
+    <hyperlink r:id="rId286" ref="AI59"/>
+    <hyperlink r:id="rId287" ref="AJ59"/>
+    <hyperlink r:id="rId288" ref="AI60"/>
+    <hyperlink r:id="rId289" ref="AJ60"/>
+    <hyperlink r:id="rId290" ref="AI61"/>
+    <hyperlink r:id="rId291" ref="AJ61"/>
+    <hyperlink r:id="rId292" ref="AI62"/>
+    <hyperlink r:id="rId293" ref="AJ62"/>
+    <hyperlink r:id="rId294" ref="AI63"/>
+    <hyperlink r:id="rId295" ref="AJ63"/>
+    <hyperlink r:id="rId296" ref="AI64"/>
+    <hyperlink r:id="rId297" ref="AJ64"/>
+    <hyperlink r:id="rId298" ref="AJ65"/>
+    <hyperlink r:id="rId299" ref="AJ66"/>
+    <hyperlink r:id="rId300" ref="AJ67"/>
+    <hyperlink r:id="rId301" ref="AJ68"/>
+    <hyperlink r:id="rId302" ref="AJ69"/>
+    <hyperlink r:id="rId303" ref="AF70"/>
+    <hyperlink r:id="rId304" ref="AG70"/>
+    <hyperlink r:id="rId305" ref="AH70"/>
+    <hyperlink r:id="rId306" ref="AI70"/>
+    <hyperlink r:id="rId307" ref="AJ70"/>
+    <hyperlink r:id="rId308" ref="AJ71"/>
+    <hyperlink r:id="rId309" ref="P72"/>
+    <hyperlink r:id="rId310" ref="U72"/>
+    <hyperlink r:id="rId311" ref="AJ72"/>
+    <hyperlink r:id="rId312" ref="AG73"/>
+    <hyperlink r:id="rId313" ref="AH73"/>
+    <hyperlink r:id="rId314" ref="AI73"/>
+    <hyperlink r:id="rId315" ref="AJ73"/>
+    <hyperlink r:id="rId316" ref="I74"/>
+    <hyperlink r:id="rId317" ref="J74"/>
+    <hyperlink r:id="rId318" ref="K74"/>
+    <hyperlink r:id="rId319" ref="AJ74"/>
+    <hyperlink r:id="rId320" ref="I75"/>
+    <hyperlink r:id="rId321" ref="J75"/>
+    <hyperlink r:id="rId322" ref="K75"/>
+    <hyperlink r:id="rId323" ref="AJ75"/>
+    <hyperlink r:id="rId324" ref="AF76"/>
+    <hyperlink r:id="rId325" ref="AG76"/>
+    <hyperlink r:id="rId326" ref="AH76"/>
+    <hyperlink r:id="rId327" ref="AI76"/>
+    <hyperlink r:id="rId328" ref="AJ76"/>
+    <hyperlink r:id="rId329" ref="AG77"/>
+    <hyperlink r:id="rId330" ref="AH77"/>
+    <hyperlink r:id="rId331" ref="AI77"/>
+    <hyperlink r:id="rId332" ref="AJ77"/>
+    <hyperlink r:id="rId333" ref="I78"/>
+    <hyperlink r:id="rId334" ref="J78"/>
+    <hyperlink r:id="rId335" ref="K78"/>
+    <hyperlink r:id="rId336" ref="Z78"/>
+    <hyperlink r:id="rId337" ref="AE78"/>
+    <hyperlink r:id="rId338" ref="AH78"/>
+    <hyperlink r:id="rId339" ref="AI78"/>
+    <hyperlink r:id="rId340" ref="AJ78"/>
+    <hyperlink r:id="rId341" ref="M79"/>
+    <hyperlink r:id="rId342" ref="R79"/>
+    <hyperlink r:id="rId343" ref="Z79"/>
+    <hyperlink r:id="rId344" ref="AE79"/>
+    <hyperlink r:id="rId345" ref="AG79"/>
+    <hyperlink r:id="rId346" ref="AH79"/>
+    <hyperlink r:id="rId347" ref="AI79"/>
+    <hyperlink r:id="rId348" ref="AJ79"/>
+    <hyperlink r:id="rId349" ref="Z80"/>
+    <hyperlink r:id="rId350" ref="AE80"/>
+    <hyperlink r:id="rId351" ref="AH80"/>
+    <hyperlink r:id="rId352" ref="AI80"/>
+    <hyperlink r:id="rId353" ref="AJ80"/>
   </hyperlinks>
-  <drawing r:id="rId336"/>
+  <drawing r:id="rId354"/>
 </worksheet>
 </file>
 
@@ -11720,28 +11834,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>35</v>
@@ -11750,16 +11864,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -11768,28 +11882,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2">
@@ -11808,7 +11922,7 @@
         <v>Daxingshan Temple</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="F2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Yanta_District","Yanta")</f>
@@ -11826,32 +11940,32 @@
         <v>57</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Chang%27an","Ch'ang-gan")</f>
         <v>Ch'ang-gan</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>53</v>
@@ -11894,10 +12008,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F3" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Longxi_County","Longxi")</f>
@@ -11915,40 +12029,40 @@
         <v>57</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>72</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>57</v>
@@ -11982,13 +12096,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Lanzhou","Lanzhou")</f>
@@ -12002,40 +12116,40 @@
         <v>57</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>57</v>
@@ -12073,7 +12187,7 @@
         <v>White Horse Temple</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Huzhu_Tu_Autonomous_County","Huzhu")</f>
@@ -12091,40 +12205,40 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>57</v>
@@ -12150,13 +12264,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Zhangye","Zhangye")</f>
@@ -12173,37 +12287,37 @@
         <v>117</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>123</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>57</v>
@@ -12233,7 +12347,7 @@
         <v>Leiyin Temple</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dunhuang","Dunhuang")</f>
@@ -12251,40 +12365,40 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>57</v>
@@ -12310,7 +12424,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="E8" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ruoqiang_Town","Ruoqiang")</f>
@@ -12332,40 +12446,40 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>57</v>
@@ -12375,7 +12489,7 @@
         <v>Shanshan</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
@@ -12394,7 +12508,7 @@
         <v>Subashi Temple</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kuqa_County","Kuqa")</f>
@@ -12412,40 +12526,40 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>57</v>
@@ -12455,12 +12569,12 @@
         <v>Kucha</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>197</v>
@@ -12474,7 +12588,7 @@
         <v>Melikawat</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Hotan","Hotan")</f>
@@ -12496,37 +12610,37 @@
         <v>Gomati</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>57</v>
@@ -12536,7 +12650,7 @@
         <v>Khotan</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
@@ -12551,7 +12665,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Tashkurgan")</f>
@@ -12573,76 +12687,76 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Sarikol")</f>
         <v>Sarikol</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -12651,16 +12765,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
@@ -12669,28 +12783,28 @@
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13">
@@ -12705,7 +12819,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E13" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gilgit","Gilgit")</f>
@@ -12727,55 +12841,55 @@
         <v>175</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="W13" s="22" t="str">
         <f t="shared" ref="W13:W14" si="7">HYPERLINK("https://en.wikipedia.org/wiki/Baloristan","Baloristan")</f>
         <v>Baloristan</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>231</v>
@@ -12785,7 +12899,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E14" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Skardu","Skardu")</f>
@@ -12807,50 +12921,50 @@
         <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W14" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Baloristan</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15">
@@ -12865,7 +12979,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Palas,_Khyber_Pakhtunkhwa","Palas?")</f>
@@ -12887,50 +13001,50 @@
         <v>175</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="W15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dardistan","Dardistan")</f>
         <v>Dardistan</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16">
@@ -12968,50 +13082,50 @@
         <v>175</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W16" s="22" t="str">
         <f t="shared" ref="W16:W17" si="11">HYPERLINK("https://en.wikipedia.org/wiki/Oddiyana","Oddiyana")</f>
         <v>Oddiyana</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17">
@@ -13049,50 +13163,50 @@
         <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W17" s="22" t="str">
         <f t="shared" si="11"/>
         <v>Oddiyana</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18">
@@ -13130,50 +13244,50 @@
         <v>175</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W18" s="22" t="str">
         <f t="shared" ref="W18:W20" si="12">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19">
@@ -13211,51 +13325,51 @@
         <v>175</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R19" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Taxila","Taxila")</f>
         <v>Taxila</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W19" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20">
@@ -13293,76 +13407,76 @@
         <v>175</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="W20" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -13371,16 +13485,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
@@ -13389,28 +13503,28 @@
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22">
@@ -13418,7 +13532,7 @@
         <v>176</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C22" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.36447187004159%2C70.47714034997773&amp;z=12","19")</f>
@@ -13433,10 +13547,10 @@
         <v>Jalalabad</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" ref="H22:H24" si="14">HYPERLINK("https://en.wikipedia.org/wiki/Nangarhar_Province","Nangarhar")</f>
@@ -13446,40 +13560,40 @@
         <v>226</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>266</v>
@@ -13489,7 +13603,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23">
@@ -13497,24 +13611,24 @@
         <v>176</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C23" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.411786302122465%2C70.4702738948996&amp;z=12","20")</f>
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13524,40 +13638,40 @@
         <v>226</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>266</v>
@@ -13567,7 +13681,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24">
@@ -13575,24 +13689,24 @@
         <v>176</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C24" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=34.46530150459222%2C70.54992477380586&amp;z=12","21")</f>
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13602,40 +13716,40 @@
         <v>226</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>266</v>
@@ -13645,7 +13759,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25">
@@ -13653,99 +13767,99 @@
         <v>182</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C25" s="14">
         <v>22.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>35</v>
@@ -13754,16 +13868,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>15</v>
@@ -13772,28 +13886,28 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27">
@@ -13801,14 +13915,14 @@
         <v>182</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C27" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.988315923725175%2C70.60313980066132&amp;z=12","23")</f>
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bannu","Bannu")</f>
@@ -13830,49 +13944,49 @@
         <v>175</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28">
@@ -13880,14 +13994,14 @@
         <v>190</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C28" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=32.48134397940673%2C72.8920924529076&amp;z=12","24")</f>
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E28" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bhera","Bhera")</f>
@@ -13909,37 +14023,37 @@
         <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>214</v>
@@ -13948,36 +14062,36 @@
         <v>266</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -13986,16 +14100,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>15</v>
@@ -14004,28 +14118,28 @@
         <v>36</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30">
@@ -14033,7 +14147,7 @@
         <v>197</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C30" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.494246295517122%2C77.66572232846681&amp;z=12","25")</f>
@@ -14063,49 +14177,49 @@
         <v>266</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31">
@@ -14113,14 +14227,14 @@
         <v>202</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.33006113726599%2C79.25747333120137&amp;z=12","26")</f>
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E31" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Sankassa","Sankassa")</f>
@@ -14142,49 +14256,49 @@
         <v>266</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32">
@@ -14192,14 +14306,14 @@
         <v>208</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C32" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.04900858535046%2C79.89687617923914&amp;z=12","27")</f>
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E32" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj","Kannauj")</f>
@@ -14221,40 +14335,40 @@
         <v>266</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>266</v>
@@ -14264,7 +14378,7 @@
         <v>Kanyakubja</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33">
@@ -14272,22 +14386,22 @@
         <v>208</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C33" s="14">
         <v>28.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H33" s="22" t="str">
         <f t="shared" si="16"/>
@@ -14297,49 +14411,49 @@
         <v>266</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34">
@@ -14347,14 +14461,14 @@
         <v>215</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C34" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.783630699664172%2C82.18445324595723&amp;z=12","29")</f>
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E34" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ayodhya","Ayodhya")</f>
@@ -14376,49 +14490,49 @@
         <v>266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35">
@@ -14426,7 +14540,7 @@
         <v>220</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C35" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.507304072925685%2C82.01523378327738&amp;z=12","30")</f>
@@ -14456,50 +14570,50 @@
         <v>266</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ref="O35:O36" si="20">HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36">
@@ -14507,17 +14621,17 @@
         <v>227</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C36" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.493788556662818%2C81.87964706678713&amp;z=12","31")</f>
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="F36" s="22" t="str">
         <f t="shared" si="18"/>
@@ -14535,76 +14649,76 @@
         <v>266</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>301</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" si="20"/>
         <v>Kosala</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>35</v>
@@ -14613,16 +14727,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>15</v>
@@ -14631,28 +14745,28 @@
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="38">
@@ -14660,14 +14774,14 @@
         <v>227</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C38" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.50397427851355%2C83.01952451857755&amp;z=12","32")</f>
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gotihawa","Gotihawa")</f>
@@ -14678,60 +14792,60 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H38" s="22" t="str">
         <f t="shared" ref="H38:H42" si="22">HYPERLINK("https://en.wikipedia.org/wiki/Province_No._5","Province No. 5")</f>
         <v>Province No. 5</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39">
@@ -14739,7 +14853,7 @@
         <v>227</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.59332346636215%2C83.07679240669472&amp;z=12","33")</f>
@@ -14758,59 +14872,59 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H39" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40">
@@ -14818,7 +14932,7 @@
         <v>231</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C40" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.565003085219224%2C83.03497404250334&amp;z=12","34")</f>
@@ -14837,60 +14951,60 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H40" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kapilavastu_(ancient_city)","Kapilavastu")</f>
         <v>Kapilavastu</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41">
@@ -14898,7 +15012,7 @@
         <v>231</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="C41" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","35")</f>
@@ -14917,59 +15031,59 @@
         <v>Rupandehi</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H41" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42">
@@ -14977,7 +15091,7 @@
         <v>235</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C42" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","36")</f>
@@ -14996,85 +15110,85 @@
         <v>Nawalparasi</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="H42" s="22" t="str">
         <f t="shared" si="22"/>
         <v>Province No. 5</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>35</v>
@@ -15083,16 +15197,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>15</v>
@@ -15101,28 +15215,28 @@
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44">
@@ -15130,7 +15244,7 @@
         <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C44" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.7430162374067%2C83.87320193640551&amp;z=12","37")</f>
@@ -15160,40 +15274,40 @@
         <v>266</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>266</v>
@@ -15212,17 +15326,17 @@
         <v>248</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="C45" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.014780548059537%2C85.09495798243438&amp;z=12","38")</f>
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="F45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_district","Vaishali")</f>
@@ -15240,41 +15354,41 @@
         <v>266</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_(ancient_city)","Vaishali")</f>
         <v>Vaishali</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>266</v>
@@ -15293,64 +15407,64 @@
         <v>253</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="C46" s="14">
         <v>39.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>266</v>
@@ -15369,7 +15483,7 @@
         <v>259</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="C47" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","40")</f>
@@ -15399,42 +15513,42 @@
         <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O47" s="22" t="str">
         <f t="shared" ref="O47:O62" si="29">HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>266</v>
@@ -15453,13 +15567,13 @@
         <v>259</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C48" s="14">
         <v>41.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E48" s="22" t="str">
         <f t="shared" si="25"/>
@@ -15481,41 +15595,41 @@
         <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O48" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>266</v>
@@ -15534,14 +15648,14 @@
         <v>267</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C49" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.021011866415765%2C85.4992275630334&amp;z=12","42")</f>
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Giriyak","Giriyak")</f>
@@ -15563,42 +15677,42 @@
         <v>266</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>HYPERLINK("https://www.jatland.com/home/Giryak","Giryek")</f>
         <v>Giryek</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O49" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>266</v>
@@ -15617,17 +15731,17 @@
         <v>267</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C50" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.146201055831895%2C85.42835071494505&amp;z=12","43")</f>
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F50" s="22" t="str">
         <f t="shared" si="30"/>
@@ -15645,42 +15759,42 @@
         <v>266</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nalanda","Nala")</f>
         <v>Nala</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O50" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>266</v>
@@ -15699,14 +15813,14 @@
         <v>267</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C51" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.018748635180835%2C85.4032881539099&amp;z=12","44")</f>
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E51" s="22" t="str">
         <f t="shared" ref="E51:E58" si="31">HYPERLINK("https://en.wikipedia.org/wiki/Rajgir","Rajgir")</f>
@@ -15728,41 +15842,41 @@
         <v>266</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O51" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>266</v>
@@ -15781,14 +15895,14 @@
         <v>274</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="C52" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.011304665466987%2C85.4332480868809&amp;z=12","45")</f>
         <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="E52" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15810,38 +15924,38 @@
         <v>266</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O52" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>266</v>
@@ -15860,7 +15974,7 @@
         <v>274</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="C53" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.005060701273067%2C85.43872566517189&amp;z=12","46")</f>
@@ -15890,41 +16004,41 @@
         <v>266</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O53" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>266</v>
@@ -15943,7 +16057,7 @@
         <v>279</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C54" s="14">
         <v>47.0</v>
@@ -15972,41 +16086,41 @@
         <v>266</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O54" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>266</v>
@@ -16025,13 +16139,13 @@
         <v>279</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="C55" s="14">
         <v>48.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E55" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16053,41 +16167,41 @@
         <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O55" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>266</v>
@@ -16106,13 +16220,13 @@
         <v>279</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C56" s="14">
         <v>48.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="E56" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16134,41 +16248,41 @@
         <v>266</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O56" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>266</v>
@@ -16187,7 +16301,7 @@
         <v>279</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="C57" s="14">
         <v>49.0</v>
@@ -16216,41 +16330,41 @@
         <v>266</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O57" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>266</v>
@@ -16269,13 +16383,13 @@
         <v>279</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="C58" s="14">
         <v>50.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E58" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16297,41 +16411,41 @@
         <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O58" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>266</v>
@@ -16350,14 +16464,14 @@
         <v>287</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="C59" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.78969479649287%2C84.98467590145651&amp;z=12","51")</f>
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gaya,_India","Gaya")</f>
@@ -16379,41 +16493,41 @@
         <v>266</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O59" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>266</v>
@@ -16432,7 +16546,7 @@
         <v>287</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C60" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.696962894699446%2C84.9659879247863&amp;z=12","52")</f>
@@ -16462,41 +16576,41 @@
         <v>266</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O60" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>266</v>
@@ -16515,7 +16629,7 @@
         <v>300</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="C61" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.548687563998897%2C85.2906752102283&amp;z=12","53")</f>
@@ -16526,7 +16640,7 @@
         <v>Gurpa Hill</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="F61" s="22" t="str">
         <f t="shared" si="32"/>
@@ -16544,38 +16658,38 @@
         <v>266</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O61" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>266</v>
@@ -16591,17 +16705,17 @@
     </row>
     <row r="62">
       <c r="A62" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="C62" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","54")</f>
         <v>54</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E62" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16623,42 +16737,42 @@
         <v>266</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O62" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>266</v>
@@ -16674,49 +16788,49 @@
     </row>
     <row r="63">
       <c r="A63" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C63" s="25">
         <v>55.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C64" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.311619542229757%2C82.96152352056333&amp;z=12","56")</f>
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E64" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Varanasi","Varanasi")</f>
@@ -16738,15 +16852,15 @@
         <v>266</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="C65" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.37185416787389%2C83.00546883306333&amp;z=12","57")</f>
@@ -16776,25 +16890,25 @@
         <v>266</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C66" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.340593900335598%2C81.36565102487407&amp;z=12","58")</f>
         <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="F66" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kaushambi_district","Kaushambi")</f>
@@ -16814,43 +16928,43 @@
     </row>
     <row r="67">
       <c r="A67" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C67" s="25">
         <v>59.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="8"/>
@@ -16866,17 +16980,17 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="C68" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","60")</f>
         <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16898,42 +17012,42 @@
         <v>266</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="O68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>460</v>
+        <v>376</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>266</v>
@@ -16949,20 +17063,20 @@
     </row>
     <row r="69">
       <c r="A69" s="13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C69" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.248716707163823%2C86.918446321582&amp;z=12","61")</f>
         <v>61</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="F69" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nathnagar_(Vidhan_Sabha_constituency)","Nathnagar")</f>
@@ -16980,22 +17094,22 @@
         <v>266</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C70" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=22.277762973128496%2C87.91568685806817&amp;z=12","62")</f>
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamluk","Tamluk")</f>
@@ -17027,28 +17141,28 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
@@ -17057,16 +17171,16 @@
         <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>15</v>
@@ -17075,28 +17189,28 @@
         <v>36</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72">
@@ -17112,7 +17226,7 @@
         <v>Anuradhapura</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73">

--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2393" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2445" uniqueCount="714">
   <si>
     <t>Google Maps</t>
   </si>
@@ -1103,6 +1103,15 @@
     <t>Bows and Weapons Laid Down Tope</t>
   </si>
   <si>
+    <t>26.023312741007707</t>
+  </si>
+  <si>
+    <t>85.09880473279387</t>
+  </si>
+  <si>
+    <t>This spot is about 1 mile, or 3 le North-east of Vaisal.</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -1169,10 +1178,16 @@
     <t>Indra-śila-guhâ</t>
   </si>
   <si>
-    <t>25.021011866415765</t>
-  </si>
-  <si>
-    <t>85.4992275630334</t>
+    <t>25.025133224661126</t>
+  </si>
+  <si>
+    <t>85.5130254891903</t>
+  </si>
+  <si>
+    <t>Giriyak</t>
+  </si>
+  <si>
+    <t>Nalanda</t>
   </si>
   <si>
     <t>49</t>
@@ -1187,6 +1202,15 @@
     <t>85.42835071494505</t>
   </si>
   <si>
+    <t>Baragong</t>
+  </si>
+  <si>
+    <t>Baragaon</t>
+  </si>
+  <si>
+    <t>This one is easy to find on Google Maps. Nalanda isn't exactly an obscure place.</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
@@ -1277,10 +1301,25 @@
     <t>85.41935425864358</t>
   </si>
   <si>
+    <t>Rajgir</t>
+  </si>
+  <si>
+    <t>The IndiaNetzone page for Venu Van confirms this is the correct location. Also the name is basically the same.</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
     <t>The Śmaśânam</t>
+  </si>
+  <si>
+    <t>25.02497490156906</t>
+  </si>
+  <si>
+    <t>85.41688677013526</t>
+  </si>
+  <si>
+    <t>This is just an approximate location based on the description of how to get to it from Karaṇḍa Veṇuvana. Two to three le is about two thirds to one mile. This area of Rajgir appears mostly residential on Google Maps. I selected a spot that appears to be sort of on the outskirts of town about three quarters of a mile from Karaṇḍa Veṇuvana.</t>
   </si>
   <si>
     <t>57</t>
@@ -1338,6 +1377,12 @@
     <t>84.98467590145651</t>
   </si>
   <si>
+    <t>Gaya</t>
+  </si>
+  <si>
+    <t>Magadh</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
@@ -1350,6 +1395,9 @@
     <t>84.9659879247863</t>
   </si>
   <si>
+    <t>Bodh Gaya</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
@@ -1362,6 +1410,9 @@
     <t>85.2906752102283</t>
   </si>
   <si>
+    <t>Kathautiya Kewa</t>
+  </si>
+  <si>
     <t>63</t>
   </si>
   <si>
@@ -1371,6 +1422,15 @@
     <t>"The Wilderness" Vihara</t>
   </si>
   <si>
+    <t>25.57543709280507</t>
+  </si>
+  <si>
+    <t>84.1978290182221</t>
+  </si>
+  <si>
+    <t>It's unlikely this is the spot since this temple looks newly constructed, but it's gotta be around here somewhere, halfwayish between Patna and Varanasi.</t>
+  </si>
+  <si>
     <t>65</t>
   </si>
   <si>
@@ -1386,6 +1446,9 @@
     <t>Kâśî</t>
   </si>
   <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
@@ -1398,6 +1461,9 @@
     <t>83.00546883306333</t>
   </si>
   <si>
+    <t>Sarnath</t>
+  </si>
+  <si>
     <t>67</t>
   </si>
   <si>
@@ -1419,9 +1485,18 @@
     <t>Where the Buddha Converted the Evil Demon</t>
   </si>
   <si>
+    <t>25.28580745113493</t>
+  </si>
+  <si>
+    <t>82.43217524183606</t>
+  </si>
+  <si>
     <t>Āḷavī</t>
   </si>
   <si>
+    <t>This is roughly 64 miles to the East of Kosambi. That's roughly eight yojanas. I can't find anything about any Buddhist ruins here, but odds are they're long long gone.</t>
+  </si>
+  <si>
     <t>69</t>
   </si>
   <si>
@@ -1437,10 +1512,22 @@
     <t>Champâ</t>
   </si>
   <si>
-    <t>25.248716707163823</t>
-  </si>
-  <si>
-    <t>86.918446321582</t>
+    <t>25.237406110209825</t>
+  </si>
+  <si>
+    <t>86.9417017601387</t>
+  </si>
+  <si>
+    <t>Champanagur</t>
+  </si>
+  <si>
+    <t>Champapuri</t>
+  </si>
+  <si>
+    <t>Bhagalpur</t>
+  </si>
+  <si>
+    <t>The Wikipedia entry for Champapuri clearly identifies the location or Champa. The footnote has the wrong longitude. The correct coordinates are 25° 14' N., 56° 55' E..</t>
   </si>
   <si>
     <t>71</t>
@@ -1458,6 +1545,21 @@
     <t>87.91568685806817</t>
   </si>
   <si>
+    <t>Tam-look</t>
+  </si>
+  <si>
+    <t>Tamluk</t>
+  </si>
+  <si>
+    <t>Purba Medinipur</t>
+  </si>
+  <si>
+    <t>Medinipur</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
+  </si>
+  <si>
     <t>72</t>
   </si>
   <si>
@@ -1980,9 +2082,6 @@
     <t>Bargaon</t>
   </si>
   <si>
-    <t>Baragong</t>
-  </si>
-  <si>
     <t>Râjagṛiha</t>
   </si>
   <si>
@@ -2008,9 +2107,6 @@
   </si>
   <si>
     <t>87</t>
-  </si>
-  <si>
-    <t>Gaya</t>
   </si>
   <si>
     <t>88</t>
@@ -5102,10 +5198,10 @@
         <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>49</v>
@@ -5128,25 +5224,31 @@
       <c r="AP45" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ45" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AR45" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>49</v>
@@ -5155,7 +5257,7 @@
         <v>49</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>49</v>
@@ -5218,10 +5320,10 @@
         <v>49</v>
       </c>
       <c r="AF46" s="5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG46" s="5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AH46" s="5" t="s">
         <v>273</v>
@@ -5248,42 +5350,42 @@
         <v>97.0</v>
       </c>
       <c r="AR46" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF47" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG47" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AH47" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AI47" s="5" t="s">
         <v>356</v>
@@ -5307,36 +5409,36 @@
         <v>99.0</v>
       </c>
       <c r="AR47" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF48" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF48" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="AG48" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AH48" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AI48" s="5" t="s">
         <v>356</v>
@@ -5360,27 +5462,36 @@
         <v>10.0</v>
       </c>
       <c r="AR48" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF49" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG49" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH49" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="AI49" s="5" t="s">
         <v>356</v>
@@ -5403,22 +5514,34 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF50" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG50" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH50" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="AI50" s="5" t="s">
         <v>356</v>
@@ -5438,28 +5561,34 @@
       <c r="AP50" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ50" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="AI51" s="5" t="s">
         <v>356</v>
@@ -5482,19 +5611,19 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>49</v>
@@ -5520,28 +5649,28 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AI53" s="5" t="s">
         <v>356</v>
@@ -5564,28 +5693,28 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AI54" s="5" t="s">
         <v>356</v>
@@ -5608,19 +5737,19 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>49</v>
@@ -5647,33 +5776,42 @@
         <v>90.0</v>
       </c>
       <c r="AR55" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>418</v>
+        <v>426</v>
+      </c>
+      <c r="AF56" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG56" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH56" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="AI56" s="5" t="s">
         <v>356</v>
@@ -5693,25 +5831,40 @@
       <c r="AP56" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ56" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="AR56" s="2" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>49</v>
+        <v>433</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>49</v>
+        <v>434</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF57" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AG57" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH57" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="AI57" s="5" t="s">
         <v>356</v>
@@ -5731,28 +5884,34 @@
       <c r="AP57" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ57" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="AR57" s="2" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="AI58" s="5" t="s">
         <v>356</v>
@@ -5775,19 +5934,19 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>49</v>
@@ -5813,19 +5972,19 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>49</v>
@@ -5852,27 +6011,36 @@
         <v>60.0</v>
       </c>
       <c r="AR60" s="4" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF61" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG61" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH61" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="AI61" s="5" t="s">
         <v>356</v>
@@ -5899,22 +6067,31 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF62" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG62" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH62" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="AI62" s="5" t="s">
         <v>356</v>
@@ -5941,22 +6118,31 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF63" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG63" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH63" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="AI63" s="5" t="s">
         <v>356</v>
@@ -5979,22 +6165,31 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF64" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AG64" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH64" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="AI64" s="5" t="s">
         <v>356</v>
@@ -6017,19 +6212,19 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>49</v>
+        <v>469</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>49</v>
+        <v>470</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>49</v>
@@ -6049,28 +6244,46 @@
       <c r="AP65" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ65" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AR65" s="2" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>456</v>
+        <v>476</v>
+      </c>
+      <c r="AF66" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG66" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH66" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI66" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="AJ66" s="5" t="s">
         <v>266</v>
@@ -6090,22 +6303,34 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AF67" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="AG67" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AH67" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AI67" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="AJ67" s="5" t="s">
         <v>266</v>
@@ -6125,25 +6350,25 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="AJ68" s="5" t="s">
         <v>266</v>
@@ -6163,22 +6388,22 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>49</v>
+        <v>490</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>49</v>
+        <v>491</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>49</v>
@@ -6187,7 +6412,7 @@
         <v>49</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="AJ69" s="5" t="s">
         <v>266</v>
@@ -6204,34 +6429,40 @@
       <c r="AP69" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ69" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AR69" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>470</v>
+        <v>495</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF70" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AG70" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AH70" s="5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AI70" s="5" t="s">
         <v>356</v>
@@ -6256,22 +6487,37 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="AA71" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF71" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG71" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AH71" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="AI71" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="AJ71" s="5" t="s">
         <v>266</v>
@@ -6288,34 +6534,55 @@
       <c r="AP71" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="AQ71" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="AR71" s="2" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>49</v>
       </c>
       <c r="P72" s="5" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>478</v>
+        <v>507</v>
+      </c>
+      <c r="AA72" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AF72" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AG72" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="AH72" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="AI72" s="5" t="s">
+        <v>514</v>
       </c>
       <c r="AJ72" s="5" t="s">
         <v>266</v>
@@ -6335,40 +6602,40 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="AG73" s="5" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="AH73" s="5" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="AI73" s="5" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="AM73" s="2">
         <v>38.0</v>
@@ -6385,34 +6652,34 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="AM74" s="2">
         <v>38.0</v>
@@ -6429,34 +6696,34 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="AJ75" s="5" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="AM75" s="2">
         <v>39.0</v>
@@ -6474,42 +6741,42 @@
         <v>99.0</v>
       </c>
       <c r="AR75" s="2" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>49</v>
       </c>
       <c r="AF76" s="5" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="AG76" s="5" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="AH76" s="5" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="AI76" s="5" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="AJ76" s="5" t="s">
         <v>266</v>
@@ -6536,27 +6803,27 @@
         <v>1.0</v>
       </c>
       <c r="AR76" s="2" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>49</v>
@@ -6565,16 +6832,16 @@
         <v>49</v>
       </c>
       <c r="AG77" s="5" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="AH77" s="5" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="AI77" s="5" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="AK77" s="2" t="s">
         <v>49</v>
@@ -6598,48 +6865,48 @@
         <v>35.0</v>
       </c>
       <c r="AR77" s="2" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="Z78" s="5" t="s">
         <v>57</v>
@@ -6647,11 +6914,17 @@
       <c r="AE78" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="AF78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG78" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="AH78" s="5" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="AI78" s="5" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="AJ78" s="5" t="s">
         <v>57</v>
@@ -6674,37 +6947,37 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="M79" s="5" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="Z79" s="5" t="s">
         <v>57</v>
@@ -6716,13 +6989,13 @@
         <v>49</v>
       </c>
       <c r="AG79" s="5" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="AH79" s="5" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="AI79" s="5" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="AJ79" s="5" t="s">
         <v>57</v>
@@ -6743,27 +7016,27 @@
         <v>99.0</v>
       </c>
       <c r="AR79" s="2" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>49</v>
@@ -6781,10 +7054,10 @@
         <v>49</v>
       </c>
       <c r="AH80" s="5" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="AI80" s="5" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="AJ80" s="5" t="s">
         <v>57</v>
@@ -6805,7 +7078,7 @@
         <v>99.0</v>
       </c>
       <c r="AR80" s="2" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
     </row>
     <row r="81">
@@ -11698,98 +11971,138 @@
     <hyperlink r:id="rId261" ref="AH48"/>
     <hyperlink r:id="rId262" ref="AI48"/>
     <hyperlink r:id="rId263" ref="AJ48"/>
-    <hyperlink r:id="rId264" ref="AI49"/>
-    <hyperlink r:id="rId265" ref="AJ49"/>
-    <hyperlink r:id="rId266" ref="AI50"/>
-    <hyperlink r:id="rId267" ref="AJ50"/>
-    <hyperlink r:id="rId268" ref="AI51"/>
-    <hyperlink r:id="rId269" ref="AJ51"/>
-    <hyperlink r:id="rId270" ref="AI52"/>
-    <hyperlink r:id="rId271" ref="AJ52"/>
-    <hyperlink r:id="rId272" ref="AI53"/>
-    <hyperlink r:id="rId273" ref="AJ53"/>
-    <hyperlink r:id="rId274" ref="AI54"/>
-    <hyperlink r:id="rId275" ref="AJ54"/>
-    <hyperlink r:id="rId276" ref="AI55"/>
-    <hyperlink r:id="rId277" ref="AJ55"/>
-    <hyperlink r:id="rId278" ref="K56"/>
-    <hyperlink r:id="rId279" ref="AI56"/>
-    <hyperlink r:id="rId280" ref="AJ56"/>
-    <hyperlink r:id="rId281" ref="AI57"/>
-    <hyperlink r:id="rId282" ref="AJ57"/>
-    <hyperlink r:id="rId283" ref="K58"/>
-    <hyperlink r:id="rId284" ref="AI58"/>
-    <hyperlink r:id="rId285" ref="AJ58"/>
-    <hyperlink r:id="rId286" ref="AI59"/>
-    <hyperlink r:id="rId287" ref="AJ59"/>
-    <hyperlink r:id="rId288" ref="AI60"/>
-    <hyperlink r:id="rId289" ref="AJ60"/>
-    <hyperlink r:id="rId290" ref="AI61"/>
-    <hyperlink r:id="rId291" ref="AJ61"/>
-    <hyperlink r:id="rId292" ref="AI62"/>
-    <hyperlink r:id="rId293" ref="AJ62"/>
-    <hyperlink r:id="rId294" ref="AI63"/>
-    <hyperlink r:id="rId295" ref="AJ63"/>
-    <hyperlink r:id="rId296" ref="AI64"/>
-    <hyperlink r:id="rId297" ref="AJ64"/>
-    <hyperlink r:id="rId298" ref="AJ65"/>
-    <hyperlink r:id="rId299" ref="AJ66"/>
-    <hyperlink r:id="rId300" ref="AJ67"/>
-    <hyperlink r:id="rId301" ref="AJ68"/>
-    <hyperlink r:id="rId302" ref="AJ69"/>
-    <hyperlink r:id="rId303" ref="AF70"/>
-    <hyperlink r:id="rId304" ref="AG70"/>
-    <hyperlink r:id="rId305" ref="AH70"/>
-    <hyperlink r:id="rId306" ref="AI70"/>
-    <hyperlink r:id="rId307" ref="AJ70"/>
-    <hyperlink r:id="rId308" ref="AJ71"/>
-    <hyperlink r:id="rId309" ref="P72"/>
-    <hyperlink r:id="rId310" ref="U72"/>
-    <hyperlink r:id="rId311" ref="AJ72"/>
-    <hyperlink r:id="rId312" ref="AG73"/>
-    <hyperlink r:id="rId313" ref="AH73"/>
-    <hyperlink r:id="rId314" ref="AI73"/>
-    <hyperlink r:id="rId315" ref="AJ73"/>
-    <hyperlink r:id="rId316" ref="I74"/>
-    <hyperlink r:id="rId317" ref="J74"/>
-    <hyperlink r:id="rId318" ref="K74"/>
-    <hyperlink r:id="rId319" ref="AJ74"/>
-    <hyperlink r:id="rId320" ref="I75"/>
-    <hyperlink r:id="rId321" ref="J75"/>
-    <hyperlink r:id="rId322" ref="K75"/>
-    <hyperlink r:id="rId323" ref="AJ75"/>
-    <hyperlink r:id="rId324" ref="AF76"/>
-    <hyperlink r:id="rId325" ref="AG76"/>
-    <hyperlink r:id="rId326" ref="AH76"/>
-    <hyperlink r:id="rId327" ref="AI76"/>
-    <hyperlink r:id="rId328" ref="AJ76"/>
-    <hyperlink r:id="rId329" ref="AG77"/>
-    <hyperlink r:id="rId330" ref="AH77"/>
-    <hyperlink r:id="rId331" ref="AI77"/>
-    <hyperlink r:id="rId332" ref="AJ77"/>
-    <hyperlink r:id="rId333" ref="I78"/>
-    <hyperlink r:id="rId334" ref="J78"/>
-    <hyperlink r:id="rId335" ref="K78"/>
-    <hyperlink r:id="rId336" ref="Z78"/>
-    <hyperlink r:id="rId337" ref="AE78"/>
-    <hyperlink r:id="rId338" ref="AH78"/>
-    <hyperlink r:id="rId339" ref="AI78"/>
-    <hyperlink r:id="rId340" ref="AJ78"/>
-    <hyperlink r:id="rId341" ref="M79"/>
-    <hyperlink r:id="rId342" ref="R79"/>
-    <hyperlink r:id="rId343" ref="Z79"/>
-    <hyperlink r:id="rId344" ref="AE79"/>
-    <hyperlink r:id="rId345" ref="AG79"/>
-    <hyperlink r:id="rId346" ref="AH79"/>
-    <hyperlink r:id="rId347" ref="AI79"/>
-    <hyperlink r:id="rId348" ref="AJ79"/>
-    <hyperlink r:id="rId349" ref="Z80"/>
-    <hyperlink r:id="rId350" ref="AE80"/>
-    <hyperlink r:id="rId351" ref="AH80"/>
-    <hyperlink r:id="rId352" ref="AI80"/>
-    <hyperlink r:id="rId353" ref="AJ80"/>
+    <hyperlink r:id="rId264" ref="AF49"/>
+    <hyperlink r:id="rId265" ref="AG49"/>
+    <hyperlink r:id="rId266" ref="AH49"/>
+    <hyperlink r:id="rId267" ref="AI49"/>
+    <hyperlink r:id="rId268" ref="AJ49"/>
+    <hyperlink r:id="rId269" ref="AF50"/>
+    <hyperlink r:id="rId270" ref="AG50"/>
+    <hyperlink r:id="rId271" ref="AH50"/>
+    <hyperlink r:id="rId272" ref="AI50"/>
+    <hyperlink r:id="rId273" ref="AJ50"/>
+    <hyperlink r:id="rId274" ref="AI51"/>
+    <hyperlink r:id="rId275" ref="AJ51"/>
+    <hyperlink r:id="rId276" ref="AI52"/>
+    <hyperlink r:id="rId277" ref="AJ52"/>
+    <hyperlink r:id="rId278" ref="AI53"/>
+    <hyperlink r:id="rId279" ref="AJ53"/>
+    <hyperlink r:id="rId280" ref="AI54"/>
+    <hyperlink r:id="rId281" ref="AJ54"/>
+    <hyperlink r:id="rId282" ref="AI55"/>
+    <hyperlink r:id="rId283" ref="AJ55"/>
+    <hyperlink r:id="rId284" ref="K56"/>
+    <hyperlink r:id="rId285" ref="AF56"/>
+    <hyperlink r:id="rId286" ref="AG56"/>
+    <hyperlink r:id="rId287" ref="AH56"/>
+    <hyperlink r:id="rId288" ref="AI56"/>
+    <hyperlink r:id="rId289" ref="AJ56"/>
+    <hyperlink r:id="rId290" ref="AF57"/>
+    <hyperlink r:id="rId291" ref="AG57"/>
+    <hyperlink r:id="rId292" ref="AH57"/>
+    <hyperlink r:id="rId293" ref="AI57"/>
+    <hyperlink r:id="rId294" ref="AJ57"/>
+    <hyperlink r:id="rId295" ref="K58"/>
+    <hyperlink r:id="rId296" ref="AI58"/>
+    <hyperlink r:id="rId297" ref="AJ58"/>
+    <hyperlink r:id="rId298" ref="AI59"/>
+    <hyperlink r:id="rId299" ref="AJ59"/>
+    <hyperlink r:id="rId300" ref="AI60"/>
+    <hyperlink r:id="rId301" ref="AJ60"/>
+    <hyperlink r:id="rId302" ref="AF61"/>
+    <hyperlink r:id="rId303" ref="AG61"/>
+    <hyperlink r:id="rId304" ref="AH61"/>
+    <hyperlink r:id="rId305" ref="AI61"/>
+    <hyperlink r:id="rId306" ref="AJ61"/>
+    <hyperlink r:id="rId307" ref="AF62"/>
+    <hyperlink r:id="rId308" ref="AG62"/>
+    <hyperlink r:id="rId309" ref="AH62"/>
+    <hyperlink r:id="rId310" ref="AI62"/>
+    <hyperlink r:id="rId311" ref="AJ62"/>
+    <hyperlink r:id="rId312" ref="AF63"/>
+    <hyperlink r:id="rId313" ref="AG63"/>
+    <hyperlink r:id="rId314" ref="AH63"/>
+    <hyperlink r:id="rId315" ref="AI63"/>
+    <hyperlink r:id="rId316" ref="AJ63"/>
+    <hyperlink r:id="rId317" ref="AF64"/>
+    <hyperlink r:id="rId318" ref="AG64"/>
+    <hyperlink r:id="rId319" ref="AH64"/>
+    <hyperlink r:id="rId320" ref="AI64"/>
+    <hyperlink r:id="rId321" ref="AJ64"/>
+    <hyperlink r:id="rId322" ref="AJ65"/>
+    <hyperlink r:id="rId323" ref="AF66"/>
+    <hyperlink r:id="rId324" ref="AG66"/>
+    <hyperlink r:id="rId325" ref="AH66"/>
+    <hyperlink r:id="rId326" ref="AI66"/>
+    <hyperlink r:id="rId327" ref="AJ66"/>
+    <hyperlink r:id="rId328" ref="AF67"/>
+    <hyperlink r:id="rId329" ref="AG67"/>
+    <hyperlink r:id="rId330" ref="AH67"/>
+    <hyperlink r:id="rId331" ref="AI67"/>
+    <hyperlink r:id="rId332" ref="AJ67"/>
+    <hyperlink r:id="rId333" ref="AJ68"/>
+    <hyperlink r:id="rId334" ref="AJ69"/>
+    <hyperlink r:id="rId335" ref="AF70"/>
+    <hyperlink r:id="rId336" ref="AG70"/>
+    <hyperlink r:id="rId337" ref="AH70"/>
+    <hyperlink r:id="rId338" ref="AI70"/>
+    <hyperlink r:id="rId339" ref="AJ70"/>
+    <hyperlink r:id="rId340" ref="AF71"/>
+    <hyperlink r:id="rId341" ref="AG71"/>
+    <hyperlink r:id="rId342" ref="AH71"/>
+    <hyperlink r:id="rId343" ref="AI71"/>
+    <hyperlink r:id="rId344" ref="AJ71"/>
+    <hyperlink r:id="rId345" ref="P72"/>
+    <hyperlink r:id="rId346" ref="U72"/>
+    <hyperlink r:id="rId347" ref="AF72"/>
+    <hyperlink r:id="rId348" ref="AG72"/>
+    <hyperlink r:id="rId349" ref="AH72"/>
+    <hyperlink r:id="rId350" ref="AI72"/>
+    <hyperlink r:id="rId351" ref="AJ72"/>
+    <hyperlink r:id="rId352" ref="AG73"/>
+    <hyperlink r:id="rId353" ref="AH73"/>
+    <hyperlink r:id="rId354" ref="AI73"/>
+    <hyperlink r:id="rId355" ref="AJ73"/>
+    <hyperlink r:id="rId356" ref="I74"/>
+    <hyperlink r:id="rId357" ref="J74"/>
+    <hyperlink r:id="rId358" ref="K74"/>
+    <hyperlink r:id="rId359" ref="AJ74"/>
+    <hyperlink r:id="rId360" ref="I75"/>
+    <hyperlink r:id="rId361" ref="J75"/>
+    <hyperlink r:id="rId362" ref="K75"/>
+    <hyperlink r:id="rId363" ref="AJ75"/>
+    <hyperlink r:id="rId364" ref="AF76"/>
+    <hyperlink r:id="rId365" ref="AG76"/>
+    <hyperlink r:id="rId366" ref="AH76"/>
+    <hyperlink r:id="rId367" ref="AI76"/>
+    <hyperlink r:id="rId368" ref="AJ76"/>
+    <hyperlink r:id="rId369" ref="AG77"/>
+    <hyperlink r:id="rId370" ref="AH77"/>
+    <hyperlink r:id="rId371" ref="AI77"/>
+    <hyperlink r:id="rId372" ref="AJ77"/>
+    <hyperlink r:id="rId373" ref="I78"/>
+    <hyperlink r:id="rId374" ref="J78"/>
+    <hyperlink r:id="rId375" ref="K78"/>
+    <hyperlink r:id="rId376" ref="Z78"/>
+    <hyperlink r:id="rId377" ref="AE78"/>
+    <hyperlink r:id="rId378" ref="AH78"/>
+    <hyperlink r:id="rId379" ref="AI78"/>
+    <hyperlink r:id="rId380" ref="AJ78"/>
+    <hyperlink r:id="rId381" ref="M79"/>
+    <hyperlink r:id="rId382" ref="R79"/>
+    <hyperlink r:id="rId383" ref="Z79"/>
+    <hyperlink r:id="rId384" ref="AE79"/>
+    <hyperlink r:id="rId385" ref="AG79"/>
+    <hyperlink r:id="rId386" ref="AH79"/>
+    <hyperlink r:id="rId387" ref="AI79"/>
+    <hyperlink r:id="rId388" ref="AJ79"/>
+    <hyperlink r:id="rId389" ref="Z80"/>
+    <hyperlink r:id="rId390" ref="AE80"/>
+    <hyperlink r:id="rId391" ref="AH80"/>
+    <hyperlink r:id="rId392" ref="AI80"/>
+    <hyperlink r:id="rId393" ref="AJ80"/>
   </hyperlinks>
-  <drawing r:id="rId354"/>
+  <drawing r:id="rId394"/>
 </worksheet>
 </file>
 
@@ -11834,28 +12147,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>35</v>
@@ -11864,16 +12177,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -11882,28 +12195,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2">
@@ -11922,7 +12235,7 @@
         <v>Daxingshan Temple</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="F2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Yanta_District","Yanta")</f>
@@ -11940,32 +12253,32 @@
         <v>57</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L2" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Chang%27an","Ch'ang-gan")</f>
         <v>Ch'ang-gan</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S2" s="19" t="s">
         <v>53</v>
@@ -12008,10 +12321,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F3" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Longxi_County","Longxi")</f>
@@ -12029,40 +12342,40 @@
         <v>57</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="Q3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S3" s="19" t="s">
         <v>72</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U3" s="19" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>57</v>
@@ -12096,13 +12409,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G4" s="17" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Lanzhou","Lanzhou")</f>
@@ -12116,40 +12429,40 @@
         <v>57</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="19" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>57</v>
@@ -12187,7 +12500,7 @@
         <v>White Horse Temple</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Huzhu_Tu_Autonomous_County","Huzhu")</f>
@@ -12205,40 +12518,40 @@
         <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>57</v>
@@ -12264,13 +12577,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Zhangye","Zhangye")</f>
@@ -12287,37 +12600,37 @@
         <v>117</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>123</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>57</v>
@@ -12347,7 +12660,7 @@
         <v>Leiyin Temple</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F7" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dunhuang","Dunhuang")</f>
@@ -12365,40 +12678,40 @@
         <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>57</v>
@@ -12424,7 +12737,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="E8" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ruoqiang_Town","Ruoqiang")</f>
@@ -12446,40 +12759,40 @@
         <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>57</v>
@@ -12489,7 +12802,7 @@
         <v>Shanshan</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
@@ -12508,7 +12821,7 @@
         <v>Subashi Temple</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F9" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kuqa_County","Kuqa")</f>
@@ -12526,40 +12839,40 @@
         <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>57</v>
@@ -12569,12 +12882,12 @@
         <v>Kucha</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>197</v>
@@ -12588,7 +12901,7 @@
         <v>Melikawat</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F10" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Hotan","Hotan")</f>
@@ -12610,37 +12923,37 @@
         <v>Gomati</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>57</v>
@@ -12650,7 +12963,7 @@
         <v>Khotan</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11">
@@ -12665,7 +12978,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Tashkurgan")</f>
@@ -12687,76 +13000,76 @@
         <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>163</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W11" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Sarikol")</f>
         <v>Sarikol</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -12765,16 +13078,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
@@ -12783,28 +13096,28 @@
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13">
@@ -12819,7 +13132,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E13" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gilgit","Gilgit")</f>
@@ -12841,55 +13154,55 @@
         <v>175</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>170</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="W13" s="22" t="str">
         <f t="shared" ref="W13:W14" si="7">HYPERLINK("https://en.wikipedia.org/wiki/Baloristan","Baloristan")</f>
         <v>Baloristan</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>231</v>
@@ -12899,7 +13212,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E14" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Skardu","Skardu")</f>
@@ -12921,50 +13234,50 @@
         <v>175</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R14" s="24" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W14" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Baloristan</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15">
@@ -12979,7 +13292,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Palas,_Khyber_Pakhtunkhwa","Palas?")</f>
@@ -13001,50 +13314,50 @@
         <v>175</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="W15" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dardistan","Dardistan")</f>
         <v>Dardistan</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16">
@@ -13082,50 +13395,50 @@
         <v>175</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W16" s="22" t="str">
         <f t="shared" ref="W16:W17" si="11">HYPERLINK("https://en.wikipedia.org/wiki/Oddiyana","Oddiyana")</f>
         <v>Oddiyana</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17">
@@ -13163,50 +13476,50 @@
         <v>175</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W17" s="22" t="str">
         <f t="shared" si="11"/>
         <v>Oddiyana</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18">
@@ -13244,50 +13557,50 @@
         <v>175</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W18" s="22" t="str">
         <f t="shared" ref="W18:W20" si="12">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19">
@@ -13325,51 +13638,51 @@
         <v>175</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R19" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Taxila","Taxila")</f>
         <v>Taxila</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W19" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20">
@@ -13407,76 +13720,76 @@
         <v>175</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>216</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="W20" s="22" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -13485,16 +13798,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
@@ -13503,28 +13816,28 @@
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="22">
@@ -13547,10 +13860,10 @@
         <v>Jalalabad</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" ref="H22:H24" si="14">HYPERLINK("https://en.wikipedia.org/wiki/Nangarhar_Province","Nangarhar")</f>
@@ -13560,40 +13873,40 @@
         <v>226</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>221</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>266</v>
@@ -13603,7 +13916,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="23">
@@ -13618,17 +13931,17 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13638,40 +13951,40 @@
         <v>226</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>266</v>
@@ -13681,7 +13994,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24">
@@ -13696,17 +14009,17 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="14"/>
@@ -13716,40 +14029,40 @@
         <v>226</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>266</v>
@@ -13759,7 +14072,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
@@ -13773,93 +14086,93 @@
         <v>22.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>35</v>
@@ -13868,16 +14181,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>15</v>
@@ -13886,28 +14199,28 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27">
@@ -13922,7 +14235,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bannu","Bannu")</f>
@@ -13944,49 +14257,49 @@
         <v>175</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>226</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="28">
@@ -14001,7 +14314,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E28" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bhera","Bhera")</f>
@@ -14023,37 +14336,37 @@
         <v>175</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>214</v>
@@ -14062,36 +14375,36 @@
         <v>266</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -14100,16 +14413,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>15</v>
@@ -14118,28 +14431,28 @@
         <v>36</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30">
@@ -14177,49 +14490,49 @@
         <v>266</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31">
@@ -14227,14 +14540,14 @@
         <v>202</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C31" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.33006113726599%2C79.25747333120137&amp;z=12","26")</f>
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="E31" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Sankassa","Sankassa")</f>
@@ -14256,49 +14569,49 @@
         <v>266</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32">
@@ -14306,14 +14619,14 @@
         <v>208</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C32" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.04900858535046%2C79.89687617923914&amp;z=12","27")</f>
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E32" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj","Kannauj")</f>
@@ -14335,40 +14648,40 @@
         <v>266</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>266</v>
@@ -14378,7 +14691,7 @@
         <v>Kanyakubja</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="33">
@@ -14386,22 +14699,22 @@
         <v>208</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C33" s="14">
         <v>28.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="H33" s="22" t="str">
         <f t="shared" si="16"/>
@@ -14411,49 +14724,49 @@
         <v>266</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34">
@@ -14461,14 +14774,14 @@
         <v>215</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C34" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.783630699664172%2C82.18445324595723&amp;z=12","29")</f>
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E34" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ayodhya","Ayodhya")</f>
@@ -14490,49 +14803,49 @@
         <v>266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35">
@@ -14540,7 +14853,7 @@
         <v>220</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C35" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.507304072925685%2C82.01523378327738&amp;z=12","30")</f>
@@ -14570,50 +14883,50 @@
         <v>266</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ref="O35:O36" si="20">HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36">
@@ -14621,17 +14934,17 @@
         <v>227</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="C36" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.493788556662818%2C81.87964706678713&amp;z=12","31")</f>
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="F36" s="22" t="str">
         <f t="shared" si="18"/>
@@ -14649,76 +14962,76 @@
         <v>266</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>301</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" si="20"/>
         <v>Kosala</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>266</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>35</v>
@@ -14727,16 +15040,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>15</v>
@@ -14745,28 +15058,28 @@
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38">
@@ -14774,14 +15087,14 @@
         <v>227</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C38" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.50397427851355%2C83.01952451857755&amp;z=12","32")</f>
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gotihawa","Gotihawa")</f>
@@ -14792,7 +15105,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H38" s="22" t="str">
         <f t="shared" ref="H38:H42" si="22">HYPERLINK("https://en.wikipedia.org/wiki/Province_No._5","Province No. 5")</f>
@@ -14802,50 +15115,50 @@
         <v>313</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39">
@@ -14853,7 +15166,7 @@
         <v>227</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C39" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.59332346636215%2C83.07679240669472&amp;z=12","33")</f>
@@ -14872,7 +15185,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H39" s="22" t="str">
         <f t="shared" si="22"/>
@@ -14882,49 +15195,49 @@
         <v>313</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40">
@@ -14932,7 +15245,7 @@
         <v>231</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C40" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.565003085219224%2C83.03497404250334&amp;z=12","34")</f>
@@ -14951,7 +15264,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H40" s="22" t="str">
         <f t="shared" si="22"/>
@@ -14961,50 +15274,50 @@
         <v>313</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kapilavastu_(ancient_city)","Kapilavastu")</f>
         <v>Kapilavastu</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41">
@@ -15012,7 +15325,7 @@
         <v>231</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="C41" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","35")</f>
@@ -15031,7 +15344,7 @@
         <v>Rupandehi</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H41" s="22" t="str">
         <f t="shared" si="22"/>
@@ -15041,49 +15354,49 @@
         <v>313</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>312</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42">
@@ -15091,7 +15404,7 @@
         <v>235</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="C42" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=27.46739298855394%2C83.26571753232031&amp;z=12","36")</f>
@@ -15110,7 +15423,7 @@
         <v>Nawalparasi</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H42" s="22" t="str">
         <f t="shared" si="22"/>
@@ -15120,75 +15433,75 @@
         <v>313</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>313</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>35</v>
@@ -15197,16 +15510,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>15</v>
@@ -15215,28 +15528,28 @@
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44">
@@ -15244,7 +15557,7 @@
         <v>242</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="C44" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.7430162374067%2C83.87320193640551&amp;z=12","37")</f>
@@ -15274,40 +15587,40 @@
         <v>266</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>266</v>
@@ -15326,17 +15639,17 @@
         <v>248</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="C45" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=26.014780548059537%2C85.09495798243438&amp;z=12","38")</f>
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="F45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_district","Vaishali")</f>
@@ -15354,41 +15667,41 @@
         <v>266</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K45" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_(ancient_city)","Vaishali")</f>
         <v>Vaishali</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>266</v>
@@ -15407,64 +15720,64 @@
         <v>253</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="C46" s="14">
         <v>39.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>266</v>
@@ -15483,7 +15796,7 @@
         <v>259</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="C47" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","40")</f>
@@ -15513,42 +15826,42 @@
         <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O47" s="22" t="str">
         <f t="shared" ref="O47:O62" si="29">HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>266</v>
@@ -15567,13 +15880,13 @@
         <v>259</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="C48" s="14">
         <v>41.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E48" s="22" t="str">
         <f t="shared" si="25"/>
@@ -15595,41 +15908,41 @@
         <v>266</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O48" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>266</v>
@@ -15648,14 +15961,14 @@
         <v>267</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="C49" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.021011866415765%2C85.4992275630334&amp;z=12","42")</f>
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="E49" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Giriyak","Giriyak")</f>
@@ -15677,42 +15990,42 @@
         <v>266</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>HYPERLINK("https://www.jatland.com/home/Giryak","Giryek")</f>
         <v>Giryek</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O49" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>266</v>
@@ -15731,17 +16044,17 @@
         <v>267</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="C50" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.146201055831895%2C85.42835071494505&amp;z=12","43")</f>
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="F50" s="22" t="str">
         <f t="shared" si="30"/>
@@ -15759,42 +16072,42 @@
         <v>266</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nalanda","Nala")</f>
         <v>Nala</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O50" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>655</v>
+        <v>396</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>266</v>
@@ -15813,14 +16126,14 @@
         <v>267</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="C51" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.018748635180835%2C85.4032881539099&amp;z=12","44")</f>
         <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E51" s="22" t="str">
         <f t="shared" ref="E51:E58" si="31">HYPERLINK("https://en.wikipedia.org/wiki/Rajgir","Rajgir")</f>
@@ -15842,41 +16155,41 @@
         <v>266</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O51" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>266</v>
@@ -15895,14 +16208,14 @@
         <v>274</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="C52" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.011304665466987%2C85.4332480868809&amp;z=12","45")</f>
         <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E52" s="22" t="str">
         <f t="shared" si="31"/>
@@ -15924,38 +16237,38 @@
         <v>266</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O52" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>266</v>
@@ -15974,7 +16287,7 @@
         <v>274</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="C53" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.005060701273067%2C85.43872566517189&amp;z=12","46")</f>
@@ -16004,41 +16317,41 @@
         <v>266</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O53" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>266</v>
@@ -16057,7 +16370,7 @@
         <v>279</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="C54" s="14">
         <v>47.0</v>
@@ -16086,41 +16399,41 @@
         <v>266</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O54" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>266</v>
@@ -16139,13 +16452,13 @@
         <v>279</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
       <c r="C55" s="14">
         <v>48.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E55" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16167,41 +16480,41 @@
         <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O55" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>266</v>
@@ -16220,13 +16533,13 @@
         <v>279</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="C56" s="14">
         <v>48.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="E56" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16248,41 +16561,41 @@
         <v>266</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O56" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>266</v>
@@ -16301,7 +16614,7 @@
         <v>279</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="C57" s="14">
         <v>49.0</v>
@@ -16330,41 +16643,41 @@
         <v>266</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O57" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>266</v>
@@ -16383,13 +16696,13 @@
         <v>279</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
       <c r="C58" s="14">
         <v>50.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E58" s="22" t="str">
         <f t="shared" si="31"/>
@@ -16411,41 +16724,41 @@
         <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O58" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>266</v>
@@ -16464,14 +16777,14 @@
         <v>287</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="C59" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.78969479649287%2C84.98467590145651&amp;z=12","51")</f>
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gaya,_India","Gaya")</f>
@@ -16493,41 +16806,41 @@
         <v>266</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>665</v>
+        <v>454</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O59" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>266</v>
@@ -16546,7 +16859,7 @@
         <v>287</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="C60" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.696962894699446%2C84.9659879247863&amp;z=12","52")</f>
@@ -16576,41 +16889,41 @@
         <v>266</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O60" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>266</v>
@@ -16629,7 +16942,7 @@
         <v>300</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="C61" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.548687563998897%2C85.2906752102283&amp;z=12","53")</f>
@@ -16640,7 +16953,7 @@
         <v>Gurpa Hill</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="F61" s="22" t="str">
         <f t="shared" si="32"/>
@@ -16658,38 +16971,38 @@
         <v>266</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O61" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>266</v>
@@ -16708,14 +17021,14 @@
         <v>306</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="C62" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","54")</f>
         <v>54</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E62" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -16737,42 +17050,42 @@
         <v>266</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O62" s="22" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>266</v>
@@ -16791,31 +17104,31 @@
         <v>306</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C63" s="25">
         <v>55.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
     </row>
     <row r="64">
@@ -16823,14 +17136,14 @@
         <v>306</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C64" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.311619542229757%2C82.96152352056333&amp;z=12","56")</f>
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E64" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Varanasi","Varanasi")</f>
@@ -16852,7 +17165,7 @@
         <v>266</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="65">
@@ -16860,7 +17173,7 @@
         <v>306</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C65" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.37185416787389%2C83.00546883306333&amp;z=12","57")</f>
@@ -16890,7 +17203,7 @@
         <v>266</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66">
@@ -16898,17 +17211,17 @@
         <v>306</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="C66" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.340593900335598%2C81.36565102487407&amp;z=12","58")</f>
         <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="F66" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kaushambi_district","Kaushambi")</f>
@@ -16931,40 +17244,40 @@
         <v>306</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="C67" s="25">
         <v>59.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>266</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="8"/>
@@ -16983,14 +17296,14 @@
         <v>319</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C68" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","60")</f>
         <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -17012,42 +17325,42 @@
         <v>266</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="O68" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>266</v>
@@ -17066,17 +17379,17 @@
         <v>323</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C69" s="21" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.248716707163823%2C86.918446321582&amp;z=12","61")</f>
         <v>61</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="F69" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nathnagar_(Vidhan_Sabha_constituency)","Nathnagar")</f>
@@ -17094,7 +17407,7 @@
         <v>266</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>473</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70">
@@ -17102,14 +17415,14 @@
         <v>323</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C70" s="23" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=22.277762973128496%2C87.91568685806817&amp;z=12","62")</f>
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamluk","Tamluk")</f>
@@ -17141,28 +17454,28 @@
     </row>
     <row r="71">
       <c r="A71" s="13" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
@@ -17171,16 +17484,16 @@
         <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>15</v>
@@ -17189,28 +17502,28 @@
         <v>36</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72">
@@ -17226,7 +17539,7 @@
         <v>Anuradhapura</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73">

--- a/src/data/a-record-of-buddhistic-kingdoms.xlsx
+++ b/src/data/a-record-of-buddhistic-kingdoms.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="1103">
   <si>
     <t>Google Maps</t>
   </si>
@@ -2742,6 +2742,15 @@
     <t>American linguist, missionary, and Sinologist.</t>
   </si>
   <si>
+    <t>Unnamed Tartar</t>
+  </si>
+  <si>
+    <t>Tartar who went with Săng-shâo to Kophene.</t>
+  </si>
+  <si>
+    <t>Tartar who went with Sēng Shào to Kophene.</t>
+  </si>
+  <si>
     <t>King of Tsze-hoh</t>
   </si>
   <si>
@@ -2757,15 +2766,6 @@
     <t>King of Qí Guó.</t>
   </si>
   <si>
-    <t>Unnamed Tartar</t>
-  </si>
-  <si>
-    <t>Tartar who went with Săng-shâo to Kophene.</t>
-  </si>
-  <si>
-    <t>Tartar who went with Sēng Shào to Kophene.</t>
-  </si>
-  <si>
     <t>King of K’eeh-ch’â</t>
   </si>
   <si>
@@ -2802,6 +2802,24 @@
     <t>Aśoka is well known.</t>
   </si>
   <si>
+    <t>Chang K’een</t>
+  </si>
+  <si>
+    <t>Zhāng Qiān</t>
+  </si>
+  <si>
+    <t>張騫</t>
+  </si>
+  <si>
+    <t>张骞</t>
+  </si>
+  <si>
+    <t>Zhang Qian</t>
+  </si>
+  <si>
+    <t>Chinese envoy during Emperor Wu of Han's reign.</t>
+  </si>
+  <si>
     <t>Maitreya</t>
   </si>
   <si>
@@ -2818,6 +2836,33 @@
   </si>
   <si>
     <t>Propheseied Buddha who will revive the Dhamma after the end of the current dispensation.</t>
+  </si>
+  <si>
+    <t>William Frederick Mayers</t>
+  </si>
+  <si>
+    <t>Fellow of the Royal Geographical Society</t>
+  </si>
+  <si>
+    <t>Mayers William</t>
+  </si>
+  <si>
+    <t>British vice-consul in China.</t>
+  </si>
+  <si>
+    <t>Kan Ying</t>
+  </si>
+  <si>
+    <t>Gān Yīng</t>
+  </si>
+  <si>
+    <t>甘英</t>
+  </si>
+  <si>
+    <t>Gan Ying</t>
+  </si>
+  <si>
+    <t>Chinese diplomat sent to Rome in 97 AD.</t>
   </si>
   <si>
     <t>Sir James Emerson Tennent</t>
@@ -17974,40 +18019,40 @@
         <v>908</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="L62" s="2" t="s">
+      <c r="N62" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="M62" s="17" t="s">
-        <v>911</v>
-      </c>
-      <c r="N62" s="17" t="s">
-        <v>912</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>50</v>
@@ -18025,7 +18070,7 @@
         <v>0.0</v>
       </c>
       <c r="T62" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>50</v>
@@ -18042,10 +18087,10 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>50</v>
@@ -18065,19 +18110,19 @@
       <c r="I63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>50</v>
+      <c r="J63" s="16" t="s">
+        <v>911</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>912</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="17" t="s">
         <v>914</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" s="17" t="s">
         <v>915</v>
       </c>
       <c r="O63" s="2" t="s">
@@ -18096,7 +18141,7 @@
         <v>0.0</v>
       </c>
       <c r="T63" s="2">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U63" s="2" t="s">
         <v>50</v>
@@ -18161,13 +18206,13 @@
         <v>50</v>
       </c>
       <c r="R64" s="2">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="S64" s="2">
         <v>0.0</v>
       </c>
       <c r="T64" s="2">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>50</v>
@@ -18261,19 +18306,19 @@
         <v>928</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>931</v>
+        <v>50</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>50</v>
@@ -18282,13 +18327,13 @@
         <v>50</v>
       </c>
       <c r="J66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>933</v>
@@ -18299,14 +18344,14 @@
       <c r="O66" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="P66" s="2" t="s">
-        <v>50</v>
+      <c r="P66" s="5" t="s">
+        <v>610</v>
       </c>
       <c r="Q66" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R66" s="2">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="S66" s="2">
         <v>0.0</v>
@@ -18315,7 +18360,7 @@
         <v>0.0</v>
       </c>
       <c r="U66" s="2">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="V66" s="2">
         <v>99.0</v>
@@ -18335,16 +18380,16 @@
         <v>934</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>50</v>
+        <v>935</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>936</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>50</v>
+        <v>937</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>50</v>
@@ -18353,37 +18398,40 @@
         <v>50</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>50</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="P67" s="5" t="s">
-        <v>938</v>
+      <c r="P67" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>50</v>
       </c>
       <c r="R67" s="2">
-        <v>38.0</v>
+        <v>6.0</v>
       </c>
       <c r="S67" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="T67" s="2">
         <v>0.0</v>
       </c>
-      <c r="T67" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="U67" s="2">
-        <v>5.0</v>
+      <c r="U67" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="V67" s="2">
         <v>99.0</v>
@@ -18397,46 +18445,46 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>940</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="L68" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>945</v>
-      </c>
       <c r="N68" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="O68" s="2" t="s">
-        <v>50</v>
+        <v>50</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>609</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>50</v>
@@ -18445,21 +18493,228 @@
         <v>50</v>
       </c>
       <c r="R68" s="2">
-        <v>40.0</v>
+        <v>7.0</v>
       </c>
       <c r="S68" s="2">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="T68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>50</v>
+        <v>1.0</v>
+      </c>
+      <c r="U68" s="2">
+        <v>3.0</v>
       </c>
       <c r="V68" s="2">
         <v>99.0</v>
       </c>
       <c r="W68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R69" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T69" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="U69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V69" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="W69" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R70" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="T70" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="U70" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="W70" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R71" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V71" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="W71" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -18530,10 +18785,14 @@
     <hyperlink r:id="rId63" ref="O65"/>
     <hyperlink r:id="rId64" ref="P65"/>
     <hyperlink r:id="rId65" ref="O66"/>
-    <hyperlink r:id="rId66" ref="O67"/>
-    <hyperlink r:id="rId67" ref="P67"/>
+    <hyperlink r:id="rId66" ref="P66"/>
+    <hyperlink r:id="rId67" ref="O67"/>
+    <hyperlink r:id="rId68" ref="O68"/>
+    <hyperlink r:id="rId69" ref="O69"/>
+    <hyperlink r:id="rId70" ref="O70"/>
+    <hyperlink r:id="rId71" ref="P70"/>
   </hyperlinks>
-  <drawing r:id="rId68"/>
+  <drawing r:id="rId72"/>
 </worksheet>
 </file>
 
@@ -18552,7 +18811,7 @@
         <v>590</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>600</v>
@@ -18561,7 +18820,7 @@
         <v>601</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
@@ -18631,28 +18890,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>35</v>
@@ -18661,16 +18920,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>15</v>
@@ -18679,28 +18938,28 @@
         <v>36</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2">
@@ -18719,7 +18978,7 @@
         <v>Daxingshan Temple</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
       <c r="F2" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Yanta_District","Yanta")</f>
@@ -18737,32 +18996,32 @@
         <v>58</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L2" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Chang%27an","Ch'ang-gan")</f>
         <v>Ch'ang-gan</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O2" s="24" t="s">
         <v>53</v>
       </c>
       <c r="P2" s="24" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="Q2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R2" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S2" s="24" t="s">
         <v>54</v>
@@ -18805,10 +19064,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F3" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Longxi_County","Longxi")</f>
@@ -18826,40 +19085,40 @@
         <v>58</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>66</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="Q3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S3" s="24" t="s">
         <v>74</v>
       </c>
       <c r="T3" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U3" s="24" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="V3" s="23" t="s">
         <v>58</v>
@@ -18893,13 +19152,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G4" s="22" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Lanzhou","Lanzhou")</f>
@@ -18913,40 +19172,40 @@
         <v>58</v>
       </c>
       <c r="J4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T4" s="24" t="s">
         <v>89</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="V4" s="23" t="s">
         <v>58</v>
@@ -18984,7 +19243,7 @@
         <v>White Horse Temple</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Huzhu_Tu_Autonomous_County","Huzhu")</f>
@@ -19002,40 +19261,40 @@
         <v>58</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>978</v>
+        <v>993</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>58</v>
@@ -19061,13 +19320,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Zhangye","Zhangye")</f>
@@ -19084,37 +19343,37 @@
         <v>120</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>979</v>
+        <v>994</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>803</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>126</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>980</v>
+        <v>995</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="V6" s="2" t="s">
         <v>58</v>
@@ -19144,7 +19403,7 @@
         <v>Leiyin Temple</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F7" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dunhuang","Dunhuang")</f>
@@ -19162,40 +19421,40 @@
         <v>58</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>981</v>
+        <v>996</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>58</v>
@@ -19221,7 +19480,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ruoqiang_Town","Ruoqiang")</f>
@@ -19243,40 +19502,40 @@
         <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V8" s="2" t="s">
         <v>58</v>
@@ -19286,7 +19545,7 @@
         <v>Shanshan</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9">
@@ -19305,7 +19564,7 @@
         <v>Subashi Temple</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F9" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kuqa_County","Kuqa")</f>
@@ -19323,19 +19582,19 @@
         <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>148</v>
@@ -19344,19 +19603,19 @@
         <v>857</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>58</v>
@@ -19366,12 +19625,12 @@
         <v>Kucha</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>203</v>
@@ -19385,7 +19644,7 @@
         <v>Melikawat</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F10" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Hotan","Hotan")</f>
@@ -19407,37 +19666,37 @@
         <v>Gomati</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>58</v>
@@ -19447,7 +19706,7 @@
         <v>Khotan</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11">
@@ -19462,7 +19721,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E11" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Tashkurgan")</f>
@@ -19484,76 +19743,76 @@
         <v>58</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>166</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>172</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W11" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tashkurgan_Town","Sarikol")</f>
         <v>Sarikol</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>35</v>
@@ -19562,16 +19821,16 @@
         <v>8</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>15</v>
@@ -19580,28 +19839,28 @@
         <v>36</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="13">
@@ -19616,7 +19875,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E13" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gilgit","Gilgit")</f>
@@ -19638,55 +19897,55 @@
         <v>181</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>176</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="W13" s="27" t="str">
         <f t="shared" ref="W13:W14" si="7">HYPERLINK("https://en.wikipedia.org/wiki/Baloristan","Baloristan")</f>
         <v>Baloristan</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>237</v>
@@ -19696,7 +19955,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E14" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Skardu","Skardu")</f>
@@ -19718,50 +19977,50 @@
         <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W14" s="27" t="str">
         <f t="shared" si="7"/>
         <v>Baloristan</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15">
@@ -19776,7 +20035,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E15" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Palas,_Khyber_Pakhtunkhwa","Palas?")</f>
@@ -19798,50 +20057,50 @@
         <v>181</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="W15" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Dardistan","Dardistan")</f>
         <v>Dardistan</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16">
@@ -19879,50 +20138,50 @@
         <v>181</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W16" s="27" t="str">
         <f t="shared" ref="W16:W17" si="11">HYPERLINK("https://en.wikipedia.org/wiki/Oddiyana","Oddiyana")</f>
         <v>Oddiyana</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="17">
@@ -19960,50 +20219,50 @@
         <v>181</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R17" s="29" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W17" s="27" t="str">
         <f t="shared" si="11"/>
         <v>Oddiyana</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="18">
@@ -20041,50 +20300,50 @@
         <v>181</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W18" s="27" t="str">
         <f t="shared" ref="W18:W20" si="12">HYPERLINK("https://en.wikipedia.org/wiki/Gandhara","Gandhara")</f>
         <v>Gandhara</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="19">
@@ -20122,51 +20381,51 @@
         <v>181</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R19" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Taxila","Taxila")</f>
         <v>Taxila</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W19" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="20">
@@ -20204,76 +20463,76 @@
         <v>181</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>222</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="W20" s="27" t="str">
         <f t="shared" si="12"/>
         <v>Gandhara</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>35</v>
@@ -20282,16 +20541,16 @@
         <v>8</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>15</v>
@@ -20300,28 +20559,28 @@
         <v>36</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="S21" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="22">
@@ -20344,10 +20603,10 @@
         <v>Jalalabad</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" ref="H22:H24" si="14">HYPERLINK("https://en.wikipedia.org/wiki/Nangarhar_Province","Nangarhar")</f>
@@ -20357,40 +20616,40 @@
         <v>232</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>227</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>272</v>
@@ -20400,7 +20659,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23">
@@ -20415,17 +20674,17 @@
         <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="14"/>
@@ -20435,40 +20694,40 @@
         <v>232</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>272</v>
@@ -20478,7 +20737,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="24">
@@ -20493,17 +20752,17 @@
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="13"/>
         <v>Jalalabad</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="14"/>
@@ -20513,40 +20772,40 @@
         <v>232</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>272</v>
@@ -20556,7 +20815,7 @@
         <v>Gandhara</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="25">
@@ -20570,93 +20829,93 @@
         <v>22.0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>232</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>232</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>35</v>
@@ -20665,16 +20924,16 @@
         <v>8</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>15</v>
@@ -20683,28 +20942,28 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27">
@@ -20719,7 +20978,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bannu","Bannu")</f>
@@ -20741,49 +21000,49 @@
         <v>181</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V27" s="2" t="s">
         <v>232</v>
       </c>
       <c r="W27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="28">
@@ -20798,7 +21057,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E28" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Bhera","Bhera")</f>
@@ -20820,37 +21079,37 @@
         <v>181</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>220</v>
@@ -20859,36 +21118,36 @@
         <v>272</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -20897,16 +21156,16 @@
         <v>8</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>15</v>
@@ -20915,28 +21174,28 @@
         <v>36</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="30">
@@ -20974,49 +21233,49 @@
         <v>272</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V30" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="31">
@@ -21031,7 +21290,7 @@
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="E31" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Sankassa","Sankassa")</f>
@@ -21053,49 +21312,49 @@
         <v>272</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="32">
@@ -21110,7 +21369,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E32" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kannauj","Kannauj")</f>
@@ -21132,40 +21391,40 @@
         <v>272</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V32" s="2" t="s">
         <v>272</v>
@@ -21175,7 +21434,7 @@
         <v>Kanyakubja</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="33">
@@ -21189,16 +21448,16 @@
         <v>28.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="H33" s="27" t="str">
         <f t="shared" si="16"/>
@@ -21208,49 +21467,49 @@
         <v>272</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V33" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="34">
@@ -21265,7 +21524,7 @@
         <v>29</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E34" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Ayodhya","Ayodhya")</f>
@@ -21287,49 +21546,49 @@
         <v>272</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="35">
@@ -21367,50 +21626,50 @@
         <v>272</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O35" s="5" t="str">
         <f t="shared" ref="O35:O36" si="20">HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="36">
@@ -21425,10 +21684,10 @@
         <v>31</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="F36" s="27" t="str">
         <f t="shared" si="18"/>
@@ -21446,76 +21705,76 @@
         <v>272</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>307</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O36" s="5" t="str">
         <f t="shared" si="20"/>
         <v>Kosala</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>272</v>
       </c>
       <c r="W36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>35</v>
@@ -21524,16 +21783,16 @@
         <v>8</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>15</v>
@@ -21542,28 +21801,28 @@
         <v>36</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="38">
@@ -21578,7 +21837,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="E38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gotihawa","Gotihawa")</f>
@@ -21589,7 +21848,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H38" s="27" t="str">
         <f t="shared" ref="H38:H42" si="22">HYPERLINK("https://en.wikipedia.org/wiki/Province_No._5","Province No. 5")</f>
@@ -21599,50 +21858,50 @@
         <v>319</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O38" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kosala","Kosala")</f>
         <v>Kosala</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>319</v>
       </c>
       <c r="W38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39">
@@ -21669,7 +21928,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H39" s="27" t="str">
         <f t="shared" si="22"/>
@@ -21679,49 +21938,49 @@
         <v>319</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V39" s="2" t="s">
         <v>319</v>
       </c>
       <c r="W39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40">
@@ -21748,7 +22007,7 @@
         <v>Kapilvastu</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H40" s="27" t="str">
         <f t="shared" si="22"/>
@@ -21758,50 +22017,50 @@
         <v>319</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kapilavastu_(ancient_city)","Kapilavastu")</f>
         <v>Kapilavastu</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V40" s="2" t="s">
         <v>319</v>
       </c>
       <c r="W40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X40" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="41">
@@ -21828,7 +22087,7 @@
         <v>Rupandehi</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H41" s="27" t="str">
         <f t="shared" si="22"/>
@@ -21838,49 +22097,49 @@
         <v>319</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>318</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V41" s="2" t="s">
         <v>319</v>
       </c>
       <c r="W41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="42">
@@ -21907,7 +22166,7 @@
         <v>Nawalparasi</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="H42" s="27" t="str">
         <f t="shared" si="22"/>
@@ -21917,75 +22176,75 @@
         <v>319</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>1048</v>
+        <v>1063</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>319</v>
       </c>
       <c r="W42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>35</v>
@@ -21994,16 +22253,16 @@
         <v>8</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>15</v>
@@ -22012,28 +22271,28 @@
         <v>36</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W43" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X43" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="44">
@@ -22071,40 +22330,40 @@
         <v>272</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V44" s="2" t="s">
         <v>272</v>
@@ -22130,10 +22389,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="F45" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_district","Vaishali")</f>
@@ -22151,41 +22410,41 @@
         <v>272</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K45" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Vaishali_(ancient_city)","Vaishali")</f>
         <v>Vaishali</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V45" s="2" t="s">
         <v>272</v>
@@ -22210,58 +22469,58 @@
         <v>39.0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>272</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V46" s="2" t="s">
         <v>272</v>
@@ -22310,42 +22569,42 @@
         <v>272</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O47" s="27" t="str">
         <f t="shared" ref="O47:O62" si="29">HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R47" s="2" t="s">
         <v>391</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V47" s="2" t="s">
         <v>272</v>
@@ -22364,13 +22623,13 @@
         <v>265</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="C48" s="19">
         <v>41.0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E48" s="27" t="str">
         <f t="shared" si="25"/>
@@ -22392,41 +22651,41 @@
         <v>272</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>394</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O48" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>272</v>
@@ -22445,14 +22704,14 @@
         <v>273</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="C49" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.021011866415765%2C85.4992275630334&amp;z=12","42")</f>
         <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="E49" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Giriyak","Giriyak")</f>
@@ -22481,35 +22740,35 @@
         <v>Giryek</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O49" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V49" s="2" t="s">
         <v>272</v>
@@ -22528,17 +22787,17 @@
         <v>273</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="C50" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.146201055831895%2C85.42835071494505&amp;z=12","43")</f>
         <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="F50" s="27" t="str">
         <f t="shared" si="30"/>
@@ -22556,42 +22815,42 @@
         <v>272</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nalanda","Nala")</f>
         <v>Nala</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O50" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R50" s="2" t="s">
         <v>408</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V50" s="2" t="s">
         <v>272</v>
@@ -22610,7 +22869,7 @@
         <v>273</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="C51" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.018748635180835%2C85.4032881539099&amp;z=12","44")</f>
@@ -22639,41 +22898,41 @@
         <v>272</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O51" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V51" s="2" t="s">
         <v>272</v>
@@ -22692,7 +22951,7 @@
         <v>280</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="C52" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.011304665466987%2C85.4332480868809&amp;z=12","45")</f>
@@ -22721,38 +22980,38 @@
         <v>272</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O52" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V52" s="2" t="s">
         <v>272</v>
@@ -22771,7 +23030,7 @@
         <v>280</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="C53" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.005060701273067%2C85.43872566517189&amp;z=12","46")</f>
@@ -22804,38 +23063,38 @@
         <v>418</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O53" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V53" s="2" t="s">
         <v>272</v>
@@ -22854,7 +23113,7 @@
         <v>285</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="C54" s="19">
         <v>47.0</v>
@@ -22886,38 +23145,38 @@
         <v>437</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O54" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V54" s="2" t="s">
         <v>272</v>
@@ -22936,13 +23195,13 @@
         <v>285</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="C55" s="19">
         <v>48.0</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E55" s="27" t="str">
         <f t="shared" si="31"/>
@@ -22964,41 +23223,41 @@
         <v>272</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O55" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V55" s="2" t="s">
         <v>272</v>
@@ -23017,13 +23276,13 @@
         <v>285</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="C56" s="19">
         <v>48.0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="E56" s="27" t="str">
         <f t="shared" si="31"/>
@@ -23048,38 +23307,38 @@
         <v>449</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O56" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V56" s="2" t="s">
         <v>272</v>
@@ -23098,7 +23357,7 @@
         <v>285</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="C57" s="19">
         <v>49.0</v>
@@ -23130,38 +23389,38 @@
         <v>454</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O57" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>272</v>
@@ -23180,13 +23439,13 @@
         <v>285</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="C58" s="19">
         <v>50.0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E58" s="27" t="str">
         <f t="shared" si="31"/>
@@ -23208,41 +23467,41 @@
         <v>272</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O58" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U58" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>272</v>
@@ -23261,14 +23520,14 @@
         <v>293</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="C59" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.78969479649287%2C84.98467590145651&amp;z=12","51")</f>
         <v>51</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E59" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Gaya,_India","Gaya")</f>
@@ -23290,41 +23549,41 @@
         <v>272</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>466</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O59" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>272</v>
@@ -23343,7 +23602,7 @@
         <v>293</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="C60" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.696962894699446%2C84.9659879247863&amp;z=12","52")</f>
@@ -23373,41 +23632,41 @@
         <v>272</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O60" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>272</v>
@@ -23426,7 +23685,7 @@
         <v>306</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="C61" s="26" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=24.548687563998897%2C85.2906752102283&amp;z=12","53")</f>
@@ -23437,7 +23696,7 @@
         <v>Gurpa Hill</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="F61" s="27" t="str">
         <f t="shared" si="32"/>
@@ -23455,38 +23714,38 @@
         <v>272</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O61" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V61" s="2" t="s">
         <v>272</v>
@@ -23505,14 +23764,14 @@
         <v>312</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="C62" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","54")</f>
         <v>54</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E62" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -23534,42 +23793,42 @@
         <v>272</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K62" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O62" s="27" t="str">
         <f t="shared" si="29"/>
         <v>Magadha</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R62" s="2" t="s">
         <v>391</v>
       </c>
       <c r="S62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V62" s="2" t="s">
         <v>272</v>
@@ -23588,31 +23847,31 @@
         <v>312</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="C63" s="30">
         <v>55.0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>272</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="64">
@@ -23620,14 +23879,14 @@
         <v>312</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="C64" s="26" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.311619542229757%2C82.96152352056333&amp;z=12","56")</f>
         <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E64" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Varanasi","Varanasi")</f>
@@ -23649,7 +23908,7 @@
         <v>272</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="65">
@@ -23657,7 +23916,7 @@
         <v>312</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="C65" s="26" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.37185416787389%2C83.00546883306333&amp;z=12","57")</f>
@@ -23687,7 +23946,7 @@
         <v>272</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="66">
@@ -23695,17 +23954,17 @@
         <v>312</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C66" s="26" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.340593900335598%2C81.36565102487407&amp;z=12","58")</f>
         <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="F66" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Kaushambi_district","Kaushambi")</f>
@@ -23728,40 +23987,40 @@
         <v>312</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="C67" s="30">
         <v>59.0</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>272</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="8"/>
@@ -23780,14 +24039,14 @@
         <v>325</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="C68" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.600334733413224%2C85.17480100122827&amp;z=12","60")</f>
         <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E68" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Patna","Patna")</f>
@@ -23809,42 +24068,42 @@
         <v>272</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="K68" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Pataliputra","Pataliputtra")</f>
         <v>Pataliputtra</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="O68" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Magadha","Magadha")</f>
         <v>Magadha</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="R68" s="2" t="s">
         <v>391</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="U68" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="V68" s="2" t="s">
         <v>272</v>
@@ -23863,17 +24122,17 @@
         <v>330</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="C69" s="26" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=25.248716707163823%2C86.918446321582&amp;z=12","61")</f>
         <v>61</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="F69" s="27" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Nathnagar_(Vidhan_Sabha_constituency)","Nathnagar")</f>
@@ -23899,14 +24158,14 @@
         <v>330</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="C70" s="28" t="str">
         <f>HYPERLINK("https://www.google.com/maps/d/edit?hl=en&amp;mid=1970tbtM-tv6DT2EZxbJqBsaOKTTYQn3E&amp;ll=22.277762973128496%2C87.91568685806817&amp;z=12","62")</f>
         <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="E70" s="5" t="str">
         <f>HYPERLINK("https://en.wikipedia.org/wiki/Tamluk","Tamluk")</f>
@@ -23938,28 +24197,28 @@
     </row>
     <row r="71">
       <c r="A71" s="18" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>35</v>
@@ -23968,16 +24227,16 @@
         <v>8</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>15</v>
@@ -23986,28 +24245,28 @@
         <v>36</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="U71" s="2" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="W71" s="2" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="X71" s="2" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="72">
@@ -28765,7 +29024,7 @@
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="8">
@@ -28790,7 +29049,7 @@
     </row>
     <row r="12">
       <c r="A12" s="34" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="13">
@@ -28860,7 +29119,7 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="27">
@@ -28885,7 +29144,7 @@
     </row>
     <row r="31">
       <c r="A31" s="33" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
     </row>
     <row r="32">
@@ -28905,7 +29164,7 @@
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="36">
@@ -28975,7 +29234,7 @@
     </row>
     <row r="49">
       <c r="A49" s="33" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
     </row>
     <row r="50">
@@ -28990,7 +29249,7 @@
     </row>
     <row r="52">
       <c r="A52" s="33" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53">
@@ -29005,12 +29264,12 @@
     </row>
     <row r="55">
       <c r="A55" s="34" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="34" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="57">
@@ -29025,7 +29284,7 @@
     </row>
     <row r="59">
       <c r="A59" s="34" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="60">
